--- a/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>HUYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>325000</v>
+        <v>337600</v>
       </c>
       <c r="E8" s="3">
-        <v>288500</v>
+        <v>345400</v>
       </c>
       <c r="F8" s="3">
-        <v>234100</v>
+        <v>317000</v>
       </c>
       <c r="G8" s="3">
-        <v>215900</v>
+        <v>281400</v>
       </c>
       <c r="H8" s="3">
-        <v>183200</v>
+        <v>228300</v>
       </c>
       <c r="I8" s="3">
+        <v>210600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>178700</v>
+      </c>
+      <c r="K8" s="3">
         <v>149000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>121000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>110000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>86600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>68500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>58000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>49300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>266700</v>
+        <v>271100</v>
       </c>
       <c r="E9" s="3">
-        <v>240300</v>
+        <v>280000</v>
       </c>
       <c r="F9" s="3">
-        <v>194900</v>
+        <v>260200</v>
       </c>
       <c r="G9" s="3">
-        <v>181700</v>
+        <v>234400</v>
       </c>
       <c r="H9" s="3">
-        <v>155400</v>
+        <v>190100</v>
       </c>
       <c r="I9" s="3">
+        <v>177200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>151600</v>
+      </c>
+      <c r="K9" s="3">
         <v>125100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>102200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>93900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>75700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>59900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>55700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>56300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>58300</v>
+        <v>66400</v>
       </c>
       <c r="E10" s="3">
-        <v>48200</v>
+        <v>65300</v>
       </c>
       <c r="F10" s="3">
-        <v>39200</v>
+        <v>56900</v>
       </c>
       <c r="G10" s="3">
-        <v>34200</v>
+        <v>47000</v>
       </c>
       <c r="H10" s="3">
-        <v>27800</v>
+        <v>38300</v>
       </c>
       <c r="I10" s="3">
+        <v>33400</v>
+      </c>
+      <c r="J10" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K10" s="3">
         <v>23900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>18800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>16000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>10900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>8500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-7000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>19400</v>
+        <v>21800</v>
       </c>
       <c r="E12" s="3">
-        <v>15100</v>
+        <v>25000</v>
       </c>
       <c r="F12" s="3">
-        <v>12900</v>
+        <v>18900</v>
       </c>
       <c r="G12" s="3">
-        <v>11300</v>
+        <v>14800</v>
       </c>
       <c r="H12" s="3">
-        <v>10700</v>
+        <v>12600</v>
       </c>
       <c r="I12" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>10400</v>
+      </c>
+      <c r="K12" s="3">
         <v>8600</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>7400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>6500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>7300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>5200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>6200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>7700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>315800</v>
+        <v>318900</v>
       </c>
       <c r="E17" s="3">
-        <v>278800</v>
+        <v>331100</v>
       </c>
       <c r="F17" s="3">
-        <v>230000</v>
+        <v>308100</v>
       </c>
       <c r="G17" s="3">
-        <v>213300</v>
+        <v>271900</v>
       </c>
       <c r="H17" s="3">
-        <v>183600</v>
+        <v>224400</v>
       </c>
       <c r="I17" s="3">
+        <v>208000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>179100</v>
+      </c>
+      <c r="K17" s="3">
         <v>151500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>117000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>110200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>91700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>71000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>64100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>69400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>9200</v>
+        <v>18700</v>
       </c>
       <c r="E18" s="3">
-        <v>9700</v>
+        <v>14200</v>
       </c>
       <c r="F18" s="3">
-        <v>4100</v>
+        <v>8900</v>
       </c>
       <c r="G18" s="3">
-        <v>2700</v>
+        <v>9500</v>
       </c>
       <c r="H18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-6100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-20100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,52 +1243,60 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>12500</v>
+        <v>10700</v>
       </c>
       <c r="E20" s="3">
-        <v>10900</v>
+        <v>12400</v>
       </c>
       <c r="F20" s="3">
-        <v>7800</v>
+        <v>12200</v>
       </c>
       <c r="G20" s="3">
+        <v>10600</v>
+      </c>
+      <c r="H20" s="3">
         <v>7600</v>
       </c>
-      <c r="H20" s="3">
-        <v>7300</v>
-      </c>
       <c r="I20" s="3">
+        <v>7400</v>
+      </c>
+      <c r="J20" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-320100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1266,8 +1339,14 @@
       <c r="P21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,82 +1389,94 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>21700</v>
+        <v>29400</v>
       </c>
       <c r="E23" s="3">
-        <v>20600</v>
+        <v>26600</v>
       </c>
       <c r="F23" s="3">
-        <v>11800</v>
+        <v>21100</v>
       </c>
       <c r="G23" s="3">
-        <v>10200</v>
+        <v>20100</v>
       </c>
       <c r="H23" s="3">
-        <v>6900</v>
+        <v>11500</v>
       </c>
       <c r="I23" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>6700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-322600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>3900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-6100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-20000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>4000</v>
+        <v>5300</v>
       </c>
       <c r="E24" s="3">
-        <v>3100</v>
+        <v>3900</v>
       </c>
       <c r="F24" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H24" s="3">
         <v>2700</v>
       </c>
-      <c r="G24" s="3">
-        <v>-4600</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-600</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>17700</v>
+        <v>24100</v>
       </c>
       <c r="E26" s="3">
-        <v>17500</v>
+        <v>22700</v>
       </c>
       <c r="F26" s="3">
-        <v>9100</v>
+        <v>17200</v>
       </c>
       <c r="G26" s="3">
-        <v>14800</v>
+        <v>17100</v>
       </c>
       <c r="H26" s="3">
-        <v>8100</v>
+        <v>8900</v>
       </c>
       <c r="I26" s="3">
+        <v>14400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-321700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>4500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-4300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-6100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-20000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>17700</v>
+        <v>24000</v>
       </c>
       <c r="E27" s="3">
-        <v>17500</v>
+        <v>22300</v>
       </c>
       <c r="F27" s="3">
-        <v>9100</v>
+        <v>17200</v>
       </c>
       <c r="G27" s="3">
-        <v>14300</v>
+        <v>17000</v>
       </c>
       <c r="H27" s="3">
-        <v>8100</v>
+        <v>8900</v>
       </c>
       <c r="I27" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-310800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-71200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-5800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-2200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-6100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-20000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12500</v>
+        <v>-10700</v>
       </c>
       <c r="E32" s="3">
-        <v>-10900</v>
+        <v>-12400</v>
       </c>
       <c r="F32" s="3">
-        <v>-7800</v>
+        <v>-12200</v>
       </c>
       <c r="G32" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-7600</v>
       </c>
-      <c r="H32" s="3">
-        <v>-7300</v>
-      </c>
       <c r="I32" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="K32" s="3">
         <v>320100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>17700</v>
+        <v>24000</v>
       </c>
       <c r="E33" s="3">
-        <v>17500</v>
+        <v>22300</v>
       </c>
       <c r="F33" s="3">
-        <v>9100</v>
+        <v>17200</v>
       </c>
       <c r="G33" s="3">
-        <v>14300</v>
+        <v>17000</v>
       </c>
       <c r="H33" s="3">
-        <v>8100</v>
+        <v>8900</v>
       </c>
       <c r="I33" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-310800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-71200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-5800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-2200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-6100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-20000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>17700</v>
+        <v>24000</v>
       </c>
       <c r="E35" s="3">
-        <v>17500</v>
+        <v>22300</v>
       </c>
       <c r="F35" s="3">
-        <v>9100</v>
+        <v>17200</v>
       </c>
       <c r="G35" s="3">
-        <v>14300</v>
+        <v>17000</v>
       </c>
       <c r="H35" s="3">
-        <v>8100</v>
+        <v>8900</v>
       </c>
       <c r="I35" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-310800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-71200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-5800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-2200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-6100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-20000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2138,40 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1216700</v>
+        <v>1102700</v>
       </c>
       <c r="E41" s="3">
-        <v>1178200</v>
+        <v>1099600</v>
       </c>
       <c r="F41" s="3">
-        <v>816500</v>
+        <v>1186800</v>
       </c>
       <c r="G41" s="3">
-        <v>816800</v>
+        <v>1149300</v>
       </c>
       <c r="H41" s="3">
-        <v>825300</v>
+        <v>796400</v>
       </c>
       <c r="I41" s="3">
+        <v>796800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>805000</v>
+      </c>
+      <c r="K41" s="3">
         <v>770000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>584200</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2011,35 +2184,41 @@
       <c r="P41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>151700</v>
+        <v>341200</v>
       </c>
       <c r="E42" s="3">
-        <v>129300</v>
+        <v>310600</v>
       </c>
       <c r="F42" s="3">
-        <v>91600</v>
+        <v>148000</v>
       </c>
       <c r="G42" s="3">
-        <v>43100</v>
+        <v>126200</v>
       </c>
       <c r="H42" s="3">
-        <v>17400</v>
+        <v>89400</v>
       </c>
       <c r="I42" s="3">
+        <v>42000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>17000</v>
+      </c>
+      <c r="K42" s="3">
         <v>21300</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2055,38 +2234,44 @@
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23600</v>
+        <v>15600</v>
       </c>
       <c r="E43" s="3">
-        <v>13700</v>
+        <v>15900</v>
       </c>
       <c r="F43" s="3">
-        <v>31500</v>
+        <v>23100</v>
       </c>
       <c r="G43" s="3">
-        <v>40600</v>
+        <v>13400</v>
       </c>
       <c r="H43" s="3">
-        <v>18900</v>
+        <v>30700</v>
       </c>
       <c r="I43" s="3">
+        <v>39600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>18500</v>
+      </c>
+      <c r="K43" s="3">
         <v>19900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>19800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,38 +2334,44 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>62600</v>
+        <v>56000</v>
       </c>
       <c r="E45" s="3">
-        <v>43900</v>
+        <v>56300</v>
       </c>
       <c r="F45" s="3">
-        <v>33300</v>
+        <v>61100</v>
       </c>
       <c r="G45" s="3">
-        <v>45800</v>
+        <v>42900</v>
       </c>
       <c r="H45" s="3">
-        <v>33600</v>
+        <v>32500</v>
       </c>
       <c r="I45" s="3">
+        <v>44700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K45" s="3">
         <v>24700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>12200</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2187,38 +2384,44 @@
       <c r="P45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1454700</v>
+        <v>1515500</v>
       </c>
       <c r="E46" s="3">
-        <v>1365200</v>
+        <v>1482400</v>
       </c>
       <c r="F46" s="3">
-        <v>972900</v>
+        <v>1419000</v>
       </c>
       <c r="G46" s="3">
-        <v>946300</v>
+        <v>1331700</v>
       </c>
       <c r="H46" s="3">
-        <v>895200</v>
+        <v>949000</v>
       </c>
       <c r="I46" s="3">
+        <v>923100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>873300</v>
+      </c>
+      <c r="K46" s="3">
         <v>835800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>616200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2231,38 +2434,44 @@
       <c r="P46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>52800</v>
+        <v>56400</v>
       </c>
       <c r="E47" s="3">
-        <v>52800</v>
+        <v>53100</v>
       </c>
       <c r="F47" s="3">
-        <v>47100</v>
+        <v>51500</v>
       </c>
       <c r="G47" s="3">
-        <v>31500</v>
+        <v>51500</v>
       </c>
       <c r="H47" s="3">
-        <v>30600</v>
+        <v>46000</v>
       </c>
       <c r="I47" s="3">
+        <v>30800</v>
+      </c>
+      <c r="J47" s="3">
+        <v>29800</v>
+      </c>
+      <c r="K47" s="3">
         <v>30400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>100</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2275,38 +2484,44 @@
       <c r="P47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>30100</v>
+      </c>
+      <c r="G48" s="3">
         <v>30800</v>
       </c>
-      <c r="E48" s="3">
-        <v>31600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>27100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>12500</v>
-      </c>
       <c r="H48" s="3">
-        <v>12000</v>
+        <v>26500</v>
       </c>
       <c r="I48" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K48" s="3">
         <v>10000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>5500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2319,38 +2534,44 @@
       <c r="P48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F49" s="3">
+        <v>6700</v>
+      </c>
+      <c r="G49" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H49" s="3">
         <v>6800</v>
       </c>
-      <c r="E49" s="3">
-        <v>6500</v>
-      </c>
-      <c r="F49" s="3">
-        <v>6900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>7500</v>
-      </c>
-      <c r="H49" s="3">
-        <v>7200</v>
-      </c>
       <c r="I49" s="3">
+        <v>7300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K49" s="3">
         <v>5200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>800</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,38 +2684,44 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>23400</v>
+        <v>24600</v>
       </c>
       <c r="E52" s="3">
-        <v>21900</v>
+        <v>21100</v>
       </c>
       <c r="F52" s="3">
-        <v>19400</v>
+        <v>22800</v>
       </c>
       <c r="G52" s="3">
-        <v>21800</v>
+        <v>21400</v>
       </c>
       <c r="H52" s="3">
-        <v>10800</v>
+        <v>18900</v>
       </c>
       <c r="I52" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J52" s="3">
+        <v>10500</v>
+      </c>
+      <c r="K52" s="3">
         <v>2200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>5400</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2784,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1568500</v>
+        <v>1628500</v>
       </c>
       <c r="E54" s="3">
-        <v>1477900</v>
+        <v>1590900</v>
       </c>
       <c r="F54" s="3">
-        <v>1073500</v>
+        <v>1530000</v>
       </c>
       <c r="G54" s="3">
-        <v>1019600</v>
+        <v>1441600</v>
       </c>
       <c r="H54" s="3">
-        <v>955700</v>
+        <v>1047100</v>
       </c>
       <c r="I54" s="3">
+        <v>994600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>932300</v>
+      </c>
+      <c r="K54" s="3">
         <v>883600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>627900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2583,8 +2834,14 @@
       <c r="P54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,37 +2878,39 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1600</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>2600</v>
+        <v>500</v>
       </c>
       <c r="F57" s="3">
-        <v>2800</v>
+        <v>1500</v>
       </c>
       <c r="G57" s="3">
-        <v>1300</v>
+        <v>2500</v>
       </c>
       <c r="H57" s="3">
         <v>2700</v>
       </c>
       <c r="I57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>16</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>16</v>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,38 +2974,44 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>310500</v>
+        <v>326500</v>
       </c>
       <c r="E59" s="3">
-        <v>280200</v>
+        <v>341900</v>
       </c>
       <c r="F59" s="3">
-        <v>227800</v>
+        <v>302900</v>
       </c>
       <c r="G59" s="3">
-        <v>196700</v>
+        <v>273300</v>
       </c>
       <c r="H59" s="3">
-        <v>155200</v>
+        <v>222200</v>
       </c>
       <c r="I59" s="3">
+        <v>191900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>151400</v>
+      </c>
+      <c r="K59" s="3">
         <v>128700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>244600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>16</v>
       </c>
@@ -2751,38 +3024,44 @@
       <c r="P59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>312000</v>
+        <v>326900</v>
       </c>
       <c r="E60" s="3">
-        <v>282700</v>
+        <v>342400</v>
       </c>
       <c r="F60" s="3">
-        <v>230600</v>
+        <v>304400</v>
       </c>
       <c r="G60" s="3">
-        <v>198100</v>
+        <v>275800</v>
       </c>
       <c r="H60" s="3">
-        <v>157900</v>
+        <v>225000</v>
       </c>
       <c r="I60" s="3">
+        <v>193200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>154000</v>
+      </c>
+      <c r="K60" s="3">
         <v>129600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>244600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>16</v>
       </c>
@@ -2795,8 +3074,14 @@
       <c r="P60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,38 +3124,44 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>32400</v>
+        <v>34200</v>
       </c>
       <c r="E62" s="3">
-        <v>31200</v>
+        <v>32900</v>
       </c>
       <c r="F62" s="3">
-        <v>26100</v>
+        <v>31600</v>
       </c>
       <c r="G62" s="3">
-        <v>11600</v>
+        <v>30500</v>
       </c>
       <c r="H62" s="3">
-        <v>9900</v>
+        <v>25500</v>
       </c>
       <c r="I62" s="3">
+        <v>11300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K62" s="3">
         <v>10700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>7000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3324,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>344500</v>
+        <v>361100</v>
       </c>
       <c r="E66" s="3">
-        <v>314000</v>
+        <v>375300</v>
       </c>
       <c r="F66" s="3">
-        <v>256700</v>
+        <v>336000</v>
       </c>
       <c r="G66" s="3">
-        <v>209700</v>
+        <v>306300</v>
       </c>
       <c r="H66" s="3">
-        <v>167800</v>
+        <v>250400</v>
       </c>
       <c r="I66" s="3">
+        <v>204500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>163700</v>
+      </c>
+      <c r="K66" s="3">
         <v>140300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>251600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3059,8 +3374,14 @@
       <c r="P66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3189,14 +3524,14 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
         <v>434700</v>
       </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
-      <c r="L70" s="3">
-        <v>0</v>
-      </c>
       <c r="M70" s="3">
         <v>0</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,38 +3594,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-298600</v>
+        <v>-245400</v>
       </c>
       <c r="E72" s="3">
-        <v>-316300</v>
+        <v>-268900</v>
       </c>
       <c r="F72" s="3">
-        <v>-333700</v>
+        <v>-291300</v>
       </c>
       <c r="G72" s="3">
-        <v>-342900</v>
+        <v>-308500</v>
       </c>
       <c r="H72" s="3">
-        <v>-357100</v>
+        <v>-325600</v>
       </c>
       <c r="I72" s="3">
+        <v>-334400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-348400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-365300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-59100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3297,8 +3644,14 @@
       <c r="P72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,38 +3794,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1224000</v>
+        <v>1267400</v>
       </c>
       <c r="E76" s="3">
-        <v>1163900</v>
+        <v>1215500</v>
       </c>
       <c r="F76" s="3">
-        <v>816800</v>
+        <v>1194000</v>
       </c>
       <c r="G76" s="3">
-        <v>809900</v>
+        <v>1135400</v>
       </c>
       <c r="H76" s="3">
-        <v>787900</v>
+        <v>796700</v>
       </c>
       <c r="I76" s="3">
+        <v>790100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>768600</v>
+      </c>
+      <c r="K76" s="3">
         <v>743300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-58300</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3473,8 +3844,14 @@
       <c r="P76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>17700</v>
+        <v>24000</v>
       </c>
       <c r="E81" s="3">
-        <v>17500</v>
+        <v>22300</v>
       </c>
       <c r="F81" s="3">
-        <v>9100</v>
+        <v>17200</v>
       </c>
       <c r="G81" s="3">
-        <v>14300</v>
+        <v>17000</v>
       </c>
       <c r="H81" s="3">
-        <v>8100</v>
+        <v>8900</v>
       </c>
       <c r="I81" s="3">
+        <v>13900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>7900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-310800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-71200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-5800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-2200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-6100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-20000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4319,14 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3936,8 +4369,14 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4809,14 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4368,8 +4859,14 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,8 +4909,14 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4454,6 +4957,12 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>HUYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>337600</v>
+        <v>391700</v>
       </c>
       <c r="E8" s="3">
-        <v>345400</v>
+        <v>350300</v>
       </c>
       <c r="F8" s="3">
-        <v>317000</v>
+        <v>358400</v>
       </c>
       <c r="G8" s="3">
-        <v>281400</v>
+        <v>329000</v>
       </c>
       <c r="H8" s="3">
-        <v>228300</v>
+        <v>292000</v>
       </c>
       <c r="I8" s="3">
-        <v>210600</v>
+        <v>236900</v>
       </c>
       <c r="J8" s="3">
+        <v>218600</v>
+      </c>
+      <c r="K8" s="3">
         <v>178700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>149000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>121000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>110000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>86600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>68500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>58000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>49300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>271100</v>
+        <v>308200</v>
       </c>
       <c r="E9" s="3">
-        <v>280000</v>
+        <v>281300</v>
       </c>
       <c r="F9" s="3">
-        <v>260200</v>
+        <v>290600</v>
       </c>
       <c r="G9" s="3">
-        <v>234400</v>
+        <v>269900</v>
       </c>
       <c r="H9" s="3">
-        <v>190100</v>
+        <v>243200</v>
       </c>
       <c r="I9" s="3">
-        <v>177200</v>
+        <v>197200</v>
       </c>
       <c r="J9" s="3">
+        <v>183900</v>
+      </c>
+      <c r="K9" s="3">
         <v>151600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>125100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>102200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>93900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>75700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>59900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>55700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>56300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>66400</v>
+        <v>83500</v>
       </c>
       <c r="E10" s="3">
-        <v>65300</v>
+        <v>68900</v>
       </c>
       <c r="F10" s="3">
-        <v>56900</v>
+        <v>67800</v>
       </c>
       <c r="G10" s="3">
-        <v>47000</v>
+        <v>59000</v>
       </c>
       <c r="H10" s="3">
-        <v>38300</v>
+        <v>48800</v>
       </c>
       <c r="I10" s="3">
-        <v>33400</v>
+        <v>39700</v>
       </c>
       <c r="J10" s="3">
+        <v>34700</v>
+      </c>
+      <c r="K10" s="3">
         <v>27100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>23900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>18800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>16000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>10900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-7000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>21800</v>
+        <v>26100</v>
       </c>
       <c r="E12" s="3">
-        <v>25000</v>
+        <v>22700</v>
       </c>
       <c r="F12" s="3">
-        <v>18900</v>
+        <v>25900</v>
       </c>
       <c r="G12" s="3">
-        <v>14800</v>
+        <v>19600</v>
       </c>
       <c r="H12" s="3">
-        <v>12600</v>
+        <v>15300</v>
       </c>
       <c r="I12" s="3">
-        <v>11100</v>
+        <v>13100</v>
       </c>
       <c r="J12" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K12" s="3">
         <v>10400</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>8600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>7400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>6500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>5200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>6200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>318900</v>
+        <v>362500</v>
       </c>
       <c r="E17" s="3">
-        <v>331100</v>
+        <v>330900</v>
       </c>
       <c r="F17" s="3">
-        <v>308100</v>
+        <v>343600</v>
       </c>
       <c r="G17" s="3">
-        <v>271900</v>
+        <v>319700</v>
       </c>
       <c r="H17" s="3">
-        <v>224400</v>
+        <v>282200</v>
       </c>
       <c r="I17" s="3">
-        <v>208000</v>
+        <v>232800</v>
       </c>
       <c r="J17" s="3">
+        <v>215900</v>
+      </c>
+      <c r="K17" s="3">
         <v>179100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>151500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>117000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>110200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>91700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>71000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>64100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>69400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>18700</v>
+        <v>29200</v>
       </c>
       <c r="E18" s="3">
-        <v>14200</v>
+        <v>19400</v>
       </c>
       <c r="F18" s="3">
-        <v>8900</v>
+        <v>14800</v>
       </c>
       <c r="G18" s="3">
-        <v>9500</v>
+        <v>9300</v>
       </c>
       <c r="H18" s="3">
+        <v>9800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="M18" s="3">
         <v>4000</v>
       </c>
-      <c r="I18" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-2500</v>
       </c>
-      <c r="L18" s="3">
-        <v>4000</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-5100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-20100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,58 +1278,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>10700</v>
+        <v>11200</v>
       </c>
       <c r="E20" s="3">
-        <v>12400</v>
+        <v>11100</v>
       </c>
       <c r="F20" s="3">
-        <v>12200</v>
+        <v>12800</v>
       </c>
       <c r="G20" s="3">
-        <v>10600</v>
+        <v>12700</v>
       </c>
       <c r="H20" s="3">
-        <v>7600</v>
+        <v>11000</v>
       </c>
       <c r="I20" s="3">
-        <v>7400</v>
+        <v>7900</v>
       </c>
       <c r="J20" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K20" s="3">
         <v>7100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-320100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,91 +1435,97 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29400</v>
+        <v>40400</v>
       </c>
       <c r="E23" s="3">
-        <v>26600</v>
+        <v>30500</v>
       </c>
       <c r="F23" s="3">
-        <v>21100</v>
+        <v>27600</v>
       </c>
       <c r="G23" s="3">
-        <v>20100</v>
+        <v>21900</v>
       </c>
       <c r="H23" s="3">
-        <v>11500</v>
+        <v>20800</v>
       </c>
       <c r="I23" s="3">
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="J23" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K23" s="3">
         <v>6700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-322600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>3900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-20000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5300</v>
+        <v>7400</v>
       </c>
       <c r="E24" s="3">
-        <v>3900</v>
+        <v>5500</v>
       </c>
       <c r="F24" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G24" s="3">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="H24" s="3">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="I24" s="3">
-        <v>-4500</v>
+        <v>2800</v>
       </c>
       <c r="J24" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-600</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>24100</v>
+        <v>32900</v>
       </c>
       <c r="E26" s="3">
-        <v>22700</v>
+        <v>25000</v>
       </c>
       <c r="F26" s="3">
-        <v>17200</v>
+        <v>23600</v>
       </c>
       <c r="G26" s="3">
-        <v>17100</v>
+        <v>17900</v>
       </c>
       <c r="H26" s="3">
-        <v>8900</v>
+        <v>17700</v>
       </c>
       <c r="I26" s="3">
-        <v>14400</v>
+        <v>9200</v>
       </c>
       <c r="J26" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K26" s="3">
         <v>7900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-321700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>24000</v>
+        <v>32900</v>
       </c>
       <c r="E27" s="3">
-        <v>22300</v>
+        <v>24900</v>
       </c>
       <c r="F27" s="3">
-        <v>17200</v>
+        <v>23200</v>
       </c>
       <c r="G27" s="3">
-        <v>17000</v>
+        <v>17900</v>
       </c>
       <c r="H27" s="3">
-        <v>8900</v>
+        <v>17700</v>
       </c>
       <c r="I27" s="3">
-        <v>13900</v>
+        <v>9200</v>
       </c>
       <c r="J27" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K27" s="3">
         <v>7900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-310800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-71200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-20000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10700</v>
+        <v>-11200</v>
       </c>
       <c r="E32" s="3">
-        <v>-12400</v>
+        <v>-11100</v>
       </c>
       <c r="F32" s="3">
-        <v>-12200</v>
+        <v>-12800</v>
       </c>
       <c r="G32" s="3">
-        <v>-10600</v>
+        <v>-12700</v>
       </c>
       <c r="H32" s="3">
-        <v>-7600</v>
+        <v>-11000</v>
       </c>
       <c r="I32" s="3">
-        <v>-7400</v>
+        <v>-7900</v>
       </c>
       <c r="J32" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>320100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>24000</v>
+        <v>32900</v>
       </c>
       <c r="E33" s="3">
-        <v>22300</v>
+        <v>24900</v>
       </c>
       <c r="F33" s="3">
-        <v>17200</v>
+        <v>23200</v>
       </c>
       <c r="G33" s="3">
-        <v>17000</v>
+        <v>17900</v>
       </c>
       <c r="H33" s="3">
-        <v>8900</v>
+        <v>17700</v>
       </c>
       <c r="I33" s="3">
-        <v>13900</v>
+        <v>9200</v>
       </c>
       <c r="J33" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K33" s="3">
         <v>7900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-310800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-71200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-5800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-20000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>24000</v>
+        <v>32900</v>
       </c>
       <c r="E35" s="3">
-        <v>22300</v>
+        <v>24900</v>
       </c>
       <c r="F35" s="3">
-        <v>17200</v>
+        <v>23200</v>
       </c>
       <c r="G35" s="3">
-        <v>17000</v>
+        <v>17900</v>
       </c>
       <c r="H35" s="3">
-        <v>8900</v>
+        <v>17700</v>
       </c>
       <c r="I35" s="3">
-        <v>13900</v>
+        <v>9200</v>
       </c>
       <c r="J35" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K35" s="3">
         <v>7900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-310800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-71200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-5800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-20000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,41 +2226,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1102700</v>
+        <v>1212300</v>
       </c>
       <c r="E41" s="3">
-        <v>1099600</v>
+        <v>1144300</v>
       </c>
       <c r="F41" s="3">
-        <v>1186800</v>
+        <v>1141000</v>
       </c>
       <c r="G41" s="3">
-        <v>1149300</v>
+        <v>1231500</v>
       </c>
       <c r="H41" s="3">
-        <v>796400</v>
+        <v>1192600</v>
       </c>
       <c r="I41" s="3">
-        <v>796800</v>
+        <v>826400</v>
       </c>
       <c r="J41" s="3">
+        <v>826800</v>
+      </c>
+      <c r="K41" s="3">
         <v>805000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>770000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>584200</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2190,38 +2277,41 @@
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>341200</v>
+        <v>348300</v>
       </c>
       <c r="E42" s="3">
-        <v>310600</v>
+        <v>354000</v>
       </c>
       <c r="F42" s="3">
-        <v>148000</v>
+        <v>322300</v>
       </c>
       <c r="G42" s="3">
-        <v>126200</v>
+        <v>153600</v>
       </c>
       <c r="H42" s="3">
-        <v>89400</v>
+        <v>130900</v>
       </c>
       <c r="I42" s="3">
-        <v>42000</v>
+        <v>92800</v>
       </c>
       <c r="J42" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K42" s="3">
         <v>17000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>21300</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2240,41 +2330,44 @@
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>15600</v>
+        <v>16800</v>
       </c>
       <c r="E43" s="3">
-        <v>15900</v>
+        <v>16200</v>
       </c>
       <c r="F43" s="3">
-        <v>23100</v>
+        <v>16500</v>
       </c>
       <c r="G43" s="3">
-        <v>13400</v>
+        <v>23900</v>
       </c>
       <c r="H43" s="3">
-        <v>30700</v>
+        <v>13900</v>
       </c>
       <c r="I43" s="3">
-        <v>39600</v>
+        <v>31900</v>
       </c>
       <c r="J43" s="3">
+        <v>41100</v>
+      </c>
+      <c r="K43" s="3">
         <v>18500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19800</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,41 +2436,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>56000</v>
+        <v>60200</v>
       </c>
       <c r="E45" s="3">
-        <v>56300</v>
+        <v>58100</v>
       </c>
       <c r="F45" s="3">
-        <v>61100</v>
+        <v>58400</v>
       </c>
       <c r="G45" s="3">
-        <v>42900</v>
+        <v>63400</v>
       </c>
       <c r="H45" s="3">
-        <v>32500</v>
+        <v>44500</v>
       </c>
       <c r="I45" s="3">
-        <v>44700</v>
+        <v>33700</v>
       </c>
       <c r="J45" s="3">
+        <v>46400</v>
+      </c>
+      <c r="K45" s="3">
         <v>32700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12200</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2390,41 +2489,44 @@
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1515500</v>
+        <v>1637600</v>
       </c>
       <c r="E46" s="3">
-        <v>1482400</v>
+        <v>1572600</v>
       </c>
       <c r="F46" s="3">
-        <v>1419000</v>
+        <v>1538300</v>
       </c>
       <c r="G46" s="3">
-        <v>1331700</v>
+        <v>1472400</v>
       </c>
       <c r="H46" s="3">
-        <v>949000</v>
+        <v>1381800</v>
       </c>
       <c r="I46" s="3">
-        <v>923100</v>
+        <v>984700</v>
       </c>
       <c r="J46" s="3">
+        <v>957800</v>
+      </c>
+      <c r="K46" s="3">
         <v>873300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>835800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>616200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2440,41 +2542,44 @@
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>56400</v>
+        <v>62500</v>
       </c>
       <c r="E47" s="3">
-        <v>53100</v>
+        <v>58500</v>
       </c>
       <c r="F47" s="3">
-        <v>51500</v>
+        <v>55100</v>
       </c>
       <c r="G47" s="3">
-        <v>51500</v>
+        <v>53400</v>
       </c>
       <c r="H47" s="3">
-        <v>46000</v>
+        <v>53400</v>
       </c>
       <c r="I47" s="3">
-        <v>30800</v>
+        <v>47700</v>
       </c>
       <c r="J47" s="3">
+        <v>31900</v>
+      </c>
+      <c r="K47" s="3">
         <v>29800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>30400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>100</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2490,41 +2595,44 @@
       <c r="R47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25800</v>
+        <v>30400</v>
       </c>
       <c r="E48" s="3">
-        <v>27900</v>
+        <v>26800</v>
       </c>
       <c r="F48" s="3">
-        <v>30100</v>
+        <v>29000</v>
       </c>
       <c r="G48" s="3">
-        <v>30800</v>
+        <v>31200</v>
       </c>
       <c r="H48" s="3">
-        <v>26500</v>
+        <v>32000</v>
       </c>
       <c r="I48" s="3">
-        <v>12200</v>
+        <v>27500</v>
       </c>
       <c r="J48" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K48" s="3">
         <v>11700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5500</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2540,41 +2648,44 @@
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6200</v>
+        <v>9600</v>
       </c>
       <c r="E49" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="F49" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="G49" s="3">
-        <v>6300</v>
+        <v>6900</v>
       </c>
       <c r="H49" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="I49" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="J49" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K49" s="3">
         <v>7000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>800</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,41 +2807,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>24600</v>
+        <v>28500</v>
       </c>
       <c r="E52" s="3">
-        <v>21100</v>
+        <v>25500</v>
       </c>
       <c r="F52" s="3">
-        <v>22800</v>
+        <v>21900</v>
       </c>
       <c r="G52" s="3">
-        <v>21400</v>
+        <v>23700</v>
       </c>
       <c r="H52" s="3">
-        <v>18900</v>
+        <v>22200</v>
       </c>
       <c r="I52" s="3">
-        <v>21200</v>
+        <v>19600</v>
       </c>
       <c r="J52" s="3">
+        <v>22000</v>
+      </c>
+      <c r="K52" s="3">
         <v>10500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>5400</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,41 +2913,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1628500</v>
+        <v>1768600</v>
       </c>
       <c r="E54" s="3">
-        <v>1590900</v>
+        <v>1689800</v>
       </c>
       <c r="F54" s="3">
-        <v>1530000</v>
+        <v>1650800</v>
       </c>
       <c r="G54" s="3">
-        <v>1441600</v>
+        <v>1587600</v>
       </c>
       <c r="H54" s="3">
-        <v>1047100</v>
+        <v>1495900</v>
       </c>
       <c r="I54" s="3">
-        <v>994600</v>
+        <v>1086600</v>
       </c>
       <c r="J54" s="3">
+        <v>1032000</v>
+      </c>
+      <c r="K54" s="3">
         <v>932300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>883600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>627900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,40 +3010,41 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
-        <v>1500</v>
-      </c>
       <c r="G57" s="3">
-        <v>2500</v>
+        <v>1600</v>
       </c>
       <c r="H57" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>16</v>
+      <c r="M57" s="3">
+        <v>0</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>16</v>
@@ -2930,8 +3061,11 @@
       <c r="R57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,41 +3114,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>326500</v>
+        <v>356900</v>
       </c>
       <c r="E59" s="3">
-        <v>341900</v>
+        <v>338800</v>
       </c>
       <c r="F59" s="3">
-        <v>302900</v>
+        <v>354800</v>
       </c>
       <c r="G59" s="3">
-        <v>273300</v>
+        <v>314300</v>
       </c>
       <c r="H59" s="3">
-        <v>222200</v>
+        <v>283600</v>
       </c>
       <c r="I59" s="3">
-        <v>191900</v>
+        <v>230600</v>
       </c>
       <c r="J59" s="3">
+        <v>199100</v>
+      </c>
+      <c r="K59" s="3">
         <v>151400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>128700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>244600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3030,41 +3167,44 @@
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>326900</v>
+        <v>361900</v>
       </c>
       <c r="E60" s="3">
-        <v>342400</v>
+        <v>339200</v>
       </c>
       <c r="F60" s="3">
-        <v>304400</v>
+        <v>355300</v>
       </c>
       <c r="G60" s="3">
-        <v>275800</v>
+        <v>315900</v>
       </c>
       <c r="H60" s="3">
-        <v>225000</v>
+        <v>286200</v>
       </c>
       <c r="I60" s="3">
-        <v>193200</v>
+        <v>233400</v>
       </c>
       <c r="J60" s="3">
+        <v>200500</v>
+      </c>
+      <c r="K60" s="3">
         <v>154000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>129600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>244600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3080,8 +3220,11 @@
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,41 +3273,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>34200</v>
+        <v>37200</v>
       </c>
       <c r="E62" s="3">
-        <v>32900</v>
+        <v>35400</v>
       </c>
       <c r="F62" s="3">
+        <v>34100</v>
+      </c>
+      <c r="G62" s="3">
+        <v>32800</v>
+      </c>
+      <c r="H62" s="3">
         <v>31600</v>
       </c>
-      <c r="G62" s="3">
-        <v>30500</v>
-      </c>
-      <c r="H62" s="3">
-        <v>25500</v>
-      </c>
       <c r="I62" s="3">
-        <v>11300</v>
+        <v>26400</v>
       </c>
       <c r="J62" s="3">
+        <v>11700</v>
+      </c>
+      <c r="K62" s="3">
         <v>9600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>10700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>361100</v>
+        <v>399200</v>
       </c>
       <c r="E66" s="3">
-        <v>375300</v>
+        <v>374700</v>
       </c>
       <c r="F66" s="3">
-        <v>336000</v>
+        <v>389500</v>
       </c>
       <c r="G66" s="3">
-        <v>306300</v>
+        <v>348700</v>
       </c>
       <c r="H66" s="3">
-        <v>250400</v>
+        <v>317800</v>
       </c>
       <c r="I66" s="3">
-        <v>204500</v>
+        <v>259800</v>
       </c>
       <c r="J66" s="3">
+        <v>212200</v>
+      </c>
+      <c r="K66" s="3">
         <v>163700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>140300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>251600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3530,11 +3698,11 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
         <v>434700</v>
       </c>
-      <c r="M70" s="3">
-        <v>0</v>
-      </c>
       <c r="N70" s="3">
         <v>0</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,41 +3771,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-245400</v>
+        <v>-221700</v>
       </c>
       <c r="E72" s="3">
-        <v>-268900</v>
+        <v>-254600</v>
       </c>
       <c r="F72" s="3">
-        <v>-291300</v>
+        <v>-279000</v>
       </c>
       <c r="G72" s="3">
-        <v>-308500</v>
+        <v>-302200</v>
       </c>
       <c r="H72" s="3">
-        <v>-325600</v>
+        <v>-320100</v>
       </c>
       <c r="I72" s="3">
-        <v>-334400</v>
+        <v>-337800</v>
       </c>
       <c r="J72" s="3">
+        <v>-347000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-348400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-365300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-59100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,41 +3983,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1267400</v>
+        <v>1369400</v>
       </c>
       <c r="E76" s="3">
-        <v>1215500</v>
+        <v>1315100</v>
       </c>
       <c r="F76" s="3">
-        <v>1194000</v>
+        <v>1261300</v>
       </c>
       <c r="G76" s="3">
-        <v>1135400</v>
+        <v>1238900</v>
       </c>
       <c r="H76" s="3">
-        <v>796700</v>
+        <v>1178100</v>
       </c>
       <c r="I76" s="3">
-        <v>790100</v>
+        <v>826700</v>
       </c>
       <c r="J76" s="3">
+        <v>819800</v>
+      </c>
+      <c r="K76" s="3">
         <v>768600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>743300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-58300</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>16</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>24000</v>
+        <v>32900</v>
       </c>
       <c r="E81" s="3">
-        <v>22300</v>
+        <v>24900</v>
       </c>
       <c r="F81" s="3">
-        <v>17200</v>
+        <v>23200</v>
       </c>
       <c r="G81" s="3">
-        <v>17000</v>
+        <v>17900</v>
       </c>
       <c r="H81" s="3">
-        <v>8900</v>
+        <v>17700</v>
       </c>
       <c r="I81" s="3">
-        <v>13900</v>
+        <v>9200</v>
       </c>
       <c r="J81" s="3">
+        <v>14500</v>
+      </c>
+      <c r="K81" s="3">
         <v>7900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-310800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-71200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-5800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-20000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>HUYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>391700</v>
+        <v>428200</v>
       </c>
       <c r="E8" s="3">
-        <v>350300</v>
+        <v>410300</v>
       </c>
       <c r="F8" s="3">
-        <v>358400</v>
+        <v>366900</v>
       </c>
       <c r="G8" s="3">
-        <v>329000</v>
+        <v>375400</v>
       </c>
       <c r="H8" s="3">
-        <v>292000</v>
+        <v>344600</v>
       </c>
       <c r="I8" s="3">
-        <v>236900</v>
+        <v>305800</v>
       </c>
       <c r="J8" s="3">
+        <v>248200</v>
+      </c>
+      <c r="K8" s="3">
         <v>218600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>178700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>149000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>121000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>110000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>86600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>68500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>58000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>49300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>308200</v>
+        <v>333800</v>
       </c>
       <c r="E9" s="3">
-        <v>281300</v>
+        <v>322800</v>
       </c>
       <c r="F9" s="3">
-        <v>290600</v>
+        <v>294700</v>
       </c>
       <c r="G9" s="3">
-        <v>269900</v>
+        <v>304400</v>
       </c>
       <c r="H9" s="3">
-        <v>243200</v>
+        <v>282800</v>
       </c>
       <c r="I9" s="3">
-        <v>197200</v>
+        <v>254800</v>
       </c>
       <c r="J9" s="3">
+        <v>206600</v>
+      </c>
+      <c r="K9" s="3">
         <v>183900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>151600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>125100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>102200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>93900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>75700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>59900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>55700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>56300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>83500</v>
+        <v>94400</v>
       </c>
       <c r="E10" s="3">
-        <v>68900</v>
+        <v>87500</v>
       </c>
       <c r="F10" s="3">
-        <v>67800</v>
+        <v>72200</v>
       </c>
       <c r="G10" s="3">
-        <v>59000</v>
+        <v>71000</v>
       </c>
       <c r="H10" s="3">
-        <v>48800</v>
+        <v>61800</v>
       </c>
       <c r="I10" s="3">
-        <v>39700</v>
+        <v>51100</v>
       </c>
       <c r="J10" s="3">
+        <v>41600</v>
+      </c>
+      <c r="K10" s="3">
         <v>34700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>27100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>23900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>18800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>16000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>10900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-7000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>26100</v>
+        <v>27800</v>
       </c>
       <c r="E12" s="3">
-        <v>22700</v>
+        <v>27400</v>
       </c>
       <c r="F12" s="3">
-        <v>25900</v>
+        <v>23700</v>
       </c>
       <c r="G12" s="3">
-        <v>19600</v>
+        <v>27100</v>
       </c>
       <c r="H12" s="3">
-        <v>15300</v>
+        <v>20500</v>
       </c>
       <c r="I12" s="3">
-        <v>13100</v>
+        <v>16000</v>
       </c>
       <c r="J12" s="3">
+        <v>13700</v>
+      </c>
+      <c r="K12" s="3">
         <v>11500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>10400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>8600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>6500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>7300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>5200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>362500</v>
+        <v>394300</v>
       </c>
       <c r="E17" s="3">
-        <v>330900</v>
+        <v>382700</v>
       </c>
       <c r="F17" s="3">
-        <v>343600</v>
+        <v>346600</v>
       </c>
       <c r="G17" s="3">
-        <v>319700</v>
+        <v>359900</v>
       </c>
       <c r="H17" s="3">
-        <v>282200</v>
+        <v>334900</v>
       </c>
       <c r="I17" s="3">
-        <v>232800</v>
+        <v>295500</v>
       </c>
       <c r="J17" s="3">
+        <v>243900</v>
+      </c>
+      <c r="K17" s="3">
         <v>215900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>179100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>151500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>117000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>110200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>91700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>71000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>64100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>69400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>29200</v>
+        <v>33900</v>
       </c>
       <c r="E18" s="3">
-        <v>19400</v>
+        <v>27600</v>
       </c>
       <c r="F18" s="3">
-        <v>14800</v>
+        <v>20300</v>
       </c>
       <c r="G18" s="3">
-        <v>9300</v>
+        <v>15500</v>
       </c>
       <c r="H18" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="I18" s="3">
-        <v>4100</v>
+        <v>10300</v>
       </c>
       <c r="J18" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K18" s="3">
         <v>2700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-5100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-6100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-20100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,61 +1312,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>11200</v>
+        <v>12300</v>
       </c>
       <c r="E20" s="3">
-        <v>11100</v>
+        <v>11700</v>
       </c>
       <c r="F20" s="3">
-        <v>12800</v>
+        <v>11600</v>
       </c>
       <c r="G20" s="3">
-        <v>12700</v>
+        <v>13400</v>
       </c>
       <c r="H20" s="3">
-        <v>11000</v>
+        <v>13300</v>
       </c>
       <c r="I20" s="3">
-        <v>7900</v>
+        <v>11500</v>
       </c>
       <c r="J20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K20" s="3">
         <v>7700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>7100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-320100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,97 +1478,103 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>40400</v>
+        <v>46200</v>
       </c>
       <c r="E23" s="3">
-        <v>30500</v>
+        <v>39300</v>
       </c>
       <c r="F23" s="3">
-        <v>27600</v>
+        <v>31900</v>
       </c>
       <c r="G23" s="3">
-        <v>21900</v>
+        <v>28900</v>
       </c>
       <c r="H23" s="3">
-        <v>20800</v>
+        <v>23000</v>
       </c>
       <c r="I23" s="3">
-        <v>12000</v>
+        <v>21800</v>
       </c>
       <c r="J23" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K23" s="3">
         <v>10300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-322600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>3900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-4300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-6100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-20000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="E24" s="3">
-        <v>5500</v>
+        <v>7800</v>
       </c>
       <c r="F24" s="3">
-        <v>4000</v>
+        <v>5700</v>
       </c>
       <c r="G24" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="H24" s="3">
-        <v>3100</v>
+        <v>4200</v>
       </c>
       <c r="I24" s="3">
-        <v>2800</v>
+        <v>3300</v>
       </c>
       <c r="J24" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K24" s="3">
         <v>-4600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-600</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>32900</v>
+        <v>38500</v>
       </c>
       <c r="E26" s="3">
-        <v>25000</v>
+        <v>31500</v>
       </c>
       <c r="F26" s="3">
-        <v>23600</v>
+        <v>26200</v>
       </c>
       <c r="G26" s="3">
-        <v>17900</v>
+        <v>24700</v>
       </c>
       <c r="H26" s="3">
-        <v>17700</v>
+        <v>18700</v>
       </c>
       <c r="I26" s="3">
-        <v>9200</v>
+        <v>18500</v>
       </c>
       <c r="J26" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K26" s="3">
         <v>15000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-321700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>4500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-4300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-6100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>32900</v>
+        <v>38500</v>
       </c>
       <c r="E27" s="3">
-        <v>24900</v>
+        <v>31500</v>
       </c>
       <c r="F27" s="3">
-        <v>23200</v>
+        <v>26000</v>
       </c>
       <c r="G27" s="3">
-        <v>17900</v>
+        <v>24300</v>
       </c>
       <c r="H27" s="3">
-        <v>17700</v>
+        <v>18700</v>
       </c>
       <c r="I27" s="3">
-        <v>9200</v>
+        <v>18500</v>
       </c>
       <c r="J27" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K27" s="3">
         <v>14500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-310800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-71200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-5800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-20000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11200</v>
+        <v>-12300</v>
       </c>
       <c r="E32" s="3">
-        <v>-11100</v>
+        <v>-11700</v>
       </c>
       <c r="F32" s="3">
-        <v>-12800</v>
+        <v>-11600</v>
       </c>
       <c r="G32" s="3">
-        <v>-12700</v>
+        <v>-13400</v>
       </c>
       <c r="H32" s="3">
-        <v>-11000</v>
+        <v>-13300</v>
       </c>
       <c r="I32" s="3">
-        <v>-7900</v>
+        <v>-11500</v>
       </c>
       <c r="J32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-7700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-7100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>320100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>32900</v>
+        <v>38500</v>
       </c>
       <c r="E33" s="3">
-        <v>24900</v>
+        <v>31500</v>
       </c>
       <c r="F33" s="3">
-        <v>23200</v>
+        <v>26000</v>
       </c>
       <c r="G33" s="3">
-        <v>17900</v>
+        <v>24300</v>
       </c>
       <c r="H33" s="3">
-        <v>17700</v>
+        <v>18700</v>
       </c>
       <c r="I33" s="3">
-        <v>9200</v>
+        <v>18500</v>
       </c>
       <c r="J33" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K33" s="3">
         <v>14500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-310800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-71200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-5800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-20000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>32900</v>
+        <v>38500</v>
       </c>
       <c r="E35" s="3">
-        <v>24900</v>
+        <v>31500</v>
       </c>
       <c r="F35" s="3">
-        <v>23200</v>
+        <v>26000</v>
       </c>
       <c r="G35" s="3">
-        <v>17900</v>
+        <v>24300</v>
       </c>
       <c r="H35" s="3">
-        <v>17700</v>
+        <v>18700</v>
       </c>
       <c r="I35" s="3">
-        <v>9200</v>
+        <v>18500</v>
       </c>
       <c r="J35" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K35" s="3">
         <v>14500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-310800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-71200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-5800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-20000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,44 +2313,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1212300</v>
+        <v>1384800</v>
       </c>
       <c r="E41" s="3">
-        <v>1144300</v>
+        <v>1269800</v>
       </c>
       <c r="F41" s="3">
-        <v>1141000</v>
+        <v>1198500</v>
       </c>
       <c r="G41" s="3">
-        <v>1231500</v>
+        <v>1195200</v>
       </c>
       <c r="H41" s="3">
-        <v>1192600</v>
+        <v>1289900</v>
       </c>
       <c r="I41" s="3">
-        <v>826400</v>
+        <v>1249100</v>
       </c>
       <c r="J41" s="3">
+        <v>865600</v>
+      </c>
+      <c r="K41" s="3">
         <v>826800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>805000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>770000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>584200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2280,41 +2367,44 @@
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>348300</v>
+        <v>257900</v>
       </c>
       <c r="E42" s="3">
-        <v>354000</v>
+        <v>364800</v>
       </c>
       <c r="F42" s="3">
-        <v>322300</v>
+        <v>370800</v>
       </c>
       <c r="G42" s="3">
-        <v>153600</v>
+        <v>337600</v>
       </c>
       <c r="H42" s="3">
-        <v>130900</v>
+        <v>160900</v>
       </c>
       <c r="I42" s="3">
-        <v>92800</v>
+        <v>137100</v>
       </c>
       <c r="J42" s="3">
+        <v>97200</v>
+      </c>
+      <c r="K42" s="3">
         <v>43600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>17000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>21300</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="N42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2333,44 +2423,47 @@
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>16800</v>
+        <v>19700</v>
       </c>
       <c r="E43" s="3">
-        <v>16200</v>
+        <v>17600</v>
       </c>
       <c r="F43" s="3">
-        <v>16500</v>
+        <v>17000</v>
       </c>
       <c r="G43" s="3">
-        <v>23900</v>
+        <v>17300</v>
       </c>
       <c r="H43" s="3">
-        <v>13900</v>
+        <v>25100</v>
       </c>
       <c r="I43" s="3">
-        <v>31900</v>
+        <v>14500</v>
       </c>
       <c r="J43" s="3">
+        <v>33400</v>
+      </c>
+      <c r="K43" s="3">
         <v>41100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>18500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>19900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>19800</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,44 +2535,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>60200</v>
+        <v>74100</v>
       </c>
       <c r="E45" s="3">
-        <v>58100</v>
+        <v>63100</v>
       </c>
       <c r="F45" s="3">
-        <v>58400</v>
+        <v>60900</v>
       </c>
       <c r="G45" s="3">
-        <v>63400</v>
+        <v>61200</v>
       </c>
       <c r="H45" s="3">
-        <v>44500</v>
+        <v>66400</v>
       </c>
       <c r="I45" s="3">
-        <v>33700</v>
+        <v>46600</v>
       </c>
       <c r="J45" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K45" s="3">
         <v>46400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>32700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>12200</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2492,44 +2591,47 @@
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1637600</v>
+        <v>1736400</v>
       </c>
       <c r="E46" s="3">
-        <v>1572600</v>
+        <v>1715300</v>
       </c>
       <c r="F46" s="3">
-        <v>1538300</v>
+        <v>1647200</v>
       </c>
       <c r="G46" s="3">
-        <v>1472400</v>
+        <v>1611200</v>
       </c>
       <c r="H46" s="3">
-        <v>1381800</v>
+        <v>1542300</v>
       </c>
       <c r="I46" s="3">
-        <v>984700</v>
+        <v>1447400</v>
       </c>
       <c r="J46" s="3">
+        <v>1031500</v>
+      </c>
+      <c r="K46" s="3">
         <v>957800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>873300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>835800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>616200</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2545,44 +2647,47 @@
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>62500</v>
+        <v>68600</v>
       </c>
       <c r="E47" s="3">
-        <v>58500</v>
+        <v>65500</v>
       </c>
       <c r="F47" s="3">
-        <v>55100</v>
+        <v>61300</v>
       </c>
       <c r="G47" s="3">
-        <v>53400</v>
+        <v>57700</v>
       </c>
       <c r="H47" s="3">
-        <v>53400</v>
+        <v>55900</v>
       </c>
       <c r="I47" s="3">
-        <v>47700</v>
+        <v>55900</v>
       </c>
       <c r="J47" s="3">
+        <v>50000</v>
+      </c>
+      <c r="K47" s="3">
         <v>31900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>29800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>30400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>100</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2598,44 +2703,47 @@
       <c r="S47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>30400</v>
+        <v>31000</v>
       </c>
       <c r="E48" s="3">
-        <v>26800</v>
+        <v>31900</v>
       </c>
       <c r="F48" s="3">
-        <v>29000</v>
+        <v>28000</v>
       </c>
       <c r="G48" s="3">
-        <v>31200</v>
+        <v>30300</v>
       </c>
       <c r="H48" s="3">
-        <v>32000</v>
+        <v>32700</v>
       </c>
       <c r="I48" s="3">
-        <v>27500</v>
+        <v>33500</v>
       </c>
       <c r="J48" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K48" s="3">
         <v>12700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>11700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5500</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2651,44 +2759,47 @@
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9600</v>
+        <v>11100</v>
       </c>
       <c r="E49" s="3">
-        <v>6400</v>
+        <v>10100</v>
       </c>
       <c r="F49" s="3">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="G49" s="3">
         <v>6900</v>
       </c>
       <c r="H49" s="3">
-        <v>6600</v>
+        <v>7300</v>
       </c>
       <c r="I49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="K49" s="3">
+        <v>7500</v>
+      </c>
+      <c r="L49" s="3">
         <v>7000</v>
       </c>
-      <c r="J49" s="3">
-        <v>7500</v>
-      </c>
-      <c r="K49" s="3">
-        <v>7000</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,44 +2927,47 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>28500</v>
+        <v>22400</v>
       </c>
       <c r="E52" s="3">
-        <v>25500</v>
+        <v>29800</v>
       </c>
       <c r="F52" s="3">
-        <v>21900</v>
+        <v>26800</v>
       </c>
       <c r="G52" s="3">
-        <v>23700</v>
+        <v>22900</v>
       </c>
       <c r="H52" s="3">
-        <v>22200</v>
+        <v>24800</v>
       </c>
       <c r="I52" s="3">
-        <v>19600</v>
+        <v>23200</v>
       </c>
       <c r="J52" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K52" s="3">
         <v>22000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>10500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>5400</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,44 +3039,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1768600</v>
+        <v>1869400</v>
       </c>
       <c r="E54" s="3">
-        <v>1689800</v>
+        <v>1852500</v>
       </c>
       <c r="F54" s="3">
-        <v>1650800</v>
+        <v>1770000</v>
       </c>
       <c r="G54" s="3">
-        <v>1587600</v>
+        <v>1729100</v>
       </c>
       <c r="H54" s="3">
-        <v>1495900</v>
+        <v>1662900</v>
       </c>
       <c r="I54" s="3">
-        <v>1086600</v>
+        <v>1566900</v>
       </c>
       <c r="J54" s="3">
+        <v>1138100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1032000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>932300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>883600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>627900</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>16</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,43 +3141,44 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="E57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
-        <v>500</v>
-      </c>
       <c r="G57" s="3">
-        <v>1600</v>
+        <v>600</v>
       </c>
       <c r="H57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>16</v>
+      <c r="N57" s="3">
+        <v>0</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>16</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,44 +3251,47 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>356900</v>
+        <v>351500</v>
       </c>
       <c r="E59" s="3">
-        <v>338800</v>
+        <v>373800</v>
       </c>
       <c r="F59" s="3">
-        <v>354800</v>
+        <v>354900</v>
       </c>
       <c r="G59" s="3">
-        <v>314300</v>
+        <v>371600</v>
       </c>
       <c r="H59" s="3">
-        <v>283600</v>
+        <v>329200</v>
       </c>
       <c r="I59" s="3">
-        <v>230600</v>
+        <v>297000</v>
       </c>
       <c r="J59" s="3">
+        <v>241500</v>
+      </c>
+      <c r="K59" s="3">
         <v>199100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>151400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>128700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>244600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3170,44 +3307,47 @@
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>361900</v>
+        <v>354500</v>
       </c>
       <c r="E60" s="3">
-        <v>339200</v>
+        <v>379100</v>
       </c>
       <c r="F60" s="3">
         <v>355300</v>
       </c>
       <c r="G60" s="3">
-        <v>315900</v>
+        <v>372200</v>
       </c>
       <c r="H60" s="3">
-        <v>286200</v>
+        <v>330800</v>
       </c>
       <c r="I60" s="3">
-        <v>233400</v>
+        <v>299800</v>
       </c>
       <c r="J60" s="3">
+        <v>244500</v>
+      </c>
+      <c r="K60" s="3">
         <v>200500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>154000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>129600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>244600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,44 +3419,47 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>37200</v>
+        <v>36200</v>
       </c>
       <c r="E62" s="3">
-        <v>35400</v>
+        <v>39000</v>
       </c>
       <c r="F62" s="3">
-        <v>34100</v>
+        <v>37100</v>
       </c>
       <c r="G62" s="3">
-        <v>32800</v>
+        <v>35800</v>
       </c>
       <c r="H62" s="3">
-        <v>31600</v>
+        <v>34400</v>
       </c>
       <c r="I62" s="3">
-        <v>26400</v>
+        <v>33100</v>
       </c>
       <c r="J62" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K62" s="3">
         <v>11700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>10700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7000</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,44 +3643,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>399200</v>
+        <v>390600</v>
       </c>
       <c r="E66" s="3">
-        <v>374700</v>
+        <v>418100</v>
       </c>
       <c r="F66" s="3">
-        <v>389500</v>
+        <v>392500</v>
       </c>
       <c r="G66" s="3">
-        <v>348700</v>
+        <v>407900</v>
       </c>
       <c r="H66" s="3">
-        <v>317800</v>
+        <v>365200</v>
       </c>
       <c r="I66" s="3">
-        <v>259800</v>
+        <v>332900</v>
       </c>
       <c r="J66" s="3">
+        <v>272200</v>
+      </c>
+      <c r="K66" s="3">
         <v>212200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>163700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>140300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>251600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3701,11 +3869,11 @@
         <v>0</v>
       </c>
       <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>434700</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
       <c r="O70" s="3">
         <v>0</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,44 +3945,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-221700</v>
+        <v>-306400</v>
       </c>
       <c r="E72" s="3">
-        <v>-254600</v>
+        <v>-232200</v>
       </c>
       <c r="F72" s="3">
-        <v>-279000</v>
+        <v>-266700</v>
       </c>
       <c r="G72" s="3">
-        <v>-302200</v>
+        <v>-292300</v>
       </c>
       <c r="H72" s="3">
-        <v>-320100</v>
+        <v>-316600</v>
       </c>
       <c r="I72" s="3">
-        <v>-337800</v>
+        <v>-335300</v>
       </c>
       <c r="J72" s="3">
+        <v>-353800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-347000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-348400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-365300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-59100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>16</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,44 +4169,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1369400</v>
+        <v>1478800</v>
       </c>
       <c r="E76" s="3">
-        <v>1315100</v>
+        <v>1434400</v>
       </c>
       <c r="F76" s="3">
-        <v>1261300</v>
+        <v>1377500</v>
       </c>
       <c r="G76" s="3">
-        <v>1238900</v>
+        <v>1321100</v>
       </c>
       <c r="H76" s="3">
-        <v>1178100</v>
+        <v>1297700</v>
       </c>
       <c r="I76" s="3">
-        <v>826700</v>
+        <v>1234000</v>
       </c>
       <c r="J76" s="3">
+        <v>866000</v>
+      </c>
+      <c r="K76" s="3">
         <v>819800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>768600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>743300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-58300</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>32900</v>
+        <v>38500</v>
       </c>
       <c r="E81" s="3">
-        <v>24900</v>
+        <v>31500</v>
       </c>
       <c r="F81" s="3">
-        <v>23200</v>
+        <v>26000</v>
       </c>
       <c r="G81" s="3">
-        <v>17900</v>
+        <v>24300</v>
       </c>
       <c r="H81" s="3">
-        <v>17700</v>
+        <v>18700</v>
       </c>
       <c r="I81" s="3">
-        <v>9200</v>
+        <v>18500</v>
       </c>
       <c r="J81" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K81" s="3">
         <v>14500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-310800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-71200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-5800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-20000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
@@ -752,25 +752,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>428200</v>
+        <v>430000</v>
       </c>
       <c r="E8" s="3">
-        <v>410300</v>
+        <v>412100</v>
       </c>
       <c r="F8" s="3">
-        <v>366900</v>
+        <v>368500</v>
       </c>
       <c r="G8" s="3">
-        <v>375400</v>
+        <v>377000</v>
       </c>
       <c r="H8" s="3">
-        <v>344600</v>
+        <v>346100</v>
       </c>
       <c r="I8" s="3">
-        <v>305800</v>
+        <v>307200</v>
       </c>
       <c r="J8" s="3">
-        <v>248200</v>
+        <v>249300</v>
       </c>
       <c r="K8" s="3">
         <v>218600</v>
@@ -808,25 +808,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>333800</v>
+        <v>335200</v>
       </c>
       <c r="E9" s="3">
-        <v>322800</v>
+        <v>324200</v>
       </c>
       <c r="F9" s="3">
-        <v>294700</v>
+        <v>296000</v>
       </c>
       <c r="G9" s="3">
-        <v>304400</v>
+        <v>305700</v>
       </c>
       <c r="H9" s="3">
-        <v>282800</v>
+        <v>284000</v>
       </c>
       <c r="I9" s="3">
-        <v>254800</v>
+        <v>255900</v>
       </c>
       <c r="J9" s="3">
-        <v>206600</v>
+        <v>207500</v>
       </c>
       <c r="K9" s="3">
         <v>183900</v>
@@ -864,25 +864,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>94400</v>
+        <v>94800</v>
       </c>
       <c r="E10" s="3">
-        <v>87500</v>
+        <v>87800</v>
       </c>
       <c r="F10" s="3">
-        <v>72200</v>
+        <v>72500</v>
       </c>
       <c r="G10" s="3">
-        <v>71000</v>
+        <v>71300</v>
       </c>
       <c r="H10" s="3">
-        <v>61800</v>
+        <v>62100</v>
       </c>
       <c r="I10" s="3">
-        <v>51100</v>
+        <v>51300</v>
       </c>
       <c r="J10" s="3">
-        <v>41600</v>
+        <v>41800</v>
       </c>
       <c r="K10" s="3">
         <v>34700</v>
@@ -942,25 +942,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>27800</v>
+        <v>27900</v>
       </c>
       <c r="E12" s="3">
-        <v>27400</v>
+        <v>27500</v>
       </c>
       <c r="F12" s="3">
-        <v>23700</v>
+        <v>23800</v>
       </c>
       <c r="G12" s="3">
-        <v>27100</v>
+        <v>27200</v>
       </c>
       <c r="H12" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="I12" s="3">
-        <v>16000</v>
+        <v>16100</v>
       </c>
       <c r="J12" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="K12" s="3">
         <v>11500</v>
@@ -1185,25 +1185,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>394300</v>
+        <v>396000</v>
       </c>
       <c r="E17" s="3">
-        <v>382700</v>
+        <v>384400</v>
       </c>
       <c r="F17" s="3">
-        <v>346600</v>
+        <v>348100</v>
       </c>
       <c r="G17" s="3">
-        <v>359900</v>
+        <v>361500</v>
       </c>
       <c r="H17" s="3">
-        <v>334900</v>
+        <v>336300</v>
       </c>
       <c r="I17" s="3">
-        <v>295500</v>
+        <v>296800</v>
       </c>
       <c r="J17" s="3">
-        <v>243900</v>
+        <v>244900</v>
       </c>
       <c r="K17" s="3">
         <v>215900</v>
@@ -1241,19 +1241,19 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>33900</v>
+        <v>34100</v>
       </c>
       <c r="E18" s="3">
-        <v>27600</v>
+        <v>27700</v>
       </c>
       <c r="F18" s="3">
-        <v>20300</v>
+        <v>20400</v>
       </c>
       <c r="G18" s="3">
         <v>15500</v>
       </c>
       <c r="H18" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="I18" s="3">
         <v>10300</v>
@@ -1325,19 +1325,19 @@
         <v>11700</v>
       </c>
       <c r="F20" s="3">
-        <v>11600</v>
+        <v>11700</v>
       </c>
       <c r="G20" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="H20" s="3">
         <v>13300</v>
       </c>
       <c r="I20" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="J20" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="K20" s="3">
         <v>7700</v>
@@ -1487,25 +1487,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>46200</v>
+        <v>46400</v>
       </c>
       <c r="E23" s="3">
-        <v>39300</v>
+        <v>39400</v>
       </c>
       <c r="F23" s="3">
-        <v>31900</v>
+        <v>32100</v>
       </c>
       <c r="G23" s="3">
-        <v>28900</v>
+        <v>29000</v>
       </c>
       <c r="H23" s="3">
-        <v>23000</v>
+        <v>23100</v>
       </c>
       <c r="I23" s="3">
-        <v>21800</v>
+        <v>21900</v>
       </c>
       <c r="J23" s="3">
-        <v>12500</v>
+        <v>12600</v>
       </c>
       <c r="K23" s="3">
         <v>10300</v>
@@ -1555,7 +1555,7 @@
         <v>4200</v>
       </c>
       <c r="H24" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="I24" s="3">
         <v>3300</v>
@@ -1655,22 +1655,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>38500</v>
+        <v>38600</v>
       </c>
       <c r="E26" s="3">
-        <v>31500</v>
+        <v>31600</v>
       </c>
       <c r="F26" s="3">
-        <v>26200</v>
+        <v>26300</v>
       </c>
       <c r="G26" s="3">
-        <v>24700</v>
+        <v>24800</v>
       </c>
       <c r="H26" s="3">
-        <v>18700</v>
+        <v>18800</v>
       </c>
       <c r="I26" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="J26" s="3">
         <v>9700</v>
@@ -1711,22 +1711,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>38500</v>
+        <v>38700</v>
       </c>
       <c r="E27" s="3">
-        <v>31500</v>
+        <v>31600</v>
       </c>
       <c r="F27" s="3">
-        <v>26000</v>
+        <v>26200</v>
       </c>
       <c r="G27" s="3">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="H27" s="3">
-        <v>18700</v>
+        <v>18800</v>
       </c>
       <c r="I27" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="J27" s="3">
         <v>9700</v>
@@ -1997,19 +1997,19 @@
         <v>-11700</v>
       </c>
       <c r="F32" s="3">
-        <v>-11600</v>
+        <v>-11700</v>
       </c>
       <c r="G32" s="3">
-        <v>-13400</v>
+        <v>-13500</v>
       </c>
       <c r="H32" s="3">
         <v>-13300</v>
       </c>
       <c r="I32" s="3">
-        <v>-11500</v>
+        <v>-11600</v>
       </c>
       <c r="J32" s="3">
-        <v>-8200</v>
+        <v>-8300</v>
       </c>
       <c r="K32" s="3">
         <v>-7700</v>
@@ -2047,22 +2047,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>38500</v>
+        <v>38700</v>
       </c>
       <c r="E33" s="3">
-        <v>31500</v>
+        <v>31600</v>
       </c>
       <c r="F33" s="3">
-        <v>26000</v>
+        <v>26200</v>
       </c>
       <c r="G33" s="3">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="H33" s="3">
-        <v>18700</v>
+        <v>18800</v>
       </c>
       <c r="I33" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="J33" s="3">
         <v>9700</v>
@@ -2159,22 +2159,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>38500</v>
+        <v>38700</v>
       </c>
       <c r="E35" s="3">
-        <v>31500</v>
+        <v>31600</v>
       </c>
       <c r="F35" s="3">
-        <v>26000</v>
+        <v>26200</v>
       </c>
       <c r="G35" s="3">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="H35" s="3">
-        <v>18700</v>
+        <v>18800</v>
       </c>
       <c r="I35" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="J35" s="3">
         <v>9700</v>
@@ -2320,25 +2320,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1384800</v>
+        <v>1390800</v>
       </c>
       <c r="E41" s="3">
-        <v>1269800</v>
+        <v>1275300</v>
       </c>
       <c r="F41" s="3">
-        <v>1198500</v>
+        <v>1203700</v>
       </c>
       <c r="G41" s="3">
-        <v>1195200</v>
+        <v>1200300</v>
       </c>
       <c r="H41" s="3">
-        <v>1289900</v>
+        <v>1295500</v>
       </c>
       <c r="I41" s="3">
-        <v>1249100</v>
+        <v>1254600</v>
       </c>
       <c r="J41" s="3">
-        <v>865600</v>
+        <v>869400</v>
       </c>
       <c r="K41" s="3">
         <v>826800</v>
@@ -2376,25 +2376,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>257900</v>
+        <v>259000</v>
       </c>
       <c r="E42" s="3">
-        <v>364800</v>
+        <v>366400</v>
       </c>
       <c r="F42" s="3">
-        <v>370800</v>
+        <v>372400</v>
       </c>
       <c r="G42" s="3">
-        <v>337600</v>
+        <v>339100</v>
       </c>
       <c r="H42" s="3">
-        <v>160900</v>
+        <v>161600</v>
       </c>
       <c r="I42" s="3">
-        <v>137100</v>
+        <v>137700</v>
       </c>
       <c r="J42" s="3">
-        <v>97200</v>
+        <v>97600</v>
       </c>
       <c r="K42" s="3">
         <v>43600</v>
@@ -2435,22 +2435,22 @@
         <v>19700</v>
       </c>
       <c r="E43" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="F43" s="3">
         <v>17000</v>
       </c>
       <c r="G43" s="3">
-        <v>17300</v>
+        <v>17400</v>
       </c>
       <c r="H43" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="I43" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="J43" s="3">
-        <v>33400</v>
+        <v>33500</v>
       </c>
       <c r="K43" s="3">
         <v>41100</v>
@@ -2544,25 +2544,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>74100</v>
+        <v>74500</v>
       </c>
       <c r="E45" s="3">
-        <v>63100</v>
+        <v>63400</v>
       </c>
       <c r="F45" s="3">
-        <v>60900</v>
+        <v>61100</v>
       </c>
       <c r="G45" s="3">
-        <v>61200</v>
+        <v>61400</v>
       </c>
       <c r="H45" s="3">
-        <v>66400</v>
+        <v>66700</v>
       </c>
       <c r="I45" s="3">
-        <v>46600</v>
+        <v>46800</v>
       </c>
       <c r="J45" s="3">
-        <v>35300</v>
+        <v>35500</v>
       </c>
       <c r="K45" s="3">
         <v>46400</v>
@@ -2600,25 +2600,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1736400</v>
+        <v>1744000</v>
       </c>
       <c r="E46" s="3">
-        <v>1715300</v>
+        <v>1722700</v>
       </c>
       <c r="F46" s="3">
-        <v>1647200</v>
+        <v>1654400</v>
       </c>
       <c r="G46" s="3">
-        <v>1611200</v>
+        <v>1618200</v>
       </c>
       <c r="H46" s="3">
-        <v>1542300</v>
+        <v>1548900</v>
       </c>
       <c r="I46" s="3">
-        <v>1447400</v>
+        <v>1453600</v>
       </c>
       <c r="J46" s="3">
-        <v>1031500</v>
+        <v>1035900</v>
       </c>
       <c r="K46" s="3">
         <v>957800</v>
@@ -2656,25 +2656,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>68600</v>
+        <v>68900</v>
       </c>
       <c r="E47" s="3">
-        <v>65500</v>
+        <v>65800</v>
       </c>
       <c r="F47" s="3">
-        <v>61300</v>
+        <v>61500</v>
       </c>
       <c r="G47" s="3">
-        <v>57700</v>
+        <v>58000</v>
       </c>
       <c r="H47" s="3">
-        <v>55900</v>
+        <v>56200</v>
       </c>
       <c r="I47" s="3">
-        <v>55900</v>
+        <v>56200</v>
       </c>
       <c r="J47" s="3">
-        <v>50000</v>
+        <v>50200</v>
       </c>
       <c r="K47" s="3">
         <v>31900</v>
@@ -2712,25 +2712,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>31000</v>
+        <v>31100</v>
       </c>
       <c r="E48" s="3">
-        <v>31900</v>
+        <v>32000</v>
       </c>
       <c r="F48" s="3">
-        <v>28000</v>
+        <v>28100</v>
       </c>
       <c r="G48" s="3">
-        <v>30300</v>
+        <v>30500</v>
       </c>
       <c r="H48" s="3">
-        <v>32700</v>
+        <v>32800</v>
       </c>
       <c r="I48" s="3">
-        <v>33500</v>
+        <v>33600</v>
       </c>
       <c r="J48" s="3">
-        <v>28800</v>
+        <v>28900</v>
       </c>
       <c r="K48" s="3">
         <v>12700</v>
@@ -2936,22 +2936,22 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="E52" s="3">
-        <v>29800</v>
+        <v>29900</v>
       </c>
       <c r="F52" s="3">
-        <v>26800</v>
+        <v>26900</v>
       </c>
       <c r="G52" s="3">
-        <v>22900</v>
+        <v>23000</v>
       </c>
       <c r="H52" s="3">
-        <v>24800</v>
+        <v>24900</v>
       </c>
       <c r="I52" s="3">
-        <v>23200</v>
+        <v>23300</v>
       </c>
       <c r="J52" s="3">
         <v>20600</v>
@@ -3048,25 +3048,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1869400</v>
+        <v>1877500</v>
       </c>
       <c r="E54" s="3">
-        <v>1852500</v>
+        <v>1860500</v>
       </c>
       <c r="F54" s="3">
-        <v>1770000</v>
+        <v>1777600</v>
       </c>
       <c r="G54" s="3">
-        <v>1729100</v>
+        <v>1736600</v>
       </c>
       <c r="H54" s="3">
-        <v>1662900</v>
+        <v>1670100</v>
       </c>
       <c r="I54" s="3">
-        <v>1566900</v>
+        <v>1573700</v>
       </c>
       <c r="J54" s="3">
-        <v>1138100</v>
+        <v>1143100</v>
       </c>
       <c r="K54" s="3">
         <v>1032000</v>
@@ -3163,7 +3163,7 @@
         <v>1700</v>
       </c>
       <c r="I57" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J57" s="3">
         <v>3000</v>
@@ -3260,25 +3260,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>351500</v>
+        <v>353000</v>
       </c>
       <c r="E59" s="3">
-        <v>373800</v>
+        <v>375400</v>
       </c>
       <c r="F59" s="3">
-        <v>354900</v>
+        <v>356500</v>
       </c>
       <c r="G59" s="3">
-        <v>371600</v>
+        <v>373200</v>
       </c>
       <c r="H59" s="3">
-        <v>329200</v>
+        <v>330600</v>
       </c>
       <c r="I59" s="3">
-        <v>297000</v>
+        <v>298300</v>
       </c>
       <c r="J59" s="3">
-        <v>241500</v>
+        <v>242600</v>
       </c>
       <c r="K59" s="3">
         <v>199100</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>354500</v>
+        <v>356000</v>
       </c>
       <c r="E60" s="3">
-        <v>379100</v>
+        <v>380700</v>
       </c>
       <c r="F60" s="3">
-        <v>355300</v>
+        <v>356900</v>
       </c>
       <c r="G60" s="3">
-        <v>372200</v>
+        <v>373800</v>
       </c>
       <c r="H60" s="3">
-        <v>330800</v>
+        <v>332300</v>
       </c>
       <c r="I60" s="3">
-        <v>299800</v>
+        <v>301100</v>
       </c>
       <c r="J60" s="3">
-        <v>244500</v>
+        <v>245600</v>
       </c>
       <c r="K60" s="3">
         <v>200500</v>
@@ -3428,25 +3428,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>36200</v>
+        <v>36300</v>
       </c>
       <c r="E62" s="3">
-        <v>39000</v>
+        <v>39200</v>
       </c>
       <c r="F62" s="3">
-        <v>37100</v>
+        <v>37300</v>
       </c>
       <c r="G62" s="3">
-        <v>35800</v>
+        <v>35900</v>
       </c>
       <c r="H62" s="3">
-        <v>34400</v>
+        <v>34500</v>
       </c>
       <c r="I62" s="3">
-        <v>33100</v>
+        <v>33300</v>
       </c>
       <c r="J62" s="3">
-        <v>27700</v>
+        <v>27800</v>
       </c>
       <c r="K62" s="3">
         <v>11700</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>390600</v>
+        <v>392300</v>
       </c>
       <c r="E66" s="3">
-        <v>418100</v>
+        <v>419900</v>
       </c>
       <c r="F66" s="3">
-        <v>392500</v>
+        <v>394200</v>
       </c>
       <c r="G66" s="3">
-        <v>407900</v>
+        <v>409700</v>
       </c>
       <c r="H66" s="3">
-        <v>365200</v>
+        <v>366800</v>
       </c>
       <c r="I66" s="3">
-        <v>332900</v>
+        <v>334300</v>
       </c>
       <c r="J66" s="3">
-        <v>272200</v>
+        <v>273300</v>
       </c>
       <c r="K66" s="3">
         <v>212200</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-306400</v>
+        <v>-307800</v>
       </c>
       <c r="E72" s="3">
-        <v>-232200</v>
+        <v>-233200</v>
       </c>
       <c r="F72" s="3">
-        <v>-266700</v>
+        <v>-267900</v>
       </c>
       <c r="G72" s="3">
-        <v>-292300</v>
+        <v>-293500</v>
       </c>
       <c r="H72" s="3">
-        <v>-316600</v>
+        <v>-317900</v>
       </c>
       <c r="I72" s="3">
-        <v>-335300</v>
+        <v>-336800</v>
       </c>
       <c r="J72" s="3">
-        <v>-353800</v>
+        <v>-355400</v>
       </c>
       <c r="K72" s="3">
         <v>-347000</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1478800</v>
+        <v>1485200</v>
       </c>
       <c r="E76" s="3">
-        <v>1434400</v>
+        <v>1440600</v>
       </c>
       <c r="F76" s="3">
-        <v>1377500</v>
+        <v>1383500</v>
       </c>
       <c r="G76" s="3">
-        <v>1321100</v>
+        <v>1326900</v>
       </c>
       <c r="H76" s="3">
-        <v>1297700</v>
+        <v>1303300</v>
       </c>
       <c r="I76" s="3">
-        <v>1234000</v>
+        <v>1239400</v>
       </c>
       <c r="J76" s="3">
-        <v>866000</v>
+        <v>869700</v>
       </c>
       <c r="K76" s="3">
         <v>819800</v>
@@ -4351,22 +4351,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>38500</v>
+        <v>38700</v>
       </c>
       <c r="E81" s="3">
-        <v>31500</v>
+        <v>31600</v>
       </c>
       <c r="F81" s="3">
-        <v>26000</v>
+        <v>26200</v>
       </c>
       <c r="G81" s="3">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="H81" s="3">
-        <v>18700</v>
+        <v>18800</v>
       </c>
       <c r="I81" s="3">
-        <v>18500</v>
+        <v>18600</v>
       </c>
       <c r="J81" s="3">
         <v>9700</v>

--- a/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>HUYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,282 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>430000</v>
+        <v>406400</v>
       </c>
       <c r="E8" s="3">
-        <v>412100</v>
+        <v>466500</v>
       </c>
       <c r="F8" s="3">
-        <v>368500</v>
+        <v>439100</v>
       </c>
       <c r="G8" s="3">
-        <v>377000</v>
+        <v>420800</v>
       </c>
       <c r="H8" s="3">
-        <v>346100</v>
+        <v>376300</v>
       </c>
       <c r="I8" s="3">
+        <v>385000</v>
+      </c>
+      <c r="J8" s="3">
+        <v>353400</v>
+      </c>
+      <c r="K8" s="3">
         <v>307200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>249300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>218600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>178700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>149000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>121000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>110000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>86600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>68500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>58000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>49300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>335200</v>
+        <v>326200</v>
       </c>
       <c r="E9" s="3">
-        <v>324200</v>
+        <v>373300</v>
       </c>
       <c r="F9" s="3">
-        <v>296000</v>
+        <v>342300</v>
       </c>
       <c r="G9" s="3">
-        <v>305700</v>
+        <v>331100</v>
       </c>
       <c r="H9" s="3">
-        <v>284000</v>
+        <v>302200</v>
       </c>
       <c r="I9" s="3">
+        <v>312200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>290000</v>
+      </c>
+      <c r="K9" s="3">
         <v>255900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>207500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>183900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>151600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>125100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>102200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>93900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>75700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>59900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>55700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>56300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>94800</v>
+        <v>80200</v>
       </c>
       <c r="E10" s="3">
-        <v>87800</v>
+        <v>93200</v>
       </c>
       <c r="F10" s="3">
-        <v>72500</v>
+        <v>96800</v>
       </c>
       <c r="G10" s="3">
-        <v>71300</v>
+        <v>89700</v>
       </c>
       <c r="H10" s="3">
-        <v>62100</v>
+        <v>74100</v>
       </c>
       <c r="I10" s="3">
+        <v>72800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>63400</v>
+      </c>
+      <c r="K10" s="3">
         <v>51300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>41800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>34700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>27100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>23900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>18800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>16000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>10900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>8500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>-7000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +961,72 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>27900</v>
+        <v>31100</v>
       </c>
       <c r="E12" s="3">
-        <v>27500</v>
+        <v>33600</v>
       </c>
       <c r="F12" s="3">
-        <v>23800</v>
+        <v>28500</v>
       </c>
       <c r="G12" s="3">
-        <v>27200</v>
+        <v>28100</v>
       </c>
       <c r="H12" s="3">
-        <v>20600</v>
+        <v>24300</v>
       </c>
       <c r="I12" s="3">
+        <v>27800</v>
+      </c>
+      <c r="J12" s="3">
+        <v>21100</v>
+      </c>
+      <c r="K12" s="3">
         <v>16100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>13800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>11500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>10400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>8600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>7400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>6500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>7300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>5200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>6200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>7700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1230,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>396000</v>
+        <v>381100</v>
       </c>
       <c r="E17" s="3">
-        <v>384400</v>
+        <v>437300</v>
       </c>
       <c r="F17" s="3">
-        <v>348100</v>
+        <v>404400</v>
       </c>
       <c r="G17" s="3">
-        <v>361500</v>
+        <v>392500</v>
       </c>
       <c r="H17" s="3">
-        <v>336300</v>
+        <v>355500</v>
       </c>
       <c r="I17" s="3">
+        <v>369100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>343400</v>
+      </c>
+      <c r="K17" s="3">
         <v>296800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>244900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>215900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>179100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>151500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>117000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>110200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>91700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>71000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>64100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>69400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>34100</v>
+        <v>25300</v>
       </c>
       <c r="E18" s="3">
-        <v>27700</v>
+        <v>29200</v>
       </c>
       <c r="F18" s="3">
-        <v>20400</v>
+        <v>34800</v>
       </c>
       <c r="G18" s="3">
-        <v>15500</v>
+        <v>28300</v>
       </c>
       <c r="H18" s="3">
-        <v>9800</v>
+        <v>20800</v>
       </c>
       <c r="I18" s="3">
+        <v>15900</v>
+      </c>
+      <c r="J18" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K18" s="3">
         <v>10300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>4300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>2700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>4000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-2500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-6100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-20100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,64 +1378,72 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>12300</v>
+        <v>9800</v>
       </c>
       <c r="E20" s="3">
-        <v>11700</v>
+        <v>11500</v>
       </c>
       <c r="F20" s="3">
-        <v>11700</v>
+        <v>12600</v>
       </c>
       <c r="G20" s="3">
-        <v>13500</v>
+        <v>12000</v>
       </c>
       <c r="H20" s="3">
-        <v>13300</v>
+        <v>11900</v>
       </c>
       <c r="I20" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>13600</v>
+      </c>
+      <c r="K20" s="3">
         <v>11600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>8300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>7700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>7100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-320100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1425,8 +1498,14 @@
       <c r="T21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,106 +1560,118 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>46400</v>
+        <v>35100</v>
       </c>
       <c r="E23" s="3">
-        <v>39400</v>
+        <v>40700</v>
       </c>
       <c r="F23" s="3">
-        <v>32100</v>
+        <v>47400</v>
       </c>
       <c r="G23" s="3">
-        <v>29000</v>
+        <v>40300</v>
       </c>
       <c r="H23" s="3">
-        <v>23100</v>
+        <v>32700</v>
       </c>
       <c r="I23" s="3">
+        <v>29700</v>
+      </c>
+      <c r="J23" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K23" s="3">
         <v>21900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>12600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>10300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>6700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-322600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>3900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-6100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-20000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>7700</v>
+        <v>6100</v>
       </c>
       <c r="E24" s="3">
-        <v>7800</v>
+        <v>5800</v>
       </c>
       <c r="F24" s="3">
-        <v>5700</v>
+        <v>7900</v>
       </c>
       <c r="G24" s="3">
-        <v>4200</v>
+        <v>8000</v>
       </c>
       <c r="H24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I24" s="3">
         <v>4300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K24" s="3">
         <v>3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-4600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-1200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>-600</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1593,8 +1684,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>38600</v>
+        <v>29000</v>
       </c>
       <c r="E26" s="3">
-        <v>31600</v>
+        <v>34900</v>
       </c>
       <c r="F26" s="3">
-        <v>26300</v>
+        <v>39400</v>
       </c>
       <c r="G26" s="3">
-        <v>24800</v>
+        <v>32300</v>
       </c>
       <c r="H26" s="3">
-        <v>18800</v>
+        <v>26900</v>
       </c>
       <c r="I26" s="3">
+        <v>25300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K26" s="3">
         <v>18600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>9700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>15000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>7900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-321700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>4500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-6100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-20000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>38700</v>
+        <v>28900</v>
       </c>
       <c r="E27" s="3">
-        <v>31600</v>
+        <v>39500</v>
       </c>
       <c r="F27" s="3">
-        <v>26200</v>
+        <v>39500</v>
       </c>
       <c r="G27" s="3">
-        <v>24400</v>
+        <v>32300</v>
       </c>
       <c r="H27" s="3">
-        <v>18800</v>
+        <v>26700</v>
       </c>
       <c r="I27" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J27" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K27" s="3">
         <v>18600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>9700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>14500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>7900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-310800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-71200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-6100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-20000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2118,138 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-12300</v>
+        <v>-9800</v>
       </c>
       <c r="E32" s="3">
-        <v>-11700</v>
+        <v>-11500</v>
       </c>
       <c r="F32" s="3">
-        <v>-11700</v>
+        <v>-12600</v>
       </c>
       <c r="G32" s="3">
-        <v>-13500</v>
+        <v>-12000</v>
       </c>
       <c r="H32" s="3">
-        <v>-13300</v>
+        <v>-11900</v>
       </c>
       <c r="I32" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-8300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-7700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-7100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>320100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>38700</v>
+        <v>28900</v>
       </c>
       <c r="E33" s="3">
-        <v>31600</v>
+        <v>39500</v>
       </c>
       <c r="F33" s="3">
-        <v>26200</v>
+        <v>39500</v>
       </c>
       <c r="G33" s="3">
-        <v>24400</v>
+        <v>32300</v>
       </c>
       <c r="H33" s="3">
-        <v>18800</v>
+        <v>26700</v>
       </c>
       <c r="I33" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J33" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K33" s="3">
         <v>18600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>9700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>14500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>7900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-310800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-71200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-6100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-20000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>38700</v>
+        <v>28900</v>
       </c>
       <c r="E35" s="3">
-        <v>31600</v>
+        <v>39500</v>
       </c>
       <c r="F35" s="3">
-        <v>26200</v>
+        <v>39500</v>
       </c>
       <c r="G35" s="3">
-        <v>24400</v>
+        <v>32300</v>
       </c>
       <c r="H35" s="3">
-        <v>18800</v>
+        <v>26700</v>
       </c>
       <c r="I35" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J35" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K35" s="3">
         <v>18600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>9700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>14500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>7900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-310800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-71200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-6100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-20000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,50 +2485,52 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1390800</v>
+        <v>1488400</v>
       </c>
       <c r="E41" s="3">
-        <v>1275300</v>
+        <v>1446000</v>
       </c>
       <c r="F41" s="3">
-        <v>1203700</v>
+        <v>1420200</v>
       </c>
       <c r="G41" s="3">
-        <v>1200300</v>
+        <v>1302200</v>
       </c>
       <c r="H41" s="3">
-        <v>1295500</v>
+        <v>1229200</v>
       </c>
       <c r="I41" s="3">
+        <v>1225700</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1322900</v>
+      </c>
+      <c r="K41" s="3">
         <v>1254600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>869400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>826800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>805000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>770000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>584200</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2370,47 +2543,53 @@
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>259000</v>
+        <v>173300</v>
       </c>
       <c r="E42" s="3">
-        <v>366400</v>
+        <v>188200</v>
       </c>
       <c r="F42" s="3">
-        <v>372400</v>
+        <v>264500</v>
       </c>
       <c r="G42" s="3">
-        <v>339100</v>
+        <v>374100</v>
       </c>
       <c r="H42" s="3">
-        <v>161600</v>
+        <v>380300</v>
       </c>
       <c r="I42" s="3">
+        <v>346300</v>
+      </c>
+      <c r="J42" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K42" s="3">
         <v>137700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>97600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>43600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>17000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>21300</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2426,50 +2605,56 @@
       <c r="T42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19700</v>
+        <v>36700</v>
       </c>
       <c r="E43" s="3">
+        <v>21200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>20200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>18100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>17400</v>
+      </c>
+      <c r="I43" s="3">
         <v>17700</v>
       </c>
-      <c r="F43" s="3">
-        <v>17000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>17400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>25200</v>
-      </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
+        <v>25700</v>
+      </c>
+      <c r="K43" s="3">
         <v>14600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>33500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>41100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>18500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>19900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>19800</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2482,8 +2667,14 @@
       <c r="T43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,50 +2729,56 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>74500</v>
+        <v>103000</v>
       </c>
       <c r="E45" s="3">
-        <v>63400</v>
+        <v>103000</v>
       </c>
       <c r="F45" s="3">
-        <v>61100</v>
+        <v>76000</v>
       </c>
       <c r="G45" s="3">
-        <v>61400</v>
+        <v>64700</v>
       </c>
       <c r="H45" s="3">
-        <v>66700</v>
+        <v>62400</v>
       </c>
       <c r="I45" s="3">
+        <v>62700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>68100</v>
+      </c>
+      <c r="K45" s="3">
         <v>46800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>35500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>46400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>32700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>24700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>12200</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2594,50 +2791,56 @@
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1744000</v>
+        <v>1801400</v>
       </c>
       <c r="E46" s="3">
-        <v>1722700</v>
+        <v>1758400</v>
       </c>
       <c r="F46" s="3">
-        <v>1654400</v>
+        <v>1780800</v>
       </c>
       <c r="G46" s="3">
-        <v>1618200</v>
+        <v>1759100</v>
       </c>
       <c r="H46" s="3">
-        <v>1548900</v>
+        <v>1689300</v>
       </c>
       <c r="I46" s="3">
+        <v>1652400</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1581700</v>
+      </c>
+      <c r="K46" s="3">
         <v>1453600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1035900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>957800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>873300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>835800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>616200</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2650,50 +2853,56 @@
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>68900</v>
+        <v>79500</v>
       </c>
       <c r="E47" s="3">
-        <v>65800</v>
+        <v>72900</v>
       </c>
       <c r="F47" s="3">
-        <v>61500</v>
+        <v>70300</v>
       </c>
       <c r="G47" s="3">
-        <v>58000</v>
+        <v>67200</v>
       </c>
       <c r="H47" s="3">
+        <v>62800</v>
+      </c>
+      <c r="I47" s="3">
+        <v>59200</v>
+      </c>
+      <c r="J47" s="3">
+        <v>57400</v>
+      </c>
+      <c r="K47" s="3">
         <v>56200</v>
       </c>
-      <c r="I47" s="3">
-        <v>56200</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>50200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>31900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>29800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>30400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>100</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2706,50 +2915,56 @@
       <c r="T47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>28400</v>
+      </c>
+      <c r="F48" s="3">
+        <v>31700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>32700</v>
+      </c>
+      <c r="H48" s="3">
+        <v>28700</v>
+      </c>
+      <c r="I48" s="3">
         <v>31100</v>
       </c>
-      <c r="E48" s="3">
-        <v>32000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>28100</v>
-      </c>
-      <c r="G48" s="3">
-        <v>30500</v>
-      </c>
-      <c r="H48" s="3">
-        <v>32800</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
+        <v>33500</v>
+      </c>
+      <c r="K48" s="3">
         <v>33600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>28900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>12700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>11700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>10000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>5500</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2762,50 +2977,56 @@
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>11100</v>
+        <v>8000</v>
       </c>
       <c r="E49" s="3">
-        <v>10100</v>
+        <v>9800</v>
       </c>
       <c r="F49" s="3">
-        <v>6700</v>
+        <v>11400</v>
       </c>
       <c r="G49" s="3">
+        <v>10300</v>
+      </c>
+      <c r="H49" s="3">
         <v>6900</v>
       </c>
-      <c r="H49" s="3">
-        <v>7300</v>
-      </c>
       <c r="I49" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="J49" s="3">
         <v>7400</v>
       </c>
       <c r="K49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="M49" s="3">
         <v>7500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>7000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>5200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>800</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>16</v>
       </c>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,50 +3163,56 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>22500</v>
+        <v>69400</v>
       </c>
       <c r="E52" s="3">
-        <v>29900</v>
+        <v>66700</v>
       </c>
       <c r="F52" s="3">
-        <v>26900</v>
+        <v>22900</v>
       </c>
       <c r="G52" s="3">
-        <v>23000</v>
+        <v>30600</v>
       </c>
       <c r="H52" s="3">
-        <v>24900</v>
+        <v>27400</v>
       </c>
       <c r="I52" s="3">
+        <v>23500</v>
+      </c>
+      <c r="J52" s="3">
+        <v>25400</v>
+      </c>
+      <c r="K52" s="3">
         <v>23300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>20600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>22000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>10500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5400</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>16</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,50 +3287,56 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1877500</v>
+        <v>1983600</v>
       </c>
       <c r="E54" s="3">
-        <v>1860500</v>
+        <v>1936200</v>
       </c>
       <c r="F54" s="3">
-        <v>1777600</v>
+        <v>1917200</v>
       </c>
       <c r="G54" s="3">
-        <v>1736600</v>
+        <v>1899800</v>
       </c>
       <c r="H54" s="3">
-        <v>1670100</v>
+        <v>1815200</v>
       </c>
       <c r="I54" s="3">
+        <v>1773300</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1705400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1573700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1143100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1032000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>932300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>883600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>627900</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3098,8 +3349,14 @@
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,49 +3401,51 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
-        <v>5300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>16</v>
+      <c r="P57" s="3">
+        <v>0</v>
       </c>
       <c r="Q57" s="3" t="s">
         <v>16</v>
@@ -3198,8 +3459,14 @@
       <c r="T57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,50 +3521,56 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>353000</v>
+        <v>369200</v>
       </c>
       <c r="E59" s="3">
-        <v>375400</v>
+        <v>370500</v>
       </c>
       <c r="F59" s="3">
-        <v>356500</v>
+        <v>360500</v>
       </c>
       <c r="G59" s="3">
-        <v>373200</v>
+        <v>383400</v>
       </c>
       <c r="H59" s="3">
-        <v>330600</v>
+        <v>364000</v>
       </c>
       <c r="I59" s="3">
+        <v>381100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>337600</v>
+      </c>
+      <c r="K59" s="3">
         <v>298300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>242600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>199100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>151400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>128700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>244600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3310,50 +3583,56 @@
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>356000</v>
+        <v>370400</v>
       </c>
       <c r="E60" s="3">
-        <v>380700</v>
+        <v>372100</v>
       </c>
       <c r="F60" s="3">
-        <v>356900</v>
+        <v>363500</v>
       </c>
       <c r="G60" s="3">
-        <v>373800</v>
+        <v>388800</v>
       </c>
       <c r="H60" s="3">
-        <v>332300</v>
+        <v>364400</v>
       </c>
       <c r="I60" s="3">
+        <v>381700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>339300</v>
+      </c>
+      <c r="K60" s="3">
         <v>301100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>245600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>200500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>154000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>129600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>244600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3366,8 +3645,14 @@
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,50 +3707,56 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>36300</v>
+        <v>38700</v>
       </c>
       <c r="E62" s="3">
-        <v>39200</v>
+        <v>38900</v>
       </c>
       <c r="F62" s="3">
-        <v>37300</v>
+        <v>37100</v>
       </c>
       <c r="G62" s="3">
-        <v>35900</v>
+        <v>40000</v>
       </c>
       <c r="H62" s="3">
-        <v>34500</v>
+        <v>38100</v>
       </c>
       <c r="I62" s="3">
+        <v>36700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>35300</v>
+      </c>
+      <c r="K62" s="3">
         <v>33300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>27800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>11700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>9600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>10700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>7000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,50 +3955,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>392300</v>
+        <v>409100</v>
       </c>
       <c r="E66" s="3">
-        <v>419900</v>
+        <v>410900</v>
       </c>
       <c r="F66" s="3">
-        <v>394200</v>
+        <v>400600</v>
       </c>
       <c r="G66" s="3">
-        <v>409700</v>
+        <v>428800</v>
       </c>
       <c r="H66" s="3">
-        <v>366800</v>
+        <v>402500</v>
       </c>
       <c r="I66" s="3">
+        <v>418400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>374500</v>
+      </c>
+      <c r="K66" s="3">
         <v>334300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>273300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>212200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>163700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>140300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>251600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>16</v>
       </c>
@@ -3702,8 +4017,14 @@
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3872,14 +4207,14 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
         <v>434700</v>
       </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
       <c r="Q70" s="3">
         <v>0</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,50 +4289,56 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-307800</v>
+        <v>-245800</v>
       </c>
       <c r="E72" s="3">
-        <v>-233200</v>
+        <v>-274800</v>
       </c>
       <c r="F72" s="3">
-        <v>-267900</v>
+        <v>-314300</v>
       </c>
       <c r="G72" s="3">
-        <v>-293500</v>
+        <v>-238100</v>
       </c>
       <c r="H72" s="3">
-        <v>-317900</v>
+        <v>-273500</v>
       </c>
       <c r="I72" s="3">
+        <v>-299800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-324700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-336800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-355400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-347000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-348400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-365300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-59100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4004,8 +4351,14 @@
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,50 +4537,56 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1485200</v>
+        <v>1574500</v>
       </c>
       <c r="E76" s="3">
-        <v>1440600</v>
+        <v>1525300</v>
       </c>
       <c r="F76" s="3">
-        <v>1383500</v>
+        <v>1516600</v>
       </c>
       <c r="G76" s="3">
-        <v>1326900</v>
+        <v>1471000</v>
       </c>
       <c r="H76" s="3">
-        <v>1303300</v>
+        <v>1412700</v>
       </c>
       <c r="I76" s="3">
+        <v>1354900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1330900</v>
+      </c>
+      <c r="K76" s="3">
         <v>1239400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>869700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>819800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>768600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>743300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-58300</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4228,8 +4599,14 @@
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>38700</v>
+        <v>28900</v>
       </c>
       <c r="E81" s="3">
-        <v>31600</v>
+        <v>39500</v>
       </c>
       <c r="F81" s="3">
-        <v>26200</v>
+        <v>39500</v>
       </c>
       <c r="G81" s="3">
-        <v>24400</v>
+        <v>32300</v>
       </c>
       <c r="H81" s="3">
-        <v>18800</v>
+        <v>26700</v>
       </c>
       <c r="I81" s="3">
+        <v>24900</v>
+      </c>
+      <c r="J81" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K81" s="3">
         <v>18600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>9700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>14500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>7900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-310800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-71200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-5800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-6100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-20000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5186,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5248,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5792,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5854,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5916,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5976,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>HUYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>406400</v>
+        <v>456200</v>
       </c>
       <c r="E8" s="3">
-        <v>466500</v>
+        <v>401100</v>
       </c>
       <c r="F8" s="3">
-        <v>439100</v>
+        <v>460400</v>
       </c>
       <c r="G8" s="3">
-        <v>420800</v>
+        <v>433400</v>
       </c>
       <c r="H8" s="3">
-        <v>376300</v>
+        <v>415300</v>
       </c>
       <c r="I8" s="3">
-        <v>385000</v>
+        <v>371400</v>
       </c>
       <c r="J8" s="3">
+        <v>379900</v>
+      </c>
+      <c r="K8" s="3">
         <v>353400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>307200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>249300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>218600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>178700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>149000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>121000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>110000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>86600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>68500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>58000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>49300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>326200</v>
+        <v>366600</v>
       </c>
       <c r="E9" s="3">
-        <v>373300</v>
+        <v>322000</v>
       </c>
       <c r="F9" s="3">
-        <v>342300</v>
+        <v>368400</v>
       </c>
       <c r="G9" s="3">
-        <v>331100</v>
+        <v>337900</v>
       </c>
       <c r="H9" s="3">
-        <v>302200</v>
+        <v>326800</v>
       </c>
       <c r="I9" s="3">
-        <v>312200</v>
+        <v>298300</v>
       </c>
       <c r="J9" s="3">
+        <v>308100</v>
+      </c>
+      <c r="K9" s="3">
         <v>290000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>255900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>207500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>183900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>151600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>125100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>102200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>93900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>75700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>59900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>55700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>56300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>80200</v>
+        <v>89500</v>
       </c>
       <c r="E10" s="3">
-        <v>93200</v>
+        <v>79100</v>
       </c>
       <c r="F10" s="3">
-        <v>96800</v>
+        <v>92000</v>
       </c>
       <c r="G10" s="3">
-        <v>89700</v>
+        <v>95600</v>
       </c>
       <c r="H10" s="3">
-        <v>74100</v>
+        <v>88500</v>
       </c>
       <c r="I10" s="3">
-        <v>72800</v>
+        <v>73100</v>
       </c>
       <c r="J10" s="3">
+        <v>71800</v>
+      </c>
+      <c r="K10" s="3">
         <v>63400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>51300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>41800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>34700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>27100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>23900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>18800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>16000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>10900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>8500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-7000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>31100</v>
+        <v>32000</v>
       </c>
       <c r="E12" s="3">
-        <v>33600</v>
+        <v>30700</v>
       </c>
       <c r="F12" s="3">
-        <v>28500</v>
+        <v>33200</v>
       </c>
       <c r="G12" s="3">
         <v>28100</v>
       </c>
       <c r="H12" s="3">
-        <v>24300</v>
+        <v>27700</v>
       </c>
       <c r="I12" s="3">
-        <v>27800</v>
+        <v>24000</v>
       </c>
       <c r="J12" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K12" s="3">
         <v>21100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>16100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>13800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>11500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>10400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>8600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>7400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>6500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>5200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>6200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>381100</v>
+        <v>428100</v>
       </c>
       <c r="E17" s="3">
-        <v>437300</v>
+        <v>376100</v>
       </c>
       <c r="F17" s="3">
-        <v>404400</v>
+        <v>431600</v>
       </c>
       <c r="G17" s="3">
-        <v>392500</v>
+        <v>399100</v>
       </c>
       <c r="H17" s="3">
-        <v>355500</v>
+        <v>387400</v>
       </c>
       <c r="I17" s="3">
-        <v>369100</v>
+        <v>350900</v>
       </c>
       <c r="J17" s="3">
+        <v>364300</v>
+      </c>
+      <c r="K17" s="3">
         <v>343400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>296800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>244900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>215900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>179100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>151500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>117000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>110200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>91700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>71000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>64100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>69400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>25300</v>
+        <v>28000</v>
       </c>
       <c r="E18" s="3">
-        <v>29200</v>
+        <v>25000</v>
       </c>
       <c r="F18" s="3">
-        <v>34800</v>
+        <v>28800</v>
       </c>
       <c r="G18" s="3">
-        <v>28300</v>
+        <v>34300</v>
       </c>
       <c r="H18" s="3">
-        <v>20800</v>
+        <v>27900</v>
       </c>
       <c r="I18" s="3">
-        <v>15900</v>
+        <v>20500</v>
       </c>
       <c r="J18" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K18" s="3">
         <v>10000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>4300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>4000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-5100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-6100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-20100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,70 +1413,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="E20" s="3">
-        <v>11500</v>
+        <v>9700</v>
       </c>
       <c r="F20" s="3">
-        <v>12600</v>
+        <v>11400</v>
       </c>
       <c r="G20" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="H20" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="I20" s="3">
-        <v>13800</v>
+        <v>11800</v>
       </c>
       <c r="J20" s="3">
         <v>13600</v>
       </c>
       <c r="K20" s="3">
+        <v>13600</v>
+      </c>
+      <c r="L20" s="3">
         <v>11600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>7700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-320100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>300</v>
-      </c>
-      <c r="T20" s="3">
-        <v>100</v>
       </c>
       <c r="U20" s="3">
         <v>100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1504,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,115 +1606,121 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>35100</v>
+        <v>37600</v>
       </c>
       <c r="E23" s="3">
-        <v>40700</v>
+        <v>34600</v>
       </c>
       <c r="F23" s="3">
-        <v>47400</v>
+        <v>40200</v>
       </c>
       <c r="G23" s="3">
-        <v>40300</v>
+        <v>46700</v>
       </c>
       <c r="H23" s="3">
-        <v>32700</v>
+        <v>39700</v>
       </c>
       <c r="I23" s="3">
-        <v>29700</v>
+        <v>32300</v>
       </c>
       <c r="J23" s="3">
+        <v>29300</v>
+      </c>
+      <c r="K23" s="3">
         <v>23600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>21900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>12600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>10300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-322600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>3900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-6100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-20000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E24" s="3">
         <v>6100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>7800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I24" s="3">
         <v>5800</v>
       </c>
-      <c r="F24" s="3">
-        <v>7900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>8000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>5900</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K24" s="3">
         <v>4300</v>
       </c>
-      <c r="J24" s="3">
-        <v>4300</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-4600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-1200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-600</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>29000</v>
+        <v>28600</v>
       </c>
       <c r="E26" s="3">
-        <v>34900</v>
+        <v>28600</v>
       </c>
       <c r="F26" s="3">
-        <v>39400</v>
+        <v>34500</v>
       </c>
       <c r="G26" s="3">
-        <v>32300</v>
+        <v>38900</v>
       </c>
       <c r="H26" s="3">
-        <v>26900</v>
+        <v>31800</v>
       </c>
       <c r="I26" s="3">
-        <v>25300</v>
+        <v>26500</v>
       </c>
       <c r="J26" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K26" s="3">
         <v>19200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-321700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-6100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-20000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>28900</v>
+        <v>28700</v>
       </c>
       <c r="E27" s="3">
-        <v>39500</v>
+        <v>28600</v>
       </c>
       <c r="F27" s="3">
-        <v>39500</v>
+        <v>39000</v>
       </c>
       <c r="G27" s="3">
-        <v>32300</v>
+        <v>39000</v>
       </c>
       <c r="H27" s="3">
-        <v>26700</v>
+        <v>31800</v>
       </c>
       <c r="I27" s="3">
-        <v>24900</v>
+        <v>26400</v>
       </c>
       <c r="J27" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K27" s="3">
         <v>19200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-310800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-71200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-6100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-20000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9800</v>
+        <v>-9500</v>
       </c>
       <c r="E32" s="3">
-        <v>-11500</v>
+        <v>-9700</v>
       </c>
       <c r="F32" s="3">
-        <v>-12600</v>
+        <v>-11400</v>
       </c>
       <c r="G32" s="3">
-        <v>-12000</v>
+        <v>-12400</v>
       </c>
       <c r="H32" s="3">
-        <v>-11900</v>
+        <v>-11800</v>
       </c>
       <c r="I32" s="3">
-        <v>-13800</v>
+        <v>-11800</v>
       </c>
       <c r="J32" s="3">
         <v>-13600</v>
       </c>
       <c r="K32" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="L32" s="3">
         <v>-11600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-7700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>320100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-300</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-100</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>28900</v>
+        <v>28700</v>
       </c>
       <c r="E33" s="3">
-        <v>39500</v>
+        <v>28600</v>
       </c>
       <c r="F33" s="3">
-        <v>39500</v>
+        <v>39000</v>
       </c>
       <c r="G33" s="3">
-        <v>32300</v>
+        <v>39000</v>
       </c>
       <c r="H33" s="3">
-        <v>26700</v>
+        <v>31800</v>
       </c>
       <c r="I33" s="3">
-        <v>24900</v>
+        <v>26400</v>
       </c>
       <c r="J33" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K33" s="3">
         <v>19200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-310800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-71200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-6100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-20000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>28900</v>
+        <v>28700</v>
       </c>
       <c r="E35" s="3">
-        <v>39500</v>
+        <v>28600</v>
       </c>
       <c r="F35" s="3">
-        <v>39500</v>
+        <v>39000</v>
       </c>
       <c r="G35" s="3">
-        <v>32300</v>
+        <v>39000</v>
       </c>
       <c r="H35" s="3">
-        <v>26700</v>
+        <v>31800</v>
       </c>
       <c r="I35" s="3">
-        <v>24900</v>
+        <v>26400</v>
       </c>
       <c r="J35" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K35" s="3">
         <v>19200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-310800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-71200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-6100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-20000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,53 +2573,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1488400</v>
+        <v>1483400</v>
       </c>
       <c r="E41" s="3">
-        <v>1446000</v>
+        <v>1469000</v>
       </c>
       <c r="F41" s="3">
-        <v>1420200</v>
+        <v>1427100</v>
       </c>
       <c r="G41" s="3">
-        <v>1302200</v>
+        <v>1401700</v>
       </c>
       <c r="H41" s="3">
-        <v>1229200</v>
+        <v>1285300</v>
       </c>
       <c r="I41" s="3">
-        <v>1225700</v>
+        <v>1213200</v>
       </c>
       <c r="J41" s="3">
+        <v>1209800</v>
+      </c>
+      <c r="K41" s="3">
         <v>1322900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1254600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>869400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>826800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>805000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>770000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>584200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2549,50 +2636,53 @@
       <c r="V41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>173300</v>
+        <v>170100</v>
       </c>
       <c r="E42" s="3">
-        <v>188200</v>
+        <v>171000</v>
       </c>
       <c r="F42" s="3">
-        <v>264500</v>
+        <v>185800</v>
       </c>
       <c r="G42" s="3">
-        <v>374100</v>
+        <v>261000</v>
       </c>
       <c r="H42" s="3">
-        <v>380300</v>
+        <v>369200</v>
       </c>
       <c r="I42" s="3">
-        <v>346300</v>
+        <v>375400</v>
       </c>
       <c r="J42" s="3">
+        <v>341800</v>
+      </c>
+      <c r="K42" s="3">
         <v>165000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>137700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>97600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>43600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>17000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>21300</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2611,53 +2701,56 @@
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>36700</v>
+        <v>44000</v>
       </c>
       <c r="E43" s="3">
-        <v>21200</v>
+        <v>36200</v>
       </c>
       <c r="F43" s="3">
-        <v>20200</v>
+        <v>20900</v>
       </c>
       <c r="G43" s="3">
-        <v>18100</v>
+        <v>19900</v>
       </c>
       <c r="H43" s="3">
-        <v>17400</v>
+        <v>17800</v>
       </c>
       <c r="I43" s="3">
-        <v>17700</v>
+        <v>17200</v>
       </c>
       <c r="J43" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K43" s="3">
         <v>25700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>14600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>33500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>41100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>18500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19800</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2673,8 +2766,11 @@
       <c r="V43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,53 +2831,56 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>103000</v>
+        <v>115400</v>
       </c>
       <c r="E45" s="3">
-        <v>103000</v>
+        <v>101700</v>
       </c>
       <c r="F45" s="3">
-        <v>76000</v>
+        <v>101600</v>
       </c>
       <c r="G45" s="3">
-        <v>64700</v>
+        <v>75100</v>
       </c>
       <c r="H45" s="3">
-        <v>62400</v>
+        <v>63800</v>
       </c>
       <c r="I45" s="3">
-        <v>62700</v>
+        <v>61600</v>
       </c>
       <c r="J45" s="3">
+        <v>61900</v>
+      </c>
+      <c r="K45" s="3">
         <v>68100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>46800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>35500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>46400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>32700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>24700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2797,53 +2896,56 @@
       <c r="V45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1801400</v>
+        <v>1812900</v>
       </c>
       <c r="E46" s="3">
-        <v>1758400</v>
+        <v>1777900</v>
       </c>
       <c r="F46" s="3">
-        <v>1780800</v>
+        <v>1735500</v>
       </c>
       <c r="G46" s="3">
-        <v>1759100</v>
+        <v>1757700</v>
       </c>
       <c r="H46" s="3">
-        <v>1689300</v>
+        <v>1736200</v>
       </c>
       <c r="I46" s="3">
-        <v>1652400</v>
+        <v>1667300</v>
       </c>
       <c r="J46" s="3">
+        <v>1630900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1581700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1453600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1035900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>957800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>873300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>835800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>616200</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2859,53 +2961,56 @@
       <c r="V46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>79500</v>
+        <v>77800</v>
       </c>
       <c r="E47" s="3">
-        <v>72900</v>
+        <v>78500</v>
       </c>
       <c r="F47" s="3">
-        <v>70300</v>
+        <v>71900</v>
       </c>
       <c r="G47" s="3">
-        <v>67200</v>
+        <v>69400</v>
       </c>
       <c r="H47" s="3">
-        <v>62800</v>
+        <v>66300</v>
       </c>
       <c r="I47" s="3">
-        <v>59200</v>
+        <v>62000</v>
       </c>
       <c r="J47" s="3">
+        <v>58400</v>
+      </c>
+      <c r="K47" s="3">
         <v>57400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>56200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>50200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>31900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>29800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>30400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R47" s="3" t="s">
         <v>16</v>
       </c>
@@ -2921,53 +3026,56 @@
       <c r="V47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>25300</v>
+        <v>28000</v>
       </c>
       <c r="E48" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F48" s="3">
+        <v>28000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>31300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>32200</v>
+      </c>
+      <c r="I48" s="3">
         <v>28400</v>
       </c>
-      <c r="F48" s="3">
-        <v>31700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>32700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>28700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>31100</v>
-      </c>
       <c r="J48" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K48" s="3">
         <v>33500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>10000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5500</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>16</v>
       </c>
@@ -2983,53 +3091,56 @@
       <c r="V48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8000</v>
+        <v>14600</v>
       </c>
       <c r="E49" s="3">
-        <v>9800</v>
+        <v>7900</v>
       </c>
       <c r="F49" s="3">
-        <v>11400</v>
+        <v>9700</v>
       </c>
       <c r="G49" s="3">
-        <v>10300</v>
+        <v>11200</v>
       </c>
       <c r="H49" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I49" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J49" s="3">
         <v>6900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="L49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="M49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="N49" s="3">
+        <v>7500</v>
+      </c>
+      <c r="O49" s="3">
         <v>7000</v>
       </c>
-      <c r="J49" s="3">
-        <v>7400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>6900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>7400</v>
-      </c>
-      <c r="M49" s="3">
-        <v>7500</v>
-      </c>
-      <c r="N49" s="3">
-        <v>7000</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>800</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,53 +3286,56 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>69400</v>
+        <v>69500</v>
       </c>
       <c r="E52" s="3">
-        <v>66700</v>
+        <v>68500</v>
       </c>
       <c r="F52" s="3">
-        <v>22900</v>
+        <v>65900</v>
       </c>
       <c r="G52" s="3">
-        <v>30600</v>
+        <v>22600</v>
       </c>
       <c r="H52" s="3">
-        <v>27400</v>
+        <v>30200</v>
       </c>
       <c r="I52" s="3">
-        <v>23500</v>
+        <v>27100</v>
       </c>
       <c r="J52" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K52" s="3">
         <v>25400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>23300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>22000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>10500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>5400</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,53 +3416,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1983600</v>
+        <v>2002800</v>
       </c>
       <c r="E54" s="3">
-        <v>1936200</v>
+        <v>1957800</v>
       </c>
       <c r="F54" s="3">
-        <v>1917200</v>
+        <v>1911000</v>
       </c>
       <c r="G54" s="3">
-        <v>1899800</v>
+        <v>1892300</v>
       </c>
       <c r="H54" s="3">
-        <v>1815200</v>
+        <v>1875100</v>
       </c>
       <c r="I54" s="3">
-        <v>1773300</v>
+        <v>1791600</v>
       </c>
       <c r="J54" s="3">
+        <v>1750200</v>
+      </c>
+      <c r="K54" s="3">
         <v>1705400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1573700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1143100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1032000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>932300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>883600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>627900</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3355,8 +3481,11 @@
       <c r="V54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,52 +3533,53 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1200</v>
+        <v>8600</v>
       </c>
       <c r="E57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
-        <v>3100</v>
-      </c>
       <c r="G57" s="3">
-        <v>5400</v>
+        <v>3000</v>
       </c>
       <c r="H57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>16</v>
+      <c r="Q57" s="3">
+        <v>0</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>16</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,53 +3661,56 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>369200</v>
+        <v>380700</v>
       </c>
       <c r="E59" s="3">
-        <v>370500</v>
+        <v>364400</v>
       </c>
       <c r="F59" s="3">
-        <v>360500</v>
+        <v>365700</v>
       </c>
       <c r="G59" s="3">
-        <v>383400</v>
+        <v>355800</v>
       </c>
       <c r="H59" s="3">
-        <v>364000</v>
+        <v>378400</v>
       </c>
       <c r="I59" s="3">
-        <v>381100</v>
+        <v>359300</v>
       </c>
       <c r="J59" s="3">
+        <v>376200</v>
+      </c>
+      <c r="K59" s="3">
         <v>337600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>298300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>242600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>199100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>151400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>128700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>244600</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3589,53 +3726,56 @@
       <c r="V59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>370400</v>
+        <v>389400</v>
       </c>
       <c r="E60" s="3">
-        <v>372100</v>
+        <v>365600</v>
       </c>
       <c r="F60" s="3">
-        <v>363500</v>
+        <v>367200</v>
       </c>
       <c r="G60" s="3">
-        <v>388800</v>
+        <v>358800</v>
       </c>
       <c r="H60" s="3">
-        <v>364400</v>
+        <v>383700</v>
       </c>
       <c r="I60" s="3">
-        <v>381700</v>
+        <v>359700</v>
       </c>
       <c r="J60" s="3">
+        <v>376700</v>
+      </c>
+      <c r="K60" s="3">
         <v>339300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>301100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>245600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>200500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>154000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>129600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>244600</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3651,8 +3791,11 @@
       <c r="V60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,53 +3856,56 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>38700</v>
+        <v>37300</v>
       </c>
       <c r="E62" s="3">
-        <v>38900</v>
+        <v>38200</v>
       </c>
       <c r="F62" s="3">
-        <v>37100</v>
+        <v>38400</v>
       </c>
       <c r="G62" s="3">
-        <v>40000</v>
+        <v>36600</v>
       </c>
       <c r="H62" s="3">
-        <v>38100</v>
+        <v>39500</v>
       </c>
       <c r="I62" s="3">
-        <v>36700</v>
+        <v>37600</v>
       </c>
       <c r="J62" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K62" s="3">
         <v>35300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>33300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>27800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7000</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,53 +4116,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>409100</v>
+        <v>426700</v>
       </c>
       <c r="E66" s="3">
-        <v>410900</v>
+        <v>403800</v>
       </c>
       <c r="F66" s="3">
-        <v>400600</v>
+        <v>405600</v>
       </c>
       <c r="G66" s="3">
-        <v>428800</v>
+        <v>395400</v>
       </c>
       <c r="H66" s="3">
-        <v>402500</v>
+        <v>423200</v>
       </c>
       <c r="I66" s="3">
-        <v>418400</v>
+        <v>397300</v>
       </c>
       <c r="J66" s="3">
+        <v>412900</v>
+      </c>
+      <c r="K66" s="3">
         <v>374500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>334300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>273300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>212200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>163700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>140300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>251600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4023,8 +4181,11 @@
       <c r="V66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4213,11 +4381,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
         <v>434700</v>
       </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
       <c r="R70" s="3">
         <v>0</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,53 +4466,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-245800</v>
+        <v>-213900</v>
       </c>
       <c r="E72" s="3">
-        <v>-274800</v>
+        <v>-242600</v>
       </c>
       <c r="F72" s="3">
-        <v>-314300</v>
+        <v>-271200</v>
       </c>
       <c r="G72" s="3">
-        <v>-238100</v>
+        <v>-310200</v>
       </c>
       <c r="H72" s="3">
-        <v>-273500</v>
+        <v>-235000</v>
       </c>
       <c r="I72" s="3">
-        <v>-299800</v>
+        <v>-270000</v>
       </c>
       <c r="J72" s="3">
+        <v>-295900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-324700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-336800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-355400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-347000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-348400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-365300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-59100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,53 +4726,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1574500</v>
+        <v>1576100</v>
       </c>
       <c r="E76" s="3">
-        <v>1525300</v>
+        <v>1554000</v>
       </c>
       <c r="F76" s="3">
-        <v>1516600</v>
+        <v>1505400</v>
       </c>
       <c r="G76" s="3">
-        <v>1471000</v>
+        <v>1496800</v>
       </c>
       <c r="H76" s="3">
-        <v>1412700</v>
+        <v>1451900</v>
       </c>
       <c r="I76" s="3">
-        <v>1354900</v>
+        <v>1394400</v>
       </c>
       <c r="J76" s="3">
+        <v>1337300</v>
+      </c>
+      <c r="K76" s="3">
         <v>1330900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1239400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>869700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>819800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>768600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>743300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-58300</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4605,8 +4791,11 @@
       <c r="V76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>28900</v>
+        <v>28700</v>
       </c>
       <c r="E81" s="3">
-        <v>39500</v>
+        <v>28600</v>
       </c>
       <c r="F81" s="3">
-        <v>39500</v>
+        <v>39000</v>
       </c>
       <c r="G81" s="3">
-        <v>32300</v>
+        <v>39000</v>
       </c>
       <c r="H81" s="3">
-        <v>26700</v>
+        <v>31800</v>
       </c>
       <c r="I81" s="3">
-        <v>24900</v>
+        <v>26400</v>
       </c>
       <c r="J81" s="3">
+        <v>24600</v>
+      </c>
+      <c r="K81" s="3">
         <v>19200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-310800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-71200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-6100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-20000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>HUYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>456200</v>
+        <v>465800</v>
       </c>
       <c r="E8" s="3">
-        <v>401100</v>
+        <v>463800</v>
       </c>
       <c r="F8" s="3">
-        <v>460400</v>
+        <v>407800</v>
       </c>
       <c r="G8" s="3">
-        <v>433400</v>
+        <v>468200</v>
       </c>
       <c r="H8" s="3">
-        <v>415300</v>
+        <v>440700</v>
       </c>
       <c r="I8" s="3">
-        <v>371400</v>
+        <v>422300</v>
       </c>
       <c r="J8" s="3">
+        <v>377600</v>
+      </c>
+      <c r="K8" s="3">
         <v>379900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>353400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>307200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>249300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>218600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>178700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>149000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>121000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>110000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>86600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>68500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>58000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>49300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>366600</v>
+        <v>386900</v>
       </c>
       <c r="E9" s="3">
-        <v>322000</v>
+        <v>372800</v>
       </c>
       <c r="F9" s="3">
-        <v>368400</v>
+        <v>327400</v>
       </c>
       <c r="G9" s="3">
-        <v>337900</v>
+        <v>374600</v>
       </c>
       <c r="H9" s="3">
-        <v>326800</v>
+        <v>343500</v>
       </c>
       <c r="I9" s="3">
-        <v>298300</v>
+        <v>332300</v>
       </c>
       <c r="J9" s="3">
+        <v>303300</v>
+      </c>
+      <c r="K9" s="3">
         <v>308100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>290000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>255900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>207500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>183900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>151600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>125100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>102200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>93900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>75700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>59900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>55700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>56300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>89500</v>
+        <v>78900</v>
       </c>
       <c r="E10" s="3">
-        <v>79100</v>
+        <v>91000</v>
       </c>
       <c r="F10" s="3">
-        <v>92000</v>
+        <v>80500</v>
       </c>
       <c r="G10" s="3">
-        <v>95600</v>
+        <v>93600</v>
       </c>
       <c r="H10" s="3">
-        <v>88500</v>
+        <v>97200</v>
       </c>
       <c r="I10" s="3">
-        <v>73100</v>
+        <v>90000</v>
       </c>
       <c r="J10" s="3">
+        <v>74300</v>
+      </c>
+      <c r="K10" s="3">
         <v>71800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>63400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>51300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>41800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>34700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>27100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>23900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>18800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>16000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>10900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>8500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-7000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>32000</v>
+        <v>32300</v>
       </c>
       <c r="E12" s="3">
-        <v>30700</v>
+        <v>32500</v>
       </c>
       <c r="F12" s="3">
-        <v>33200</v>
+        <v>31200</v>
       </c>
       <c r="G12" s="3">
-        <v>28100</v>
+        <v>33800</v>
       </c>
       <c r="H12" s="3">
-        <v>27700</v>
+        <v>28600</v>
       </c>
       <c r="I12" s="3">
-        <v>24000</v>
+        <v>28200</v>
       </c>
       <c r="J12" s="3">
+        <v>24400</v>
+      </c>
+      <c r="K12" s="3">
         <v>27500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>16100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>13800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>11500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>10400</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>8600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>7400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>6500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>7300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>5200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>6200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>7700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>428100</v>
+        <v>452800</v>
       </c>
       <c r="E17" s="3">
-        <v>376100</v>
+        <v>435300</v>
       </c>
       <c r="F17" s="3">
-        <v>431600</v>
+        <v>382400</v>
       </c>
       <c r="G17" s="3">
-        <v>399100</v>
+        <v>438800</v>
       </c>
       <c r="H17" s="3">
-        <v>387400</v>
+        <v>405800</v>
       </c>
       <c r="I17" s="3">
-        <v>350900</v>
+        <v>393900</v>
       </c>
       <c r="J17" s="3">
+        <v>356700</v>
+      </c>
+      <c r="K17" s="3">
         <v>364300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>343400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>296800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>244900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>215900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>179100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>151500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>117000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>110200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>91700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>71000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>64100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>69400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>28000</v>
+        <v>13000</v>
       </c>
       <c r="E18" s="3">
-        <v>25000</v>
+        <v>28500</v>
       </c>
       <c r="F18" s="3">
-        <v>28800</v>
+        <v>25400</v>
       </c>
       <c r="G18" s="3">
-        <v>34300</v>
+        <v>29300</v>
       </c>
       <c r="H18" s="3">
-        <v>27900</v>
+        <v>34900</v>
       </c>
       <c r="I18" s="3">
-        <v>20500</v>
+        <v>28400</v>
       </c>
       <c r="J18" s="3">
+        <v>20900</v>
+      </c>
+      <c r="K18" s="3">
         <v>15700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>10000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>4300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-5100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-6100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-20100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,73 +1447,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>9500</v>
+        <v>16100</v>
       </c>
       <c r="E20" s="3">
         <v>9700</v>
       </c>
       <c r="F20" s="3">
-        <v>11400</v>
+        <v>9800</v>
       </c>
       <c r="G20" s="3">
-        <v>12400</v>
+        <v>11600</v>
       </c>
       <c r="H20" s="3">
-        <v>11800</v>
+        <v>12600</v>
       </c>
       <c r="I20" s="3">
-        <v>11800</v>
+        <v>12000</v>
       </c>
       <c r="J20" s="3">
-        <v>13600</v>
+        <v>12000</v>
       </c>
       <c r="K20" s="3">
         <v>13600</v>
       </c>
       <c r="L20" s="3">
+        <v>13600</v>
+      </c>
+      <c r="M20" s="3">
         <v>11600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>7700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-320100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>300</v>
-      </c>
-      <c r="U20" s="3">
-        <v>100</v>
       </c>
       <c r="V20" s="3">
         <v>100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,121 +1649,127 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>37600</v>
+        <v>29200</v>
       </c>
       <c r="E23" s="3">
-        <v>34600</v>
+        <v>38200</v>
       </c>
       <c r="F23" s="3">
-        <v>40200</v>
+        <v>35200</v>
       </c>
       <c r="G23" s="3">
-        <v>46700</v>
+        <v>40900</v>
       </c>
       <c r="H23" s="3">
-        <v>39700</v>
+        <v>47500</v>
       </c>
       <c r="I23" s="3">
-        <v>32300</v>
+        <v>40400</v>
       </c>
       <c r="J23" s="3">
+        <v>32800</v>
+      </c>
+      <c r="K23" s="3">
         <v>29300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>23600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>21900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>12600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>10300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-322600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>3900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-6100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-20000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>9000</v>
+        <v>6400</v>
       </c>
       <c r="E24" s="3">
-        <v>6100</v>
+        <v>9100</v>
       </c>
       <c r="F24" s="3">
-        <v>5700</v>
+        <v>6200</v>
       </c>
       <c r="G24" s="3">
-        <v>7800</v>
+        <v>5800</v>
       </c>
       <c r="H24" s="3">
         <v>7900</v>
       </c>
       <c r="I24" s="3">
-        <v>5800</v>
+        <v>8000</v>
       </c>
       <c r="J24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K24" s="3">
         <v>4200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>3300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-4600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-1200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-600</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>28600</v>
+        <v>22800</v>
       </c>
       <c r="E26" s="3">
-        <v>28600</v>
+        <v>29100</v>
       </c>
       <c r="F26" s="3">
-        <v>34500</v>
+        <v>29100</v>
       </c>
       <c r="G26" s="3">
-        <v>38900</v>
+        <v>35000</v>
       </c>
       <c r="H26" s="3">
-        <v>31800</v>
+        <v>39600</v>
       </c>
       <c r="I26" s="3">
-        <v>26500</v>
+        <v>32400</v>
       </c>
       <c r="J26" s="3">
+        <v>27000</v>
+      </c>
+      <c r="K26" s="3">
         <v>25000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>19200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>18600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>15000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-321700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-6100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-20000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>28700</v>
+        <v>82100</v>
       </c>
       <c r="E27" s="3">
-        <v>28600</v>
+        <v>29200</v>
       </c>
       <c r="F27" s="3">
-        <v>39000</v>
+        <v>29000</v>
       </c>
       <c r="G27" s="3">
-        <v>39000</v>
+        <v>39600</v>
       </c>
       <c r="H27" s="3">
-        <v>31800</v>
+        <v>39600</v>
       </c>
       <c r="I27" s="3">
-        <v>26400</v>
+        <v>32400</v>
       </c>
       <c r="J27" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K27" s="3">
         <v>24600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>19200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>18600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>14500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-310800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-71200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-6100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-20000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9500</v>
+        <v>-16100</v>
       </c>
       <c r="E32" s="3">
         <v>-9700</v>
       </c>
       <c r="F32" s="3">
-        <v>-11400</v>
+        <v>-9800</v>
       </c>
       <c r="G32" s="3">
-        <v>-12400</v>
+        <v>-11600</v>
       </c>
       <c r="H32" s="3">
-        <v>-11800</v>
+        <v>-12600</v>
       </c>
       <c r="I32" s="3">
-        <v>-11800</v>
+        <v>-12000</v>
       </c>
       <c r="J32" s="3">
-        <v>-13600</v>
+        <v>-12000</v>
       </c>
       <c r="K32" s="3">
         <v>-13600</v>
       </c>
       <c r="L32" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="M32" s="3">
         <v>-11600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-7700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>320100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-300</v>
-      </c>
-      <c r="U32" s="3">
-        <v>-100</v>
       </c>
       <c r="V32" s="3">
         <v>-100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>28700</v>
+        <v>82100</v>
       </c>
       <c r="E33" s="3">
-        <v>28600</v>
+        <v>29200</v>
       </c>
       <c r="F33" s="3">
-        <v>39000</v>
+        <v>29000</v>
       </c>
       <c r="G33" s="3">
-        <v>39000</v>
+        <v>39600</v>
       </c>
       <c r="H33" s="3">
-        <v>31800</v>
+        <v>39600</v>
       </c>
       <c r="I33" s="3">
-        <v>26400</v>
+        <v>32400</v>
       </c>
       <c r="J33" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K33" s="3">
         <v>24600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>19200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>18600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>14500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-310800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-71200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-6100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-20000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>28700</v>
+        <v>82100</v>
       </c>
       <c r="E35" s="3">
-        <v>28600</v>
+        <v>29200</v>
       </c>
       <c r="F35" s="3">
-        <v>39000</v>
+        <v>29000</v>
       </c>
       <c r="G35" s="3">
-        <v>39000</v>
+        <v>39600</v>
       </c>
       <c r="H35" s="3">
-        <v>31800</v>
+        <v>39600</v>
       </c>
       <c r="I35" s="3">
-        <v>26400</v>
+        <v>32400</v>
       </c>
       <c r="J35" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K35" s="3">
         <v>24600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>19200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>18600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>14500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-310800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-71200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-6100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-20000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,56 +2660,57 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1483400</v>
+        <v>1582800</v>
       </c>
       <c r="E41" s="3">
-        <v>1469000</v>
+        <v>1508200</v>
       </c>
       <c r="F41" s="3">
-        <v>1427100</v>
+        <v>1493700</v>
       </c>
       <c r="G41" s="3">
-        <v>1401700</v>
+        <v>1451100</v>
       </c>
       <c r="H41" s="3">
-        <v>1285300</v>
+        <v>1425200</v>
       </c>
       <c r="I41" s="3">
-        <v>1213200</v>
+        <v>1306800</v>
       </c>
       <c r="J41" s="3">
+        <v>1233500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1209800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1322900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1254600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>869400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>826800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>805000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>770000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>584200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2639,53 +2726,56 @@
       <c r="W41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>170100</v>
+        <v>158100</v>
       </c>
       <c r="E42" s="3">
-        <v>171000</v>
+        <v>173000</v>
       </c>
       <c r="F42" s="3">
-        <v>185800</v>
+        <v>173900</v>
       </c>
       <c r="G42" s="3">
-        <v>261000</v>
+        <v>188900</v>
       </c>
       <c r="H42" s="3">
-        <v>369200</v>
+        <v>265400</v>
       </c>
       <c r="I42" s="3">
         <v>375400</v>
       </c>
       <c r="J42" s="3">
+        <v>381700</v>
+      </c>
+      <c r="K42" s="3">
         <v>341800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>165000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>137700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>97600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>43600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>17000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>21300</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2704,56 +2794,59 @@
       <c r="W42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>44000</v>
+        <v>44800</v>
       </c>
       <c r="E43" s="3">
-        <v>36200</v>
+        <v>44700</v>
       </c>
       <c r="F43" s="3">
-        <v>20900</v>
+        <v>36800</v>
       </c>
       <c r="G43" s="3">
-        <v>19900</v>
+        <v>21300</v>
       </c>
       <c r="H43" s="3">
-        <v>17800</v>
+        <v>20200</v>
       </c>
       <c r="I43" s="3">
-        <v>17200</v>
+        <v>18100</v>
       </c>
       <c r="J43" s="3">
         <v>17500</v>
       </c>
       <c r="K43" s="3">
+        <v>17500</v>
+      </c>
+      <c r="L43" s="3">
         <v>25700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>14600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>33500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>41100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>18500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>19900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>19800</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2769,8 +2862,11 @@
       <c r="W43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,56 +2930,59 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>115400</v>
+        <v>146800</v>
       </c>
       <c r="E45" s="3">
-        <v>101700</v>
+        <v>117400</v>
       </c>
       <c r="F45" s="3">
-        <v>101600</v>
+        <v>103400</v>
       </c>
       <c r="G45" s="3">
-        <v>75100</v>
+        <v>103300</v>
       </c>
       <c r="H45" s="3">
-        <v>63800</v>
+        <v>76300</v>
       </c>
       <c r="I45" s="3">
-        <v>61600</v>
+        <v>64900</v>
       </c>
       <c r="J45" s="3">
+        <v>62700</v>
+      </c>
+      <c r="K45" s="3">
         <v>61900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>68100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>46800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>35500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>46400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>32700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>24700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>12200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S45" s="3" t="s">
         <v>16</v>
       </c>
@@ -2899,56 +2998,59 @@
       <c r="W45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1812900</v>
+        <v>1932500</v>
       </c>
       <c r="E46" s="3">
-        <v>1777900</v>
+        <v>1843300</v>
       </c>
       <c r="F46" s="3">
-        <v>1735500</v>
+        <v>1807700</v>
       </c>
       <c r="G46" s="3">
-        <v>1757700</v>
+        <v>1764600</v>
       </c>
       <c r="H46" s="3">
-        <v>1736200</v>
+        <v>1787100</v>
       </c>
       <c r="I46" s="3">
-        <v>1667300</v>
+        <v>1765300</v>
       </c>
       <c r="J46" s="3">
+        <v>1695300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1630900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1581700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1453600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1035900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>957800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>873300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>835800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>616200</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S46" s="3" t="s">
         <v>16</v>
       </c>
@@ -2964,56 +3066,59 @@
       <c r="W46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>77800</v>
+        <v>91200</v>
       </c>
       <c r="E47" s="3">
-        <v>78500</v>
+        <v>79100</v>
       </c>
       <c r="F47" s="3">
-        <v>71900</v>
+        <v>79800</v>
       </c>
       <c r="G47" s="3">
-        <v>69400</v>
+        <v>73100</v>
       </c>
       <c r="H47" s="3">
-        <v>66300</v>
+        <v>70600</v>
       </c>
       <c r="I47" s="3">
-        <v>62000</v>
+        <v>67400</v>
       </c>
       <c r="J47" s="3">
+        <v>63100</v>
+      </c>
+      <c r="K47" s="3">
         <v>58400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>57400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>56200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>50200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>31900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>29800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>30400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3029,56 +3134,59 @@
       <c r="W47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28000</v>
+        <v>76300</v>
       </c>
       <c r="E48" s="3">
-        <v>25000</v>
+        <v>28500</v>
       </c>
       <c r="F48" s="3">
-        <v>28000</v>
+        <v>25400</v>
       </c>
       <c r="G48" s="3">
-        <v>31300</v>
+        <v>28500</v>
       </c>
       <c r="H48" s="3">
-        <v>32200</v>
+        <v>31900</v>
       </c>
       <c r="I48" s="3">
-        <v>28400</v>
+        <v>32800</v>
       </c>
       <c r="J48" s="3">
+        <v>28800</v>
+      </c>
+      <c r="K48" s="3">
         <v>30700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>33500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>33600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>28900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>12700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>10000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5500</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3094,56 +3202,59 @@
       <c r="W48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14600</v>
+        <v>14200</v>
       </c>
       <c r="E49" s="3">
-        <v>7900</v>
+        <v>14900</v>
       </c>
       <c r="F49" s="3">
-        <v>9700</v>
+        <v>8000</v>
       </c>
       <c r="G49" s="3">
-        <v>11200</v>
+        <v>9800</v>
       </c>
       <c r="H49" s="3">
-        <v>10200</v>
+        <v>11400</v>
       </c>
       <c r="I49" s="3">
-        <v>6800</v>
+        <v>10300</v>
       </c>
       <c r="J49" s="3">
         <v>6900</v>
       </c>
       <c r="K49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L49" s="3">
         <v>7400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>6900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>800</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,56 +3406,59 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>69500</v>
+        <v>27700</v>
       </c>
       <c r="E52" s="3">
-        <v>68500</v>
+        <v>70600</v>
       </c>
       <c r="F52" s="3">
-        <v>65900</v>
+        <v>69700</v>
       </c>
       <c r="G52" s="3">
-        <v>22600</v>
+        <v>67000</v>
       </c>
       <c r="H52" s="3">
-        <v>30200</v>
+        <v>23000</v>
       </c>
       <c r="I52" s="3">
-        <v>27100</v>
+        <v>30700</v>
       </c>
       <c r="J52" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K52" s="3">
         <v>23200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>23300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>20600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>22000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>10500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5400</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,56 +3542,59 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2002800</v>
+        <v>2141800</v>
       </c>
       <c r="E54" s="3">
-        <v>1957800</v>
+        <v>2036300</v>
       </c>
       <c r="F54" s="3">
-        <v>1911000</v>
+        <v>1990600</v>
       </c>
       <c r="G54" s="3">
-        <v>1892300</v>
+        <v>1943000</v>
       </c>
       <c r="H54" s="3">
-        <v>1875100</v>
+        <v>1924000</v>
       </c>
       <c r="I54" s="3">
-        <v>1791600</v>
+        <v>1906500</v>
       </c>
       <c r="J54" s="3">
+        <v>1821600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1750200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1705400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1573700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1143100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1032000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>932300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>883600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>627900</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,55 +3664,56 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8600</v>
+        <v>3000</v>
       </c>
       <c r="E57" s="3">
-        <v>1100</v>
+        <v>8800</v>
       </c>
       <c r="F57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
+        <v>600</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
-        <v>5300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>16</v>
+      <c r="R57" s="3">
+        <v>0</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>16</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3664,56 +3798,59 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>380700</v>
+        <v>407700</v>
       </c>
       <c r="E59" s="3">
-        <v>364400</v>
+        <v>387100</v>
       </c>
       <c r="F59" s="3">
-        <v>365700</v>
+        <v>370500</v>
       </c>
       <c r="G59" s="3">
-        <v>355800</v>
+        <v>371800</v>
       </c>
       <c r="H59" s="3">
-        <v>378400</v>
+        <v>361700</v>
       </c>
       <c r="I59" s="3">
-        <v>359300</v>
+        <v>384700</v>
       </c>
       <c r="J59" s="3">
+        <v>365300</v>
+      </c>
+      <c r="K59" s="3">
         <v>376200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>337600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>298300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>242600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>199100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>151400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>128700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>244600</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3729,56 +3866,59 @@
       <c r="W59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>389400</v>
+        <v>410700</v>
       </c>
       <c r="E60" s="3">
-        <v>365600</v>
+        <v>395900</v>
       </c>
       <c r="F60" s="3">
-        <v>367200</v>
+        <v>371700</v>
       </c>
       <c r="G60" s="3">
-        <v>358800</v>
+        <v>373400</v>
       </c>
       <c r="H60" s="3">
-        <v>383700</v>
+        <v>364800</v>
       </c>
       <c r="I60" s="3">
-        <v>359700</v>
+        <v>390200</v>
       </c>
       <c r="J60" s="3">
+        <v>365700</v>
+      </c>
+      <c r="K60" s="3">
         <v>376700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>339300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>301100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>245600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>200500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>154000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>129600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>244600</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,56 +4002,59 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>37300</v>
+        <v>31500</v>
       </c>
       <c r="E62" s="3">
+        <v>37900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>38900</v>
+      </c>
+      <c r="G62" s="3">
+        <v>39000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>37200</v>
+      </c>
+      <c r="I62" s="3">
+        <v>40100</v>
+      </c>
+      <c r="J62" s="3">
         <v>38200</v>
       </c>
-      <c r="F62" s="3">
-        <v>38400</v>
-      </c>
-      <c r="G62" s="3">
-        <v>36600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>39500</v>
-      </c>
-      <c r="I62" s="3">
-        <v>37600</v>
-      </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>36200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>33300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>27800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>16</v>
       </c>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,56 +4274,59 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>426700</v>
+        <v>442200</v>
       </c>
       <c r="E66" s="3">
-        <v>403800</v>
+        <v>433800</v>
       </c>
       <c r="F66" s="3">
-        <v>405600</v>
+        <v>410600</v>
       </c>
       <c r="G66" s="3">
-        <v>395400</v>
+        <v>412400</v>
       </c>
       <c r="H66" s="3">
-        <v>423200</v>
+        <v>402000</v>
       </c>
       <c r="I66" s="3">
-        <v>397300</v>
+        <v>430300</v>
       </c>
       <c r="J66" s="3">
+        <v>403900</v>
+      </c>
+      <c r="K66" s="3">
         <v>412900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>374500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>334300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>273300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>212200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>163700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>140300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>251600</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4384,11 +4552,11 @@
         <v>0</v>
       </c>
       <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
         <v>434700</v>
       </c>
-      <c r="R70" s="3">
-        <v>0</v>
-      </c>
       <c r="S70" s="3">
         <v>0</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,56 +4640,59 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-213900</v>
+        <v>-135400</v>
       </c>
       <c r="E72" s="3">
-        <v>-242600</v>
+        <v>-217500</v>
       </c>
       <c r="F72" s="3">
-        <v>-271200</v>
+        <v>-246700</v>
       </c>
       <c r="G72" s="3">
-        <v>-310200</v>
+        <v>-275700</v>
       </c>
       <c r="H72" s="3">
-        <v>-235000</v>
+        <v>-315400</v>
       </c>
       <c r="I72" s="3">
-        <v>-270000</v>
+        <v>-239000</v>
       </c>
       <c r="J72" s="3">
+        <v>-274500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-295900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-324700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-336800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-355400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-347000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-348400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-365300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-59100</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,56 +4912,59 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1576100</v>
+        <v>1699700</v>
       </c>
       <c r="E76" s="3">
-        <v>1554000</v>
+        <v>1602500</v>
       </c>
       <c r="F76" s="3">
-        <v>1505400</v>
+        <v>1580000</v>
       </c>
       <c r="G76" s="3">
-        <v>1496800</v>
+        <v>1530700</v>
       </c>
       <c r="H76" s="3">
-        <v>1451900</v>
+        <v>1521900</v>
       </c>
       <c r="I76" s="3">
-        <v>1394400</v>
+        <v>1476200</v>
       </c>
       <c r="J76" s="3">
+        <v>1417700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1337300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1330900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1239400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>869700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>819800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>768600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>743300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-58300</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>28700</v>
+        <v>82100</v>
       </c>
       <c r="E81" s="3">
-        <v>28600</v>
+        <v>29200</v>
       </c>
       <c r="F81" s="3">
-        <v>39000</v>
+        <v>29000</v>
       </c>
       <c r="G81" s="3">
-        <v>39000</v>
+        <v>39600</v>
       </c>
       <c r="H81" s="3">
-        <v>31800</v>
+        <v>39600</v>
       </c>
       <c r="I81" s="3">
-        <v>26400</v>
+        <v>32400</v>
       </c>
       <c r="J81" s="3">
+        <v>26800</v>
+      </c>
+      <c r="K81" s="3">
         <v>24600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>19200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>18600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>14500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-310800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-71200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-6100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-20000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,8 +5623,11 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6287,11 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>465800</v>
+        <v>469400</v>
       </c>
       <c r="E8" s="3">
-        <v>463800</v>
+        <v>467300</v>
       </c>
       <c r="F8" s="3">
-        <v>407800</v>
+        <v>410900</v>
       </c>
       <c r="G8" s="3">
-        <v>468200</v>
+        <v>471700</v>
       </c>
       <c r="H8" s="3">
-        <v>440700</v>
+        <v>444100</v>
       </c>
       <c r="I8" s="3">
-        <v>422300</v>
+        <v>425500</v>
       </c>
       <c r="J8" s="3">
-        <v>377600</v>
+        <v>380500</v>
       </c>
       <c r="K8" s="3">
         <v>379900</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>386900</v>
+        <v>389900</v>
       </c>
       <c r="E9" s="3">
-        <v>372800</v>
+        <v>375600</v>
       </c>
       <c r="F9" s="3">
-        <v>327400</v>
+        <v>329900</v>
       </c>
       <c r="G9" s="3">
-        <v>374600</v>
+        <v>377500</v>
       </c>
       <c r="H9" s="3">
-        <v>343500</v>
+        <v>346200</v>
       </c>
       <c r="I9" s="3">
-        <v>332300</v>
+        <v>334800</v>
       </c>
       <c r="J9" s="3">
-        <v>303300</v>
+        <v>305600</v>
       </c>
       <c r="K9" s="3">
         <v>308100</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>78900</v>
+        <v>79500</v>
       </c>
       <c r="E10" s="3">
-        <v>91000</v>
+        <v>91700</v>
       </c>
       <c r="F10" s="3">
-        <v>80500</v>
+        <v>81100</v>
       </c>
       <c r="G10" s="3">
-        <v>93600</v>
+        <v>94300</v>
       </c>
       <c r="H10" s="3">
-        <v>97200</v>
+        <v>97900</v>
       </c>
       <c r="I10" s="3">
-        <v>90000</v>
+        <v>90700</v>
       </c>
       <c r="J10" s="3">
-        <v>74300</v>
+        <v>74900</v>
       </c>
       <c r="K10" s="3">
         <v>71800</v>
@@ -997,25 +997,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>32300</v>
+        <v>32500</v>
       </c>
       <c r="E12" s="3">
-        <v>32500</v>
+        <v>32800</v>
       </c>
       <c r="F12" s="3">
-        <v>31200</v>
+        <v>31400</v>
       </c>
       <c r="G12" s="3">
-        <v>33800</v>
+        <v>34000</v>
       </c>
       <c r="H12" s="3">
-        <v>28600</v>
+        <v>28800</v>
       </c>
       <c r="I12" s="3">
-        <v>28200</v>
+        <v>28400</v>
       </c>
       <c r="J12" s="3">
-        <v>24400</v>
+        <v>24600</v>
       </c>
       <c r="K12" s="3">
         <v>27500</v>
@@ -1292,25 +1292,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>452800</v>
+        <v>456300</v>
       </c>
       <c r="E17" s="3">
-        <v>435300</v>
+        <v>438600</v>
       </c>
       <c r="F17" s="3">
-        <v>382400</v>
+        <v>385400</v>
       </c>
       <c r="G17" s="3">
-        <v>438800</v>
+        <v>442200</v>
       </c>
       <c r="H17" s="3">
-        <v>405800</v>
+        <v>408900</v>
       </c>
       <c r="I17" s="3">
-        <v>393900</v>
+        <v>396900</v>
       </c>
       <c r="J17" s="3">
-        <v>356700</v>
+        <v>359500</v>
       </c>
       <c r="K17" s="3">
         <v>364300</v>
@@ -1360,25 +1360,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>13000</v>
+        <v>13100</v>
       </c>
       <c r="E18" s="3">
-        <v>28500</v>
+        <v>28700</v>
       </c>
       <c r="F18" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="G18" s="3">
-        <v>29300</v>
+        <v>29600</v>
       </c>
       <c r="H18" s="3">
-        <v>34900</v>
+        <v>35200</v>
       </c>
       <c r="I18" s="3">
-        <v>28400</v>
+        <v>28600</v>
       </c>
       <c r="J18" s="3">
-        <v>20900</v>
+        <v>21000</v>
       </c>
       <c r="K18" s="3">
         <v>15700</v>
@@ -1454,25 +1454,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>16100</v>
+        <v>16300</v>
       </c>
       <c r="E20" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="F20" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="G20" s="3">
         <v>11600</v>
       </c>
       <c r="H20" s="3">
-        <v>12600</v>
+        <v>12700</v>
       </c>
       <c r="I20" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="J20" s="3">
-        <v>12000</v>
+        <v>12100</v>
       </c>
       <c r="K20" s="3">
         <v>13600</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29200</v>
+        <v>29400</v>
       </c>
       <c r="E23" s="3">
-        <v>38200</v>
+        <v>38500</v>
       </c>
       <c r="F23" s="3">
-        <v>35200</v>
+        <v>35500</v>
       </c>
       <c r="G23" s="3">
-        <v>40900</v>
+        <v>41200</v>
       </c>
       <c r="H23" s="3">
-        <v>47500</v>
+        <v>47900</v>
       </c>
       <c r="I23" s="3">
-        <v>40400</v>
+        <v>40700</v>
       </c>
       <c r="J23" s="3">
-        <v>32800</v>
+        <v>33100</v>
       </c>
       <c r="K23" s="3">
         <v>29300</v>
@@ -1729,19 +1729,19 @@
         <v>6400</v>
       </c>
       <c r="E24" s="3">
-        <v>9100</v>
+        <v>9200</v>
       </c>
       <c r="F24" s="3">
         <v>6200</v>
       </c>
       <c r="G24" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="H24" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="I24" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="J24" s="3">
         <v>5900</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>22800</v>
+        <v>23000</v>
       </c>
       <c r="E26" s="3">
-        <v>29100</v>
+        <v>29300</v>
       </c>
       <c r="F26" s="3">
-        <v>29100</v>
+        <v>29300</v>
       </c>
       <c r="G26" s="3">
-        <v>35000</v>
+        <v>35300</v>
       </c>
       <c r="H26" s="3">
-        <v>39600</v>
+        <v>39900</v>
       </c>
       <c r="I26" s="3">
-        <v>32400</v>
+        <v>32600</v>
       </c>
       <c r="J26" s="3">
-        <v>27000</v>
+        <v>27200</v>
       </c>
       <c r="K26" s="3">
         <v>25000</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>82100</v>
+        <v>82700</v>
       </c>
       <c r="E27" s="3">
-        <v>29200</v>
+        <v>29400</v>
       </c>
       <c r="F27" s="3">
-        <v>29000</v>
+        <v>29300</v>
       </c>
       <c r="G27" s="3">
-        <v>39600</v>
+        <v>39900</v>
       </c>
       <c r="H27" s="3">
-        <v>39600</v>
+        <v>39900</v>
       </c>
       <c r="I27" s="3">
-        <v>32400</v>
+        <v>32600</v>
       </c>
       <c r="J27" s="3">
-        <v>26800</v>
+        <v>27000</v>
       </c>
       <c r="K27" s="3">
         <v>24600</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16100</v>
+        <v>-16300</v>
       </c>
       <c r="E32" s="3">
-        <v>-9700</v>
+        <v>-9800</v>
       </c>
       <c r="F32" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="G32" s="3">
         <v>-11600</v>
       </c>
       <c r="H32" s="3">
-        <v>-12600</v>
+        <v>-12700</v>
       </c>
       <c r="I32" s="3">
-        <v>-12000</v>
+        <v>-12100</v>
       </c>
       <c r="J32" s="3">
-        <v>-12000</v>
+        <v>-12100</v>
       </c>
       <c r="K32" s="3">
         <v>-13600</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>82100</v>
+        <v>82700</v>
       </c>
       <c r="E33" s="3">
-        <v>29200</v>
+        <v>29400</v>
       </c>
       <c r="F33" s="3">
-        <v>29000</v>
+        <v>29300</v>
       </c>
       <c r="G33" s="3">
-        <v>39600</v>
+        <v>39900</v>
       </c>
       <c r="H33" s="3">
-        <v>39600</v>
+        <v>39900</v>
       </c>
       <c r="I33" s="3">
-        <v>32400</v>
+        <v>32600</v>
       </c>
       <c r="J33" s="3">
-        <v>26800</v>
+        <v>27000</v>
       </c>
       <c r="K33" s="3">
         <v>24600</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>82100</v>
+        <v>82700</v>
       </c>
       <c r="E35" s="3">
-        <v>29200</v>
+        <v>29400</v>
       </c>
       <c r="F35" s="3">
-        <v>29000</v>
+        <v>29300</v>
       </c>
       <c r="G35" s="3">
-        <v>39600</v>
+        <v>39900</v>
       </c>
       <c r="H35" s="3">
-        <v>39600</v>
+        <v>39900</v>
       </c>
       <c r="I35" s="3">
-        <v>32400</v>
+        <v>32600</v>
       </c>
       <c r="J35" s="3">
-        <v>26800</v>
+        <v>27000</v>
       </c>
       <c r="K35" s="3">
         <v>24600</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1582800</v>
+        <v>1594900</v>
       </c>
       <c r="E41" s="3">
-        <v>1508200</v>
+        <v>1519800</v>
       </c>
       <c r="F41" s="3">
-        <v>1493700</v>
+        <v>1505100</v>
       </c>
       <c r="G41" s="3">
-        <v>1451100</v>
+        <v>1462200</v>
       </c>
       <c r="H41" s="3">
-        <v>1425200</v>
+        <v>1436100</v>
       </c>
       <c r="I41" s="3">
-        <v>1306800</v>
+        <v>1316800</v>
       </c>
       <c r="J41" s="3">
-        <v>1233500</v>
+        <v>1243000</v>
       </c>
       <c r="K41" s="3">
         <v>1209800</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>158100</v>
+        <v>159300</v>
       </c>
       <c r="E42" s="3">
-        <v>173000</v>
+        <v>174300</v>
       </c>
       <c r="F42" s="3">
-        <v>173900</v>
+        <v>175200</v>
       </c>
       <c r="G42" s="3">
-        <v>188900</v>
+        <v>190300</v>
       </c>
       <c r="H42" s="3">
-        <v>265400</v>
+        <v>267400</v>
       </c>
       <c r="I42" s="3">
-        <v>375400</v>
+        <v>378300</v>
       </c>
       <c r="J42" s="3">
-        <v>381700</v>
+        <v>384600</v>
       </c>
       <c r="K42" s="3">
         <v>341800</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>44800</v>
+        <v>45100</v>
       </c>
       <c r="E43" s="3">
-        <v>44700</v>
+        <v>45100</v>
       </c>
       <c r="F43" s="3">
-        <v>36800</v>
+        <v>37100</v>
       </c>
       <c r="G43" s="3">
-        <v>21300</v>
+        <v>21500</v>
       </c>
       <c r="H43" s="3">
-        <v>20200</v>
+        <v>20400</v>
       </c>
       <c r="I43" s="3">
-        <v>18100</v>
+        <v>18300</v>
       </c>
       <c r="J43" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="K43" s="3">
         <v>17500</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>146800</v>
+        <v>147900</v>
       </c>
       <c r="E45" s="3">
-        <v>117400</v>
+        <v>118300</v>
       </c>
       <c r="F45" s="3">
-        <v>103400</v>
+        <v>104200</v>
       </c>
       <c r="G45" s="3">
-        <v>103300</v>
+        <v>104100</v>
       </c>
       <c r="H45" s="3">
-        <v>76300</v>
+        <v>76900</v>
       </c>
       <c r="I45" s="3">
-        <v>64900</v>
+        <v>65400</v>
       </c>
       <c r="J45" s="3">
-        <v>62700</v>
+        <v>63100</v>
       </c>
       <c r="K45" s="3">
         <v>61900</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1932500</v>
+        <v>1947300</v>
       </c>
       <c r="E46" s="3">
-        <v>1843300</v>
+        <v>1857400</v>
       </c>
       <c r="F46" s="3">
-        <v>1807700</v>
+        <v>1821600</v>
       </c>
       <c r="G46" s="3">
-        <v>1764600</v>
+        <v>1778100</v>
       </c>
       <c r="H46" s="3">
-        <v>1787100</v>
+        <v>1800800</v>
       </c>
       <c r="I46" s="3">
-        <v>1765300</v>
+        <v>1778900</v>
       </c>
       <c r="J46" s="3">
-        <v>1695300</v>
+        <v>1708300</v>
       </c>
       <c r="K46" s="3">
         <v>1630900</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>91200</v>
+        <v>91800</v>
       </c>
       <c r="E47" s="3">
-        <v>79100</v>
+        <v>79700</v>
       </c>
       <c r="F47" s="3">
-        <v>79800</v>
+        <v>80400</v>
       </c>
       <c r="G47" s="3">
-        <v>73100</v>
+        <v>73700</v>
       </c>
       <c r="H47" s="3">
-        <v>70600</v>
+        <v>71100</v>
       </c>
       <c r="I47" s="3">
-        <v>67400</v>
+        <v>67900</v>
       </c>
       <c r="J47" s="3">
-        <v>63100</v>
+        <v>63500</v>
       </c>
       <c r="K47" s="3">
         <v>58400</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>76300</v>
+        <v>76900</v>
       </c>
       <c r="E48" s="3">
-        <v>28500</v>
+        <v>28700</v>
       </c>
       <c r="F48" s="3">
-        <v>25400</v>
+        <v>25600</v>
       </c>
       <c r="G48" s="3">
-        <v>28500</v>
+        <v>28700</v>
       </c>
       <c r="H48" s="3">
-        <v>31900</v>
+        <v>32100</v>
       </c>
       <c r="I48" s="3">
-        <v>32800</v>
+        <v>33000</v>
       </c>
       <c r="J48" s="3">
-        <v>28800</v>
+        <v>29100</v>
       </c>
       <c r="K48" s="3">
         <v>30700</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14200</v>
+        <v>14300</v>
       </c>
       <c r="E49" s="3">
-        <v>14900</v>
+        <v>15000</v>
       </c>
       <c r="F49" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="G49" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="H49" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="I49" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="J49" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="K49" s="3">
         <v>6900</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>71200</v>
+      </c>
+      <c r="F52" s="3">
+        <v>70200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>67500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>23200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>30900</v>
+      </c>
+      <c r="J52" s="3">
         <v>27700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>70600</v>
-      </c>
-      <c r="F52" s="3">
-        <v>69700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>67000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>23000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>30700</v>
-      </c>
-      <c r="J52" s="3">
-        <v>27500</v>
       </c>
       <c r="K52" s="3">
         <v>23200</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2141800</v>
+        <v>2158200</v>
       </c>
       <c r="E54" s="3">
-        <v>2036300</v>
+        <v>2051900</v>
       </c>
       <c r="F54" s="3">
-        <v>1990600</v>
+        <v>2005800</v>
       </c>
       <c r="G54" s="3">
-        <v>1943000</v>
+        <v>1957900</v>
       </c>
       <c r="H54" s="3">
-        <v>1924000</v>
+        <v>1938700</v>
       </c>
       <c r="I54" s="3">
-        <v>1906500</v>
+        <v>1921100</v>
       </c>
       <c r="J54" s="3">
-        <v>1821600</v>
+        <v>1835600</v>
       </c>
       <c r="K54" s="3">
         <v>1750200</v>
@@ -3674,7 +3674,7 @@
         <v>3000</v>
       </c>
       <c r="E57" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="F57" s="3">
         <v>1200</v>
@@ -3686,7 +3686,7 @@
         <v>3100</v>
       </c>
       <c r="I57" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>407700</v>
+        <v>410900</v>
       </c>
       <c r="E59" s="3">
-        <v>387100</v>
+        <v>390100</v>
       </c>
       <c r="F59" s="3">
-        <v>370500</v>
+        <v>373400</v>
       </c>
       <c r="G59" s="3">
-        <v>371800</v>
+        <v>374600</v>
       </c>
       <c r="H59" s="3">
-        <v>361700</v>
+        <v>364500</v>
       </c>
       <c r="I59" s="3">
-        <v>384700</v>
+        <v>387700</v>
       </c>
       <c r="J59" s="3">
-        <v>365300</v>
+        <v>368100</v>
       </c>
       <c r="K59" s="3">
         <v>376200</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>410700</v>
+        <v>413800</v>
       </c>
       <c r="E60" s="3">
-        <v>395900</v>
+        <v>398900</v>
       </c>
       <c r="F60" s="3">
-        <v>371700</v>
+        <v>374500</v>
       </c>
       <c r="G60" s="3">
-        <v>373400</v>
+        <v>376200</v>
       </c>
       <c r="H60" s="3">
-        <v>364800</v>
+        <v>367600</v>
       </c>
       <c r="I60" s="3">
-        <v>390200</v>
+        <v>393200</v>
       </c>
       <c r="J60" s="3">
-        <v>365700</v>
+        <v>368500</v>
       </c>
       <c r="K60" s="3">
         <v>376700</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>31500</v>
+        <v>31700</v>
       </c>
       <c r="E62" s="3">
-        <v>37900</v>
+        <v>38200</v>
       </c>
       <c r="F62" s="3">
-        <v>38900</v>
+        <v>39200</v>
       </c>
       <c r="G62" s="3">
-        <v>39000</v>
+        <v>39300</v>
       </c>
       <c r="H62" s="3">
-        <v>37200</v>
+        <v>37500</v>
       </c>
       <c r="I62" s="3">
-        <v>40100</v>
+        <v>40400</v>
       </c>
       <c r="J62" s="3">
-        <v>38200</v>
+        <v>38500</v>
       </c>
       <c r="K62" s="3">
         <v>36200</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>442200</v>
+        <v>445600</v>
       </c>
       <c r="E66" s="3">
-        <v>433800</v>
+        <v>437200</v>
       </c>
       <c r="F66" s="3">
-        <v>410600</v>
+        <v>413700</v>
       </c>
       <c r="G66" s="3">
-        <v>412400</v>
+        <v>415500</v>
       </c>
       <c r="H66" s="3">
-        <v>402000</v>
+        <v>405100</v>
       </c>
       <c r="I66" s="3">
-        <v>430300</v>
+        <v>433600</v>
       </c>
       <c r="J66" s="3">
-        <v>403900</v>
+        <v>407000</v>
       </c>
       <c r="K66" s="3">
         <v>412900</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-135400</v>
+        <v>-136500</v>
       </c>
       <c r="E72" s="3">
-        <v>-217500</v>
+        <v>-219200</v>
       </c>
       <c r="F72" s="3">
-        <v>-246700</v>
+        <v>-248600</v>
       </c>
       <c r="G72" s="3">
-        <v>-275700</v>
+        <v>-277800</v>
       </c>
       <c r="H72" s="3">
-        <v>-315400</v>
+        <v>-317800</v>
       </c>
       <c r="I72" s="3">
-        <v>-239000</v>
+        <v>-240800</v>
       </c>
       <c r="J72" s="3">
-        <v>-274500</v>
+        <v>-276600</v>
       </c>
       <c r="K72" s="3">
         <v>-295900</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1699700</v>
+        <v>1712700</v>
       </c>
       <c r="E76" s="3">
-        <v>1602500</v>
+        <v>1614800</v>
       </c>
       <c r="F76" s="3">
-        <v>1580000</v>
+        <v>1592100</v>
       </c>
       <c r="G76" s="3">
-        <v>1530700</v>
+        <v>1542400</v>
       </c>
       <c r="H76" s="3">
-        <v>1521900</v>
+        <v>1533600</v>
       </c>
       <c r="I76" s="3">
-        <v>1476200</v>
+        <v>1487500</v>
       </c>
       <c r="J76" s="3">
-        <v>1417700</v>
+        <v>1428600</v>
       </c>
       <c r="K76" s="3">
         <v>1337300</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>82100</v>
+        <v>82700</v>
       </c>
       <c r="E81" s="3">
-        <v>29200</v>
+        <v>29400</v>
       </c>
       <c r="F81" s="3">
-        <v>29000</v>
+        <v>29300</v>
       </c>
       <c r="G81" s="3">
-        <v>39600</v>
+        <v>39900</v>
       </c>
       <c r="H81" s="3">
-        <v>39600</v>
+        <v>39900</v>
       </c>
       <c r="I81" s="3">
-        <v>32400</v>
+        <v>32600</v>
       </c>
       <c r="J81" s="3">
-        <v>26800</v>
+        <v>27000</v>
       </c>
       <c r="K81" s="3">
         <v>24600</v>

--- a/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>HUYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,320 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>469400</v>
+        <v>413900</v>
       </c>
       <c r="E8" s="3">
-        <v>467300</v>
+        <v>438500</v>
       </c>
       <c r="F8" s="3">
-        <v>410900</v>
+        <v>436500</v>
       </c>
       <c r="G8" s="3">
-        <v>471700</v>
+        <v>383800</v>
       </c>
       <c r="H8" s="3">
-        <v>444100</v>
+        <v>440700</v>
       </c>
       <c r="I8" s="3">
-        <v>425500</v>
+        <v>414800</v>
       </c>
       <c r="J8" s="3">
+        <v>397500</v>
+      </c>
+      <c r="K8" s="3">
         <v>380500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>379900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>353400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>307200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>249300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>218600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>178700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>149000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>121000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>110000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>86600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>68500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>58000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>49300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>389900</v>
+        <v>413700</v>
       </c>
       <c r="E9" s="3">
-        <v>375600</v>
+        <v>364200</v>
       </c>
       <c r="F9" s="3">
-        <v>329900</v>
+        <v>350900</v>
       </c>
       <c r="G9" s="3">
-        <v>377500</v>
+        <v>308100</v>
       </c>
       <c r="H9" s="3">
-        <v>346200</v>
+        <v>352600</v>
       </c>
       <c r="I9" s="3">
-        <v>334800</v>
+        <v>323300</v>
       </c>
       <c r="J9" s="3">
+        <v>312700</v>
+      </c>
+      <c r="K9" s="3">
         <v>305600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>308100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>290000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>255900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>207500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>183900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>151600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>125100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>102200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>93900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>75700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>59900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>55700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>56300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>79500</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>91700</v>
+        <v>74300</v>
       </c>
       <c r="F10" s="3">
-        <v>81100</v>
+        <v>85700</v>
       </c>
       <c r="G10" s="3">
-        <v>94300</v>
+        <v>75700</v>
       </c>
       <c r="H10" s="3">
-        <v>97900</v>
+        <v>88100</v>
       </c>
       <c r="I10" s="3">
-        <v>90700</v>
+        <v>91400</v>
       </c>
       <c r="J10" s="3">
+        <v>84700</v>
+      </c>
+      <c r="K10" s="3">
         <v>74900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>71800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>63400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>51300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>41800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>34700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>27100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>23900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>18800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>16000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>10900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>8500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>-7000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1003,80 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>32500</v>
+        <v>30300</v>
       </c>
       <c r="E12" s="3">
-        <v>32800</v>
+        <v>30400</v>
       </c>
       <c r="F12" s="3">
-        <v>31400</v>
+        <v>30600</v>
       </c>
       <c r="G12" s="3">
-        <v>34000</v>
+        <v>29300</v>
       </c>
       <c r="H12" s="3">
-        <v>28800</v>
+        <v>31800</v>
       </c>
       <c r="I12" s="3">
-        <v>28400</v>
+        <v>26900</v>
       </c>
       <c r="J12" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K12" s="3">
         <v>24600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>21100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>16100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>13800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>11500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>10400</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>8600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>7400</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>6500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>7300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>5200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>456300</v>
+        <v>481300</v>
       </c>
       <c r="E17" s="3">
-        <v>438600</v>
+        <v>426200</v>
       </c>
       <c r="F17" s="3">
-        <v>385400</v>
+        <v>409700</v>
       </c>
       <c r="G17" s="3">
-        <v>442200</v>
+        <v>360000</v>
       </c>
       <c r="H17" s="3">
-        <v>408900</v>
+        <v>413000</v>
       </c>
       <c r="I17" s="3">
-        <v>396900</v>
+        <v>381900</v>
       </c>
       <c r="J17" s="3">
+        <v>370700</v>
+      </c>
+      <c r="K17" s="3">
         <v>359500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>364300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>343400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>296800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>244900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>215900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>179100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>151500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>117000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>110200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>91700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>71000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>64100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>69400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>13100</v>
+        <v>-67400</v>
       </c>
       <c r="E18" s="3">
-        <v>28700</v>
+        <v>12200</v>
       </c>
       <c r="F18" s="3">
-        <v>25600</v>
+        <v>26800</v>
       </c>
       <c r="G18" s="3">
-        <v>29600</v>
+        <v>23900</v>
       </c>
       <c r="H18" s="3">
-        <v>35200</v>
+        <v>27600</v>
       </c>
       <c r="I18" s="3">
-        <v>28600</v>
+        <v>32800</v>
       </c>
       <c r="J18" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K18" s="3">
         <v>21000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>15700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>10000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>10300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>4300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>4000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-5100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-6100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-20100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,76 +1480,80 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>16300</v>
+        <v>9100</v>
       </c>
       <c r="E20" s="3">
-        <v>9800</v>
+        <v>15200</v>
       </c>
       <c r="F20" s="3">
-        <v>9900</v>
+        <v>9100</v>
       </c>
       <c r="G20" s="3">
-        <v>11600</v>
+        <v>9300</v>
       </c>
       <c r="H20" s="3">
-        <v>12700</v>
+        <v>10900</v>
       </c>
       <c r="I20" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K20" s="3">
         <v>12100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>12100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>13600</v>
       </c>
       <c r="L20" s="3">
         <v>13600</v>
       </c>
       <c r="M20" s="3">
+        <v>13600</v>
+      </c>
+      <c r="N20" s="3">
         <v>11600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>8300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>7700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>7100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-320100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>300</v>
-      </c>
-      <c r="V20" s="3">
-        <v>100</v>
       </c>
       <c r="W20" s="3">
         <v>100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1584,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,127 +1691,133 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>29400</v>
+        <v>-58300</v>
       </c>
       <c r="E23" s="3">
+        <v>27400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>35900</v>
+      </c>
+      <c r="G23" s="3">
+        <v>33200</v>
+      </c>
+      <c r="H23" s="3">
         <v>38500</v>
       </c>
-      <c r="F23" s="3">
-        <v>35500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>41200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>47900</v>
-      </c>
       <c r="I23" s="3">
-        <v>40700</v>
+        <v>44700</v>
       </c>
       <c r="J23" s="3">
+        <v>38000</v>
+      </c>
+      <c r="K23" s="3">
         <v>33100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>29300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>23600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>21900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>12600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>10300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-322600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>3900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-6100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-20000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>6400</v>
+        <v>-12200</v>
       </c>
       <c r="E24" s="3">
-        <v>9200</v>
+        <v>6000</v>
       </c>
       <c r="F24" s="3">
-        <v>6200</v>
+        <v>8600</v>
       </c>
       <c r="G24" s="3">
+        <v>5800</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J24" s="3">
+        <v>7600</v>
+      </c>
+      <c r="K24" s="3">
         <v>5900</v>
       </c>
-      <c r="H24" s="3">
-        <v>8000</v>
-      </c>
-      <c r="I24" s="3">
-        <v>8100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>5900</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-4600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-600</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>23000</v>
+        <v>-46100</v>
       </c>
       <c r="E26" s="3">
-        <v>29300</v>
+        <v>21500</v>
       </c>
       <c r="F26" s="3">
-        <v>29300</v>
+        <v>27400</v>
       </c>
       <c r="G26" s="3">
-        <v>35300</v>
+        <v>27300</v>
       </c>
       <c r="H26" s="3">
-        <v>39900</v>
+        <v>33000</v>
       </c>
       <c r="I26" s="3">
-        <v>32600</v>
+        <v>37300</v>
       </c>
       <c r="J26" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K26" s="3">
         <v>27200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>25000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>19200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>18600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>9700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-321700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-6100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-20000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>82700</v>
+        <v>-46100</v>
       </c>
       <c r="E27" s="3">
-        <v>29400</v>
+        <v>77300</v>
       </c>
       <c r="F27" s="3">
-        <v>29300</v>
+        <v>27400</v>
       </c>
       <c r="G27" s="3">
-        <v>39900</v>
+        <v>27300</v>
       </c>
       <c r="H27" s="3">
-        <v>39900</v>
+        <v>37300</v>
       </c>
       <c r="I27" s="3">
-        <v>32600</v>
+        <v>37300</v>
       </c>
       <c r="J27" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K27" s="3">
         <v>27000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>19200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>18600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>9700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>14500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-310800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-71200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-5800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-6100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-20000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16300</v>
+        <v>-9100</v>
       </c>
       <c r="E32" s="3">
-        <v>-9800</v>
+        <v>-15200</v>
       </c>
       <c r="F32" s="3">
-        <v>-9900</v>
+        <v>-9100</v>
       </c>
       <c r="G32" s="3">
-        <v>-11600</v>
+        <v>-9300</v>
       </c>
       <c r="H32" s="3">
-        <v>-12700</v>
+        <v>-10900</v>
       </c>
       <c r="I32" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-12100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-12100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-13600</v>
       </c>
       <c r="L32" s="3">
         <v>-13600</v>
       </c>
       <c r="M32" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="N32" s="3">
         <v>-11600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-8300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-7700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>320100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-300</v>
-      </c>
-      <c r="V32" s="3">
-        <v>-100</v>
       </c>
       <c r="W32" s="3">
         <v>-100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>82700</v>
+        <v>-46100</v>
       </c>
       <c r="E33" s="3">
-        <v>29400</v>
+        <v>77300</v>
       </c>
       <c r="F33" s="3">
-        <v>29300</v>
+        <v>27400</v>
       </c>
       <c r="G33" s="3">
-        <v>39900</v>
+        <v>27300</v>
       </c>
       <c r="H33" s="3">
-        <v>39900</v>
+        <v>37300</v>
       </c>
       <c r="I33" s="3">
-        <v>32600</v>
+        <v>37300</v>
       </c>
       <c r="J33" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K33" s="3">
         <v>27000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>19200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>18600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>9700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>14500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-310800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-71200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-5800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-6100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-20000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>82700</v>
+        <v>-46100</v>
       </c>
       <c r="E35" s="3">
-        <v>29400</v>
+        <v>77300</v>
       </c>
       <c r="F35" s="3">
-        <v>29300</v>
+        <v>27400</v>
       </c>
       <c r="G35" s="3">
-        <v>39900</v>
+        <v>27300</v>
       </c>
       <c r="H35" s="3">
-        <v>39900</v>
+        <v>37300</v>
       </c>
       <c r="I35" s="3">
-        <v>32600</v>
+        <v>37300</v>
       </c>
       <c r="J35" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K35" s="3">
         <v>27000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>19200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>18600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>9700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>14500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-310800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-71200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-5800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-6100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-20000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,59 +2746,60 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1594900</v>
+        <v>1494600</v>
       </c>
       <c r="E41" s="3">
-        <v>1519800</v>
+        <v>1489800</v>
       </c>
       <c r="F41" s="3">
-        <v>1505100</v>
+        <v>1419600</v>
       </c>
       <c r="G41" s="3">
-        <v>1462200</v>
+        <v>1405900</v>
       </c>
       <c r="H41" s="3">
-        <v>1436100</v>
+        <v>1365800</v>
       </c>
       <c r="I41" s="3">
-        <v>1316800</v>
+        <v>1341400</v>
       </c>
       <c r="J41" s="3">
+        <v>1230000</v>
+      </c>
+      <c r="K41" s="3">
         <v>1243000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1209800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1322900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1254600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>869400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>826800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>805000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>770000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>584200</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2729,56 +2815,59 @@
       <c r="X41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>159300</v>
+        <v>120300</v>
       </c>
       <c r="E42" s="3">
-        <v>174300</v>
+        <v>148800</v>
       </c>
       <c r="F42" s="3">
-        <v>175200</v>
+        <v>162800</v>
       </c>
       <c r="G42" s="3">
-        <v>190300</v>
+        <v>163700</v>
       </c>
       <c r="H42" s="3">
-        <v>267400</v>
+        <v>177800</v>
       </c>
       <c r="I42" s="3">
-        <v>378300</v>
+        <v>249800</v>
       </c>
       <c r="J42" s="3">
+        <v>353400</v>
+      </c>
+      <c r="K42" s="3">
         <v>384600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>341800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>165000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>137700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>97600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>43600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>17000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>21300</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2797,59 +2886,62 @@
       <c r="X42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>45100</v>
+        <v>34900</v>
       </c>
       <c r="E43" s="3">
-        <v>45100</v>
+        <v>42100</v>
       </c>
       <c r="F43" s="3">
-        <v>37100</v>
+        <v>42100</v>
       </c>
       <c r="G43" s="3">
-        <v>21500</v>
+        <v>34700</v>
       </c>
       <c r="H43" s="3">
-        <v>20400</v>
+        <v>20000</v>
       </c>
       <c r="I43" s="3">
-        <v>18300</v>
+        <v>19000</v>
       </c>
       <c r="J43" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K43" s="3">
         <v>17600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>17500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>25700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>14600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>33500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>41100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>18500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>19900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>19800</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,59 +3028,62 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>147900</v>
+        <v>106200</v>
       </c>
       <c r="E45" s="3">
-        <v>118300</v>
+        <v>138200</v>
       </c>
       <c r="F45" s="3">
-        <v>104200</v>
+        <v>110500</v>
       </c>
       <c r="G45" s="3">
-        <v>104100</v>
+        <v>97300</v>
       </c>
       <c r="H45" s="3">
-        <v>76900</v>
+        <v>97300</v>
       </c>
       <c r="I45" s="3">
-        <v>65400</v>
+        <v>71800</v>
       </c>
       <c r="J45" s="3">
+        <v>61100</v>
+      </c>
+      <c r="K45" s="3">
         <v>63100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>61900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>68100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>46800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>35500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>46400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>32700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>24700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>12200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3001,59 +3099,62 @@
       <c r="X45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1947300</v>
+        <v>1756000</v>
       </c>
       <c r="E46" s="3">
-        <v>1857400</v>
+        <v>1818900</v>
       </c>
       <c r="F46" s="3">
-        <v>1821600</v>
+        <v>1735000</v>
       </c>
       <c r="G46" s="3">
-        <v>1778100</v>
+        <v>1701500</v>
       </c>
       <c r="H46" s="3">
-        <v>1800800</v>
+        <v>1660900</v>
       </c>
       <c r="I46" s="3">
-        <v>1778900</v>
+        <v>1682100</v>
       </c>
       <c r="J46" s="3">
+        <v>1661600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1708300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1630900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1581700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1453600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1035900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>957800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>873300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>835800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>616200</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3069,59 +3170,62 @@
       <c r="X46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>91800</v>
+        <v>89700</v>
       </c>
       <c r="E47" s="3">
-        <v>79700</v>
+        <v>85800</v>
       </c>
       <c r="F47" s="3">
-        <v>80400</v>
+        <v>74400</v>
       </c>
       <c r="G47" s="3">
-        <v>73700</v>
+        <v>75100</v>
       </c>
       <c r="H47" s="3">
-        <v>71100</v>
+        <v>68800</v>
       </c>
       <c r="I47" s="3">
-        <v>67900</v>
+        <v>66400</v>
       </c>
       <c r="J47" s="3">
+        <v>63400</v>
+      </c>
+      <c r="K47" s="3">
         <v>63500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>58400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>57400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>56200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>50200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>31900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>29800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>30400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3137,59 +3241,62 @@
       <c r="X47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>76900</v>
+        <v>70000</v>
       </c>
       <c r="E48" s="3">
-        <v>28700</v>
+        <v>71800</v>
       </c>
       <c r="F48" s="3">
-        <v>25600</v>
+        <v>26800</v>
       </c>
       <c r="G48" s="3">
-        <v>28700</v>
+        <v>23900</v>
       </c>
       <c r="H48" s="3">
-        <v>32100</v>
+        <v>26800</v>
       </c>
       <c r="I48" s="3">
-        <v>33000</v>
+        <v>30000</v>
       </c>
       <c r="J48" s="3">
+        <v>30900</v>
+      </c>
+      <c r="K48" s="3">
         <v>29100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>33500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>33600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>28900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>12700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>11700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5500</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3205,59 +3312,62 @@
       <c r="X48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14300</v>
+        <v>12400</v>
       </c>
       <c r="E49" s="3">
-        <v>15000</v>
+        <v>13400</v>
       </c>
       <c r="F49" s="3">
-        <v>8100</v>
+        <v>14000</v>
       </c>
       <c r="G49" s="3">
-        <v>9900</v>
+        <v>7500</v>
       </c>
       <c r="H49" s="3">
-        <v>11500</v>
+        <v>9300</v>
       </c>
       <c r="I49" s="3">
-        <v>10400</v>
+        <v>10700</v>
       </c>
       <c r="J49" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K49" s="3">
         <v>7000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>6900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>6900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>7000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>800</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,59 +3525,62 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27900</v>
+        <v>25200</v>
       </c>
       <c r="E52" s="3">
-        <v>71200</v>
+        <v>26100</v>
       </c>
       <c r="F52" s="3">
-        <v>70200</v>
+        <v>66500</v>
       </c>
       <c r="G52" s="3">
-        <v>67500</v>
+        <v>65600</v>
       </c>
       <c r="H52" s="3">
+        <v>63000</v>
+      </c>
+      <c r="I52" s="3">
+        <v>21700</v>
+      </c>
+      <c r="J52" s="3">
+        <v>28900</v>
+      </c>
+      <c r="K52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="L52" s="3">
         <v>23200</v>
       </c>
-      <c r="I52" s="3">
-        <v>30900</v>
-      </c>
-      <c r="J52" s="3">
-        <v>27700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>23200</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>25400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>23300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>20600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>22000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>10500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5400</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,59 +3667,62 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2158200</v>
+        <v>1953200</v>
       </c>
       <c r="E54" s="3">
-        <v>2051900</v>
+        <v>2016000</v>
       </c>
       <c r="F54" s="3">
-        <v>2005800</v>
+        <v>1916700</v>
       </c>
       <c r="G54" s="3">
-        <v>1957900</v>
+        <v>1873600</v>
       </c>
       <c r="H54" s="3">
-        <v>1938700</v>
+        <v>1828800</v>
       </c>
       <c r="I54" s="3">
-        <v>1921100</v>
+        <v>1810900</v>
       </c>
       <c r="J54" s="3">
+        <v>1794500</v>
+      </c>
+      <c r="K54" s="3">
         <v>1835600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1750200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1705400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1573700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1143100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1032000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>932300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>883600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>627900</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,58 +3794,59 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
+        <v>600</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
-        <v>8900</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H57" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>5500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>16</v>
+      <c r="S57" s="3">
+        <v>0</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>16</v>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,59 +3934,62 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>410900</v>
+        <v>377800</v>
       </c>
       <c r="E59" s="3">
-        <v>390100</v>
+        <v>383800</v>
       </c>
       <c r="F59" s="3">
-        <v>373400</v>
+        <v>364400</v>
       </c>
       <c r="G59" s="3">
-        <v>374600</v>
+        <v>348800</v>
       </c>
       <c r="H59" s="3">
-        <v>364500</v>
+        <v>349900</v>
       </c>
       <c r="I59" s="3">
-        <v>387700</v>
+        <v>340500</v>
       </c>
       <c r="J59" s="3">
+        <v>362100</v>
+      </c>
+      <c r="K59" s="3">
         <v>368100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>376200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>337600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>298300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>242600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>199100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>151400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>128700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>244600</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T59" s="3" t="s">
         <v>16</v>
       </c>
@@ -3869,59 +4005,62 @@
       <c r="X59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>413800</v>
+        <v>379600</v>
       </c>
       <c r="E60" s="3">
-        <v>398900</v>
+        <v>386600</v>
       </c>
       <c r="F60" s="3">
-        <v>374500</v>
+        <v>372600</v>
       </c>
       <c r="G60" s="3">
-        <v>376200</v>
+        <v>349800</v>
       </c>
       <c r="H60" s="3">
-        <v>367600</v>
+        <v>351400</v>
       </c>
       <c r="I60" s="3">
-        <v>393200</v>
+        <v>343400</v>
       </c>
       <c r="J60" s="3">
+        <v>367200</v>
+      </c>
+      <c r="K60" s="3">
         <v>368500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>376700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>339300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>301100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>245600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>200500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>154000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>129600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>244600</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T60" s="3" t="s">
         <v>16</v>
       </c>
@@ -3937,8 +4076,11 @@
       <c r="X60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,59 +4147,62 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>31700</v>
+        <v>24900</v>
       </c>
       <c r="E62" s="3">
-        <v>38200</v>
+        <v>29600</v>
       </c>
       <c r="F62" s="3">
-        <v>39200</v>
+        <v>35700</v>
       </c>
       <c r="G62" s="3">
-        <v>39300</v>
+        <v>36600</v>
       </c>
       <c r="H62" s="3">
-        <v>37500</v>
+        <v>36700</v>
       </c>
       <c r="I62" s="3">
-        <v>40400</v>
+        <v>35000</v>
       </c>
       <c r="J62" s="3">
+        <v>37800</v>
+      </c>
+      <c r="K62" s="3">
         <v>38500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>36200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>33300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>27800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>9600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,59 +4431,62 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>445600</v>
+        <v>404500</v>
       </c>
       <c r="E66" s="3">
-        <v>437200</v>
+        <v>416200</v>
       </c>
       <c r="F66" s="3">
-        <v>413700</v>
+        <v>408300</v>
       </c>
       <c r="G66" s="3">
-        <v>415500</v>
+        <v>386400</v>
       </c>
       <c r="H66" s="3">
-        <v>405100</v>
+        <v>388100</v>
       </c>
       <c r="I66" s="3">
-        <v>433600</v>
+        <v>378400</v>
       </c>
       <c r="J66" s="3">
+        <v>405000</v>
+      </c>
+      <c r="K66" s="3">
         <v>407000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>412900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>374500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>334300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>273300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>212200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>163700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>140300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>251600</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4555,11 +4722,11 @@
         <v>0</v>
       </c>
       <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
         <v>434700</v>
       </c>
-      <c r="S70" s="3">
-        <v>0</v>
-      </c>
       <c r="T70" s="3">
         <v>0</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,59 +4813,62 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-136500</v>
+        <v>-173500</v>
       </c>
       <c r="E72" s="3">
-        <v>-219200</v>
+        <v>-127500</v>
       </c>
       <c r="F72" s="3">
-        <v>-248600</v>
+        <v>-204700</v>
       </c>
       <c r="G72" s="3">
-        <v>-277800</v>
+        <v>-232200</v>
       </c>
       <c r="H72" s="3">
-        <v>-317800</v>
+        <v>-259500</v>
       </c>
       <c r="I72" s="3">
-        <v>-240800</v>
+        <v>-296800</v>
       </c>
       <c r="J72" s="3">
+        <v>-224900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-276600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-295900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-324700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-336800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-355400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-347000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-348400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-365300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-59100</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4711,8 +4884,11 @@
       <c r="X72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,59 +5097,62 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1712700</v>
+        <v>1548800</v>
       </c>
       <c r="E76" s="3">
-        <v>1614800</v>
+        <v>1599800</v>
       </c>
       <c r="F76" s="3">
-        <v>1592100</v>
+        <v>1508300</v>
       </c>
       <c r="G76" s="3">
-        <v>1542400</v>
+        <v>1487200</v>
       </c>
       <c r="H76" s="3">
-        <v>1533600</v>
+        <v>1440700</v>
       </c>
       <c r="I76" s="3">
-        <v>1487500</v>
+        <v>1432500</v>
       </c>
       <c r="J76" s="3">
+        <v>1389500</v>
+      </c>
+      <c r="K76" s="3">
         <v>1428600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1337300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1330900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1239400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>869700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>819800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>768600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>743300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-58300</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>16</v>
       </c>
@@ -4983,8 +5168,11 @@
       <c r="X76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>82700</v>
+        <v>-46100</v>
       </c>
       <c r="E81" s="3">
-        <v>29400</v>
+        <v>77300</v>
       </c>
       <c r="F81" s="3">
-        <v>29300</v>
+        <v>27400</v>
       </c>
       <c r="G81" s="3">
-        <v>39900</v>
+        <v>27300</v>
       </c>
       <c r="H81" s="3">
-        <v>39900</v>
+        <v>37300</v>
       </c>
       <c r="I81" s="3">
-        <v>32600</v>
+        <v>37300</v>
       </c>
       <c r="J81" s="3">
+        <v>30500</v>
+      </c>
+      <c r="K81" s="3">
         <v>27000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>19200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>18600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>9700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>14500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-310800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-71200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-5800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-6100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-20000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>HUYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>413900</v>
+        <v>332200</v>
       </c>
       <c r="E8" s="3">
-        <v>438500</v>
+        <v>359900</v>
       </c>
       <c r="F8" s="3">
-        <v>436500</v>
+        <v>410200</v>
       </c>
       <c r="G8" s="3">
-        <v>383800</v>
+        <v>434500</v>
       </c>
       <c r="H8" s="3">
-        <v>440700</v>
+        <v>432600</v>
       </c>
       <c r="I8" s="3">
+        <v>380400</v>
+      </c>
+      <c r="J8" s="3">
+        <v>436700</v>
+      </c>
+      <c r="K8" s="3">
         <v>414800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>397500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>380500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>379900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>353400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>307200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>249300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>218600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>178700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>149000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>121000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>110000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>86600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>68500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>58000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>49300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>413700</v>
+        <v>300200</v>
       </c>
       <c r="E9" s="3">
-        <v>364200</v>
+        <v>311200</v>
       </c>
       <c r="F9" s="3">
-        <v>350900</v>
+        <v>410000</v>
       </c>
       <c r="G9" s="3">
+        <v>360900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>347700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>305300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>349400</v>
+      </c>
+      <c r="K9" s="3">
+        <v>323300</v>
+      </c>
+      <c r="L9" s="3">
+        <v>312700</v>
+      </c>
+      <c r="M9" s="3">
+        <v>305600</v>
+      </c>
+      <c r="N9" s="3">
         <v>308100</v>
       </c>
-      <c r="H9" s="3">
-        <v>352600</v>
-      </c>
-      <c r="I9" s="3">
-        <v>323300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>312700</v>
-      </c>
-      <c r="K9" s="3">
-        <v>305600</v>
-      </c>
-      <c r="L9" s="3">
-        <v>308100</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>290000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>255900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>207500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>183900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>151600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>125100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>102200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>93900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>75700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>59900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>55700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>56300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>48700</v>
+      </c>
+      <c r="F10" s="3">
         <v>200</v>
       </c>
-      <c r="E10" s="3">
-        <v>74300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>85700</v>
-      </c>
       <c r="G10" s="3">
-        <v>75700</v>
+        <v>73600</v>
       </c>
       <c r="H10" s="3">
-        <v>88100</v>
+        <v>84900</v>
       </c>
       <c r="I10" s="3">
+        <v>75000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>87300</v>
+      </c>
+      <c r="K10" s="3">
         <v>91400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>84700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>74900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>71800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>63400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>51300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>41800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>34700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>27100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>23900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>18800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>16000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>10900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>8500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>2300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>-7000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,79 +1030,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>30300</v>
+        <v>24600</v>
       </c>
       <c r="E12" s="3">
+        <v>28700</v>
+      </c>
+      <c r="F12" s="3">
+        <v>30000</v>
+      </c>
+      <c r="G12" s="3">
+        <v>30100</v>
+      </c>
+      <c r="H12" s="3">
         <v>30400</v>
       </c>
-      <c r="F12" s="3">
-        <v>30600</v>
-      </c>
-      <c r="G12" s="3">
-        <v>29300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>31800</v>
-      </c>
       <c r="I12" s="3">
+        <v>29100</v>
+      </c>
+      <c r="J12" s="3">
+        <v>31500</v>
+      </c>
+      <c r="K12" s="3">
         <v>26900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>26500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>24600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>27500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>21100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>16100</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>13800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>11500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>10400</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>8600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>7400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>6500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>7300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>5200</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>6200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>7700</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,8 +1180,14 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>481300</v>
+        <v>344100</v>
       </c>
       <c r="E17" s="3">
-        <v>426200</v>
+        <v>368700</v>
       </c>
       <c r="F17" s="3">
-        <v>409700</v>
+        <v>476900</v>
       </c>
       <c r="G17" s="3">
-        <v>360000</v>
+        <v>422400</v>
       </c>
       <c r="H17" s="3">
-        <v>413000</v>
+        <v>406000</v>
       </c>
       <c r="I17" s="3">
+        <v>356700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>409300</v>
+      </c>
+      <c r="K17" s="3">
         <v>381900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>370700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>359500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>364300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>343400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>296800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>244900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>215900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>179100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>151500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>117000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>110200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>91700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>71000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>64100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>69400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-67400</v>
+        <v>-11800</v>
       </c>
       <c r="E18" s="3">
-        <v>12200</v>
+        <v>-8800</v>
       </c>
       <c r="F18" s="3">
-        <v>26800</v>
+        <v>-66800</v>
       </c>
       <c r="G18" s="3">
-        <v>23900</v>
+        <v>12100</v>
       </c>
       <c r="H18" s="3">
-        <v>27600</v>
+        <v>26600</v>
       </c>
       <c r="I18" s="3">
+        <v>23700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>27400</v>
+      </c>
+      <c r="K18" s="3">
         <v>32800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>26700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>21000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>15700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>10000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>10300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>4300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>2700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>4000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-5100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-2500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-6100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-20100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,79 +1547,87 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G20" s="3">
+        <v>15100</v>
+      </c>
+      <c r="H20" s="3">
         <v>9100</v>
       </c>
-      <c r="E20" s="3">
-        <v>15200</v>
-      </c>
-      <c r="F20" s="3">
-        <v>9100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>9300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>10900</v>
-      </c>
       <c r="I20" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K20" s="3">
         <v>11900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>11300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>12100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>13600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>13600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>11600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>8300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>7700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>7100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-320100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>300</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1623,8 +1697,14 @@
       <c r="Y21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,136 +1774,148 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-58300</v>
+        <v>-2700</v>
       </c>
       <c r="E23" s="3">
-        <v>27400</v>
+        <v>900</v>
       </c>
       <c r="F23" s="3">
-        <v>35900</v>
+        <v>-57800</v>
       </c>
       <c r="G23" s="3">
-        <v>33200</v>
+        <v>27200</v>
       </c>
       <c r="H23" s="3">
-        <v>38500</v>
+        <v>35600</v>
       </c>
       <c r="I23" s="3">
+        <v>32900</v>
+      </c>
+      <c r="J23" s="3">
+        <v>38100</v>
+      </c>
+      <c r="K23" s="3">
         <v>44700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>38000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>33100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>29300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>23600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>21900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>12600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>10300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>6700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-322600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>3900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-4300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-6100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-12200</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>6000</v>
+        <v>1400</v>
       </c>
       <c r="F24" s="3">
-        <v>8600</v>
+        <v>-12100</v>
       </c>
       <c r="G24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="H24" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I24" s="3">
         <v>5800</v>
       </c>
-      <c r="H24" s="3">
-        <v>5500</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K24" s="3">
         <v>7500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>7600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>5900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>4200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>4300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>3300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-1200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>-900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-600</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-46100</v>
+        <v>-2900</v>
       </c>
       <c r="E26" s="3">
-        <v>21500</v>
+        <v>-400</v>
       </c>
       <c r="F26" s="3">
-        <v>27400</v>
+        <v>-45600</v>
       </c>
       <c r="G26" s="3">
-        <v>27300</v>
+        <v>21300</v>
       </c>
       <c r="H26" s="3">
-        <v>33000</v>
+        <v>27100</v>
       </c>
       <c r="I26" s="3">
+        <v>27100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>32700</v>
+      </c>
+      <c r="K26" s="3">
         <v>37300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>30500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>27200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>25000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>19200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>18600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>9700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>15000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>7900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-321700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>4500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-4300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-6100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-46100</v>
+        <v>-2800</v>
       </c>
       <c r="E27" s="3">
-        <v>77300</v>
+        <v>-500</v>
       </c>
       <c r="F27" s="3">
-        <v>27400</v>
+        <v>-45700</v>
       </c>
       <c r="G27" s="3">
-        <v>27300</v>
+        <v>76600</v>
       </c>
       <c r="H27" s="3">
+        <v>27200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>27100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K27" s="3">
         <v>37300</v>
       </c>
-      <c r="I27" s="3">
-        <v>37300</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>30500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>27000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>24600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>19200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>18600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>9700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>14500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>7900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-310800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-71200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-5800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-6100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-9100</v>
       </c>
-      <c r="E32" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-9100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-9300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-10900</v>
-      </c>
       <c r="I32" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-11900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-11300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-12100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-13600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-13600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-11600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-8300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-7100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>320100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-46100</v>
+        <v>-2800</v>
       </c>
       <c r="E33" s="3">
-        <v>77300</v>
+        <v>-500</v>
       </c>
       <c r="F33" s="3">
-        <v>27400</v>
+        <v>-45700</v>
       </c>
       <c r="G33" s="3">
-        <v>27300</v>
+        <v>76600</v>
       </c>
       <c r="H33" s="3">
+        <v>27200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>27100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K33" s="3">
         <v>37300</v>
       </c>
-      <c r="I33" s="3">
-        <v>37300</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>30500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>27000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>24600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>19200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>18600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>9700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>14500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>7900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-310800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-71200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-5800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-6100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-46100</v>
+        <v>-2800</v>
       </c>
       <c r="E35" s="3">
-        <v>77300</v>
+        <v>-500</v>
       </c>
       <c r="F35" s="3">
-        <v>27400</v>
+        <v>-45700</v>
       </c>
       <c r="G35" s="3">
-        <v>27300</v>
+        <v>76600</v>
       </c>
       <c r="H35" s="3">
+        <v>27200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>27100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K35" s="3">
         <v>37300</v>
       </c>
-      <c r="I35" s="3">
-        <v>37300</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>30500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>27000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>24600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>19200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>18600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>9700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>14500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>7900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-310800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-71200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-5800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-6100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,65 +2919,67 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1494600</v>
+        <v>1564600</v>
       </c>
       <c r="E41" s="3">
-        <v>1489800</v>
+        <v>1423700</v>
       </c>
       <c r="F41" s="3">
-        <v>1419600</v>
+        <v>1481100</v>
       </c>
       <c r="G41" s="3">
-        <v>1405900</v>
+        <v>1476300</v>
       </c>
       <c r="H41" s="3">
-        <v>1365800</v>
+        <v>1406800</v>
       </c>
       <c r="I41" s="3">
+        <v>1393200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1353500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1341400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1230000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1243000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1209800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1322900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1254600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>869400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>826800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>805000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>770000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>584200</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2818,62 +2992,68 @@
       <c r="Y41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>120300</v>
+        <v>400</v>
       </c>
       <c r="E42" s="3">
-        <v>148800</v>
+        <v>105700</v>
       </c>
       <c r="F42" s="3">
-        <v>162800</v>
+        <v>119200</v>
       </c>
       <c r="G42" s="3">
-        <v>163700</v>
+        <v>147400</v>
       </c>
       <c r="H42" s="3">
-        <v>177800</v>
+        <v>161300</v>
       </c>
       <c r="I42" s="3">
+        <v>162200</v>
+      </c>
+      <c r="J42" s="3">
+        <v>176200</v>
+      </c>
+      <c r="K42" s="3">
         <v>249800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>353400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>384600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>341800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>165000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>137700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>97600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>43600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>17000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>21300</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="T42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="U42" s="3" t="s">
         <v>16</v>
       </c>
@@ -2889,65 +3069,71 @@
       <c r="Y42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>34900</v>
+        <v>32000</v>
       </c>
       <c r="E43" s="3">
-        <v>42100</v>
+        <v>32100</v>
       </c>
       <c r="F43" s="3">
-        <v>42100</v>
+        <v>34500</v>
       </c>
       <c r="G43" s="3">
-        <v>34700</v>
+        <v>41800</v>
       </c>
       <c r="H43" s="3">
-        <v>20000</v>
+        <v>41700</v>
       </c>
       <c r="I43" s="3">
+        <v>34300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K43" s="3">
         <v>19000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>17100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>17600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>17500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>25700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>14600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>33500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>41100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>18500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>19900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>19800</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V43" s="3" t="s">
         <v>16</v>
       </c>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,65 +3223,71 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>106200</v>
+        <v>116800</v>
       </c>
       <c r="E45" s="3">
-        <v>138200</v>
+        <v>135700</v>
       </c>
       <c r="F45" s="3">
-        <v>110500</v>
+        <v>105200</v>
       </c>
       <c r="G45" s="3">
-        <v>97300</v>
+        <v>136900</v>
       </c>
       <c r="H45" s="3">
-        <v>97300</v>
+        <v>109500</v>
       </c>
       <c r="I45" s="3">
+        <v>96400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>96400</v>
+      </c>
+      <c r="K45" s="3">
         <v>71800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>61100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>63100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>61900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>68100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>46800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>35500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>46400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>32700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>24700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>12200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3102,65 +3300,71 @@
       <c r="Y45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1756000</v>
+        <v>1713700</v>
       </c>
       <c r="E46" s="3">
-        <v>1818900</v>
+        <v>1697200</v>
       </c>
       <c r="F46" s="3">
-        <v>1735000</v>
+        <v>1740100</v>
       </c>
       <c r="G46" s="3">
-        <v>1701500</v>
+        <v>1802500</v>
       </c>
       <c r="H46" s="3">
-        <v>1660900</v>
+        <v>1719300</v>
       </c>
       <c r="I46" s="3">
+        <v>1686200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1645900</v>
+      </c>
+      <c r="K46" s="3">
         <v>1682100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1661600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1708300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1630900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1581700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1453600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1035900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>957800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>873300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>835800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>616200</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3173,65 +3377,71 @@
       <c r="Y46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>89700</v>
+        <v>131300</v>
       </c>
       <c r="E47" s="3">
-        <v>85800</v>
+        <v>126300</v>
       </c>
       <c r="F47" s="3">
+        <v>88900</v>
+      </c>
+      <c r="G47" s="3">
+        <v>85000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>73700</v>
+      </c>
+      <c r="I47" s="3">
         <v>74400</v>
       </c>
-      <c r="G47" s="3">
-        <v>75100</v>
-      </c>
-      <c r="H47" s="3">
-        <v>68800</v>
-      </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
+        <v>68200</v>
+      </c>
+      <c r="K47" s="3">
         <v>66400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>63400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>63500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>58400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>57400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>56200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>50200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>31900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>29800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>30400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>100</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3244,65 +3454,71 @@
       <c r="Y47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>70000</v>
+        <v>74300</v>
       </c>
       <c r="E48" s="3">
-        <v>71800</v>
+        <v>67800</v>
       </c>
       <c r="F48" s="3">
-        <v>26800</v>
+        <v>69400</v>
       </c>
       <c r="G48" s="3">
-        <v>23900</v>
+        <v>71200</v>
       </c>
       <c r="H48" s="3">
-        <v>26800</v>
+        <v>26600</v>
       </c>
       <c r="I48" s="3">
+        <v>23700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K48" s="3">
         <v>30000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>30900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>29100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>30700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>33500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>33600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>28900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>12700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>11700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>10000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>5500</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3315,40 +3531,46 @@
       <c r="Y48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>12400</v>
+        <v>10500</v>
       </c>
       <c r="E49" s="3">
-        <v>13400</v>
+        <v>11500</v>
       </c>
       <c r="F49" s="3">
-        <v>14000</v>
+        <v>12300</v>
       </c>
       <c r="G49" s="3">
+        <v>13200</v>
+      </c>
+      <c r="H49" s="3">
+        <v>13900</v>
+      </c>
+      <c r="I49" s="3">
         <v>7500</v>
       </c>
-      <c r="H49" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
+        <v>9200</v>
+      </c>
+      <c r="K49" s="3">
         <v>10700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>9700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>7000</v>
-      </c>
-      <c r="L49" s="3">
-        <v>6900</v>
-      </c>
-      <c r="M49" s="3">
-        <v>7400</v>
       </c>
       <c r="N49" s="3">
         <v>6900</v>
@@ -3357,23 +3579,23 @@
         <v>7400</v>
       </c>
       <c r="P49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="R49" s="3">
         <v>7500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>7000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>5200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>800</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,65 +3762,71 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>25200</v>
+        <v>27200</v>
       </c>
       <c r="E52" s="3">
-        <v>26100</v>
+        <v>31100</v>
       </c>
       <c r="F52" s="3">
-        <v>66500</v>
+        <v>25000</v>
       </c>
       <c r="G52" s="3">
-        <v>65600</v>
+        <v>25800</v>
       </c>
       <c r="H52" s="3">
-        <v>63000</v>
+        <v>65900</v>
       </c>
       <c r="I52" s="3">
+        <v>65000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>62500</v>
+      </c>
+      <c r="K52" s="3">
         <v>21700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>28900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>27700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>23200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>25400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>23300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>20600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>22000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>10500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>2200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>5400</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,65 +3916,71 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1953200</v>
+        <v>1957200</v>
       </c>
       <c r="E54" s="3">
-        <v>2016000</v>
+        <v>1933900</v>
       </c>
       <c r="F54" s="3">
-        <v>1916700</v>
+        <v>1935600</v>
       </c>
       <c r="G54" s="3">
-        <v>1873600</v>
+        <v>1997800</v>
       </c>
       <c r="H54" s="3">
-        <v>1828800</v>
+        <v>1899400</v>
       </c>
       <c r="I54" s="3">
+        <v>1856700</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1812300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1810900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1794500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1835600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1750200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1705400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1573700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1143100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1032000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>932300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>883600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>627900</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3741,8 +3993,14 @@
       <c r="Y54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,64 +4055,66 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1900</v>
+        <v>5400</v>
       </c>
       <c r="E57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
-        <v>8300</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>5100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>16</v>
+      <c r="U57" s="3">
+        <v>0</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>16</v>
@@ -3866,8 +4128,14 @@
       <c r="Y57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,65 +4205,71 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>377800</v>
+        <v>326500</v>
       </c>
       <c r="E59" s="3">
-        <v>383800</v>
+        <v>356100</v>
       </c>
       <c r="F59" s="3">
-        <v>364400</v>
+        <v>374300</v>
       </c>
       <c r="G59" s="3">
-        <v>348800</v>
+        <v>380300</v>
       </c>
       <c r="H59" s="3">
-        <v>349900</v>
+        <v>361100</v>
       </c>
       <c r="I59" s="3">
+        <v>345600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>346800</v>
+      </c>
+      <c r="K59" s="3">
         <v>340500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>362100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>368100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>376200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>337600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>298300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>242600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>199100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>151400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>128700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>244600</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4008,65 +4282,71 @@
       <c r="Y59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>379600</v>
+        <v>331900</v>
       </c>
       <c r="E60" s="3">
-        <v>386600</v>
+        <v>357800</v>
       </c>
       <c r="F60" s="3">
-        <v>372600</v>
+        <v>376200</v>
       </c>
       <c r="G60" s="3">
-        <v>349800</v>
+        <v>383100</v>
       </c>
       <c r="H60" s="3">
-        <v>351400</v>
+        <v>369300</v>
       </c>
       <c r="I60" s="3">
+        <v>346700</v>
+      </c>
+      <c r="J60" s="3">
+        <v>348300</v>
+      </c>
+      <c r="K60" s="3">
         <v>343400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>367200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>368500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>376700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>339300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>301100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>245600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>200500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>154000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>129600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>244600</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4079,8 +4359,14 @@
       <c r="Y60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,65 +4436,71 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E62" s="3">
         <v>24900</v>
       </c>
-      <c r="E62" s="3">
-        <v>29600</v>
-      </c>
       <c r="F62" s="3">
-        <v>35700</v>
+        <v>24600</v>
       </c>
       <c r="G62" s="3">
-        <v>36600</v>
+        <v>29400</v>
       </c>
       <c r="H62" s="3">
-        <v>36700</v>
+        <v>35400</v>
       </c>
       <c r="I62" s="3">
+        <v>36300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>36400</v>
+      </c>
+      <c r="K62" s="3">
         <v>35000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>37800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>38500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>36200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>35300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>33300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>27800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>11700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>9600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>10700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>7000</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,65 +4744,71 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>404500</v>
+        <v>352800</v>
       </c>
       <c r="E66" s="3">
-        <v>416200</v>
+        <v>382700</v>
       </c>
       <c r="F66" s="3">
-        <v>408300</v>
+        <v>400800</v>
       </c>
       <c r="G66" s="3">
-        <v>386400</v>
+        <v>412400</v>
       </c>
       <c r="H66" s="3">
-        <v>388100</v>
+        <v>404600</v>
       </c>
       <c r="I66" s="3">
+        <v>383000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>384600</v>
+      </c>
+      <c r="K66" s="3">
         <v>378400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>405000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>407000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>412900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>374500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>334300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>273300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>212200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>163700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>140300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>251600</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4505,8 +4821,14 @@
       <c r="Y66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4725,14 +5061,14 @@
         <v>0</v>
       </c>
       <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
         <v>434700</v>
       </c>
-      <c r="T70" s="3">
-        <v>0</v>
-      </c>
-      <c r="U70" s="3">
-        <v>0</v>
-      </c>
       <c r="V70" s="3">
         <v>0</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,65 +5158,71 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-173500</v>
+        <v>-175300</v>
       </c>
       <c r="E72" s="3">
-        <v>-127500</v>
+        <v>-172500</v>
       </c>
       <c r="F72" s="3">
-        <v>-204700</v>
+        <v>-172000</v>
       </c>
       <c r="G72" s="3">
-        <v>-232200</v>
+        <v>-126300</v>
       </c>
       <c r="H72" s="3">
-        <v>-259500</v>
+        <v>-202900</v>
       </c>
       <c r="I72" s="3">
+        <v>-230100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-257200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-296800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-224900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-276600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-295900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-324700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-336800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-355400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-347000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-348400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-365300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-59100</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V72" s="3" t="s">
         <v>16</v>
       </c>
@@ -4887,8 +5235,14 @@
       <c r="Y72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,65 +5466,71 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1548800</v>
+        <v>1604300</v>
       </c>
       <c r="E76" s="3">
-        <v>1599800</v>
+        <v>1551200</v>
       </c>
       <c r="F76" s="3">
-        <v>1508300</v>
+        <v>1534800</v>
       </c>
       <c r="G76" s="3">
-        <v>1487200</v>
+        <v>1585400</v>
       </c>
       <c r="H76" s="3">
-        <v>1440700</v>
+        <v>1494700</v>
       </c>
       <c r="I76" s="3">
+        <v>1473700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1427700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1432500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1389500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1428600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1337300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1330900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1239400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>869700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>819800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>768600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>743300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-58300</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5171,8 +5543,14 @@
       <c r="Y76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-46100</v>
+        <v>-2800</v>
       </c>
       <c r="E81" s="3">
-        <v>77300</v>
+        <v>-500</v>
       </c>
       <c r="F81" s="3">
-        <v>27400</v>
+        <v>-45700</v>
       </c>
       <c r="G81" s="3">
-        <v>27300</v>
+        <v>76600</v>
       </c>
       <c r="H81" s="3">
+        <v>27200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>27100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>37000</v>
+      </c>
+      <c r="K81" s="3">
         <v>37300</v>
       </c>
-      <c r="I81" s="3">
-        <v>37300</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>30500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>27000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>24600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>19200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>18600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>9700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>14500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>7900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-310800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-71200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-5800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-6100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-20000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6270,14 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5913,8 +6347,14 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +7021,14 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6606,8 +7098,14 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +7175,14 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6746,6 +7250,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
@@ -778,25 +778,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>332200</v>
+        <v>316700</v>
       </c>
       <c r="E8" s="3">
-        <v>359900</v>
+        <v>343100</v>
       </c>
       <c r="F8" s="3">
-        <v>410200</v>
+        <v>391000</v>
       </c>
       <c r="G8" s="3">
-        <v>434500</v>
+        <v>414200</v>
       </c>
       <c r="H8" s="3">
-        <v>432600</v>
+        <v>412400</v>
       </c>
       <c r="I8" s="3">
-        <v>380400</v>
+        <v>362600</v>
       </c>
       <c r="J8" s="3">
-        <v>436700</v>
+        <v>416200</v>
       </c>
       <c r="K8" s="3">
         <v>414800</v>
@@ -855,25 +855,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300200</v>
+        <v>286200</v>
       </c>
       <c r="E9" s="3">
-        <v>311200</v>
+        <v>296600</v>
       </c>
       <c r="F9" s="3">
-        <v>410000</v>
+        <v>390800</v>
       </c>
       <c r="G9" s="3">
-        <v>360900</v>
+        <v>344000</v>
       </c>
       <c r="H9" s="3">
-        <v>347700</v>
+        <v>331400</v>
       </c>
       <c r="I9" s="3">
-        <v>305300</v>
+        <v>291100</v>
       </c>
       <c r="J9" s="3">
-        <v>349400</v>
+        <v>333100</v>
       </c>
       <c r="K9" s="3">
         <v>323300</v>
@@ -932,25 +932,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>32000</v>
+        <v>30500</v>
       </c>
       <c r="E10" s="3">
-        <v>48700</v>
+        <v>46400</v>
       </c>
       <c r="F10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
-        <v>73600</v>
+        <v>70200</v>
       </c>
       <c r="H10" s="3">
-        <v>84900</v>
+        <v>80900</v>
       </c>
       <c r="I10" s="3">
-        <v>75000</v>
+        <v>71500</v>
       </c>
       <c r="J10" s="3">
-        <v>87300</v>
+        <v>83200</v>
       </c>
       <c r="K10" s="3">
         <v>91400</v>
@@ -1038,25 +1038,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>24600</v>
+        <v>23400</v>
       </c>
       <c r="E12" s="3">
+        <v>27300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>28600</v>
+      </c>
+      <c r="G12" s="3">
         <v>28700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
+        <v>28900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>27700</v>
+      </c>
+      <c r="J12" s="3">
         <v>30000</v>
-      </c>
-      <c r="G12" s="3">
-        <v>30100</v>
-      </c>
-      <c r="H12" s="3">
-        <v>30400</v>
-      </c>
-      <c r="I12" s="3">
-        <v>29100</v>
-      </c>
-      <c r="J12" s="3">
-        <v>31500</v>
       </c>
       <c r="K12" s="3">
         <v>26900</v>
@@ -1372,25 +1372,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>344100</v>
+        <v>328000</v>
       </c>
       <c r="E17" s="3">
-        <v>368700</v>
+        <v>351500</v>
       </c>
       <c r="F17" s="3">
-        <v>476900</v>
+        <v>454600</v>
       </c>
       <c r="G17" s="3">
-        <v>422400</v>
+        <v>402600</v>
       </c>
       <c r="H17" s="3">
-        <v>406000</v>
+        <v>387000</v>
       </c>
       <c r="I17" s="3">
-        <v>356700</v>
+        <v>340000</v>
       </c>
       <c r="J17" s="3">
-        <v>409300</v>
+        <v>390200</v>
       </c>
       <c r="K17" s="3">
         <v>381900</v>
@@ -1449,25 +1449,25 @@
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-11800</v>
+        <v>-11300</v>
       </c>
       <c r="E18" s="3">
-        <v>-8800</v>
+        <v>-8400</v>
       </c>
       <c r="F18" s="3">
-        <v>-66800</v>
+        <v>-63700</v>
       </c>
       <c r="G18" s="3">
-        <v>12100</v>
+        <v>11600</v>
       </c>
       <c r="H18" s="3">
-        <v>26600</v>
+        <v>25300</v>
       </c>
       <c r="I18" s="3">
-        <v>23700</v>
+        <v>22600</v>
       </c>
       <c r="J18" s="3">
-        <v>27400</v>
+        <v>26100</v>
       </c>
       <c r="K18" s="3">
         <v>32800</v>
@@ -1555,25 +1555,25 @@
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>9200</v>
+        <v>8700</v>
       </c>
       <c r="E20" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="F20" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="G20" s="3">
-        <v>15100</v>
+        <v>14400</v>
       </c>
       <c r="H20" s="3">
-        <v>9100</v>
+        <v>8600</v>
       </c>
       <c r="I20" s="3">
-        <v>9200</v>
+        <v>8700</v>
       </c>
       <c r="J20" s="3">
-        <v>10800</v>
+        <v>10300</v>
       </c>
       <c r="K20" s="3">
         <v>11900</v>
@@ -1786,25 +1786,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="E23" s="3">
         <v>900</v>
       </c>
       <c r="F23" s="3">
-        <v>-57800</v>
+        <v>-55100</v>
       </c>
       <c r="G23" s="3">
-        <v>27200</v>
+        <v>25900</v>
       </c>
       <c r="H23" s="3">
-        <v>35600</v>
+        <v>34000</v>
       </c>
       <c r="I23" s="3">
-        <v>32900</v>
+        <v>31300</v>
       </c>
       <c r="J23" s="3">
-        <v>38100</v>
+        <v>36300</v>
       </c>
       <c r="K23" s="3">
         <v>44700</v>
@@ -1866,22 +1866,22 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F24" s="3">
-        <v>-12100</v>
+        <v>-11600</v>
       </c>
       <c r="G24" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="H24" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="I24" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="J24" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="K24" s="3">
         <v>7500</v>
@@ -2017,25 +2017,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="E26" s="3">
         <v>-400</v>
       </c>
       <c r="F26" s="3">
-        <v>-45600</v>
+        <v>-43500</v>
       </c>
       <c r="G26" s="3">
-        <v>21300</v>
+        <v>20300</v>
       </c>
       <c r="H26" s="3">
-        <v>27100</v>
+        <v>25800</v>
       </c>
       <c r="I26" s="3">
-        <v>27100</v>
+        <v>25800</v>
       </c>
       <c r="J26" s="3">
-        <v>32700</v>
+        <v>31200</v>
       </c>
       <c r="K26" s="3">
         <v>37300</v>
@@ -2094,25 +2094,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="E27" s="3">
         <v>-500</v>
       </c>
       <c r="F27" s="3">
-        <v>-45700</v>
+        <v>-43500</v>
       </c>
       <c r="G27" s="3">
-        <v>76600</v>
+        <v>73000</v>
       </c>
       <c r="H27" s="3">
-        <v>27200</v>
+        <v>25900</v>
       </c>
       <c r="I27" s="3">
-        <v>27100</v>
+        <v>25800</v>
       </c>
       <c r="J27" s="3">
-        <v>37000</v>
+        <v>35200</v>
       </c>
       <c r="K27" s="3">
         <v>37300</v>
@@ -2479,25 +2479,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9200</v>
+        <v>-8700</v>
       </c>
       <c r="E32" s="3">
-        <v>-9700</v>
+        <v>-9300</v>
       </c>
       <c r="F32" s="3">
-        <v>-9000</v>
+        <v>-8600</v>
       </c>
       <c r="G32" s="3">
-        <v>-15100</v>
+        <v>-14400</v>
       </c>
       <c r="H32" s="3">
-        <v>-9100</v>
+        <v>-8600</v>
       </c>
       <c r="I32" s="3">
-        <v>-9200</v>
+        <v>-8700</v>
       </c>
       <c r="J32" s="3">
-        <v>-10800</v>
+        <v>-10300</v>
       </c>
       <c r="K32" s="3">
         <v>-11900</v>
@@ -2556,25 +2556,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="E33" s="3">
         <v>-500</v>
       </c>
       <c r="F33" s="3">
-        <v>-45700</v>
+        <v>-43500</v>
       </c>
       <c r="G33" s="3">
-        <v>76600</v>
+        <v>73000</v>
       </c>
       <c r="H33" s="3">
-        <v>27200</v>
+        <v>25900</v>
       </c>
       <c r="I33" s="3">
-        <v>27100</v>
+        <v>25800</v>
       </c>
       <c r="J33" s="3">
-        <v>37000</v>
+        <v>35200</v>
       </c>
       <c r="K33" s="3">
         <v>37300</v>
@@ -2710,25 +2710,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="E35" s="3">
         <v>-500</v>
       </c>
       <c r="F35" s="3">
-        <v>-45700</v>
+        <v>-43500</v>
       </c>
       <c r="G35" s="3">
-        <v>76600</v>
+        <v>73000</v>
       </c>
       <c r="H35" s="3">
-        <v>27200</v>
+        <v>25900</v>
       </c>
       <c r="I35" s="3">
-        <v>27100</v>
+        <v>25800</v>
       </c>
       <c r="J35" s="3">
-        <v>37000</v>
+        <v>35200</v>
       </c>
       <c r="K35" s="3">
         <v>37300</v>
@@ -2927,25 +2927,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1564600</v>
+        <v>1491400</v>
       </c>
       <c r="E41" s="3">
-        <v>1423700</v>
+        <v>1357100</v>
       </c>
       <c r="F41" s="3">
-        <v>1481100</v>
+        <v>1411900</v>
       </c>
       <c r="G41" s="3">
-        <v>1476300</v>
+        <v>1407300</v>
       </c>
       <c r="H41" s="3">
-        <v>1406800</v>
+        <v>1341000</v>
       </c>
       <c r="I41" s="3">
-        <v>1393200</v>
+        <v>1328000</v>
       </c>
       <c r="J41" s="3">
-        <v>1353500</v>
+        <v>1290200</v>
       </c>
       <c r="K41" s="3">
         <v>1341400</v>
@@ -3004,25 +3004,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E42" s="3">
-        <v>105700</v>
+        <v>100800</v>
       </c>
       <c r="F42" s="3">
-        <v>119200</v>
+        <v>113600</v>
       </c>
       <c r="G42" s="3">
-        <v>147400</v>
+        <v>140600</v>
       </c>
       <c r="H42" s="3">
-        <v>161300</v>
+        <v>153800</v>
       </c>
       <c r="I42" s="3">
-        <v>162200</v>
+        <v>154600</v>
       </c>
       <c r="J42" s="3">
-        <v>176200</v>
+        <v>168000</v>
       </c>
       <c r="K42" s="3">
         <v>249800</v>
@@ -3081,25 +3081,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>32000</v>
+        <v>30500</v>
       </c>
       <c r="E43" s="3">
-        <v>32100</v>
+        <v>30600</v>
       </c>
       <c r="F43" s="3">
-        <v>34500</v>
+        <v>32900</v>
       </c>
       <c r="G43" s="3">
-        <v>41800</v>
+        <v>39800</v>
       </c>
       <c r="H43" s="3">
-        <v>41700</v>
+        <v>39800</v>
       </c>
       <c r="I43" s="3">
-        <v>34300</v>
+        <v>32700</v>
       </c>
       <c r="J43" s="3">
-        <v>19900</v>
+        <v>18900</v>
       </c>
       <c r="K43" s="3">
         <v>19000</v>
@@ -3235,25 +3235,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>116800</v>
+        <v>111300</v>
       </c>
       <c r="E45" s="3">
-        <v>135700</v>
+        <v>129300</v>
       </c>
       <c r="F45" s="3">
-        <v>105200</v>
+        <v>100300</v>
       </c>
       <c r="G45" s="3">
-        <v>136900</v>
+        <v>130500</v>
       </c>
       <c r="H45" s="3">
-        <v>109500</v>
+        <v>104400</v>
       </c>
       <c r="I45" s="3">
-        <v>96400</v>
+        <v>91900</v>
       </c>
       <c r="J45" s="3">
-        <v>96400</v>
+        <v>91900</v>
       </c>
       <c r="K45" s="3">
         <v>71800</v>
@@ -3312,25 +3312,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1713700</v>
+        <v>1633600</v>
       </c>
       <c r="E46" s="3">
-        <v>1697200</v>
+        <v>1617800</v>
       </c>
       <c r="F46" s="3">
-        <v>1740100</v>
+        <v>1658700</v>
       </c>
       <c r="G46" s="3">
-        <v>1802500</v>
+        <v>1718200</v>
       </c>
       <c r="H46" s="3">
-        <v>1719300</v>
+        <v>1638900</v>
       </c>
       <c r="I46" s="3">
-        <v>1686200</v>
+        <v>1607300</v>
       </c>
       <c r="J46" s="3">
-        <v>1645900</v>
+        <v>1568900</v>
       </c>
       <c r="K46" s="3">
         <v>1682100</v>
@@ -3389,25 +3389,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>131300</v>
+        <v>125200</v>
       </c>
       <c r="E47" s="3">
-        <v>126300</v>
+        <v>120400</v>
       </c>
       <c r="F47" s="3">
-        <v>88900</v>
+        <v>84700</v>
       </c>
       <c r="G47" s="3">
-        <v>85000</v>
+        <v>81000</v>
       </c>
       <c r="H47" s="3">
-        <v>73700</v>
+        <v>70300</v>
       </c>
       <c r="I47" s="3">
-        <v>74400</v>
+        <v>70900</v>
       </c>
       <c r="J47" s="3">
-        <v>68200</v>
+        <v>65000</v>
       </c>
       <c r="K47" s="3">
         <v>66400</v>
@@ -3466,25 +3466,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>74300</v>
+        <v>70900</v>
       </c>
       <c r="E48" s="3">
+        <v>64600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>66100</v>
+      </c>
+      <c r="G48" s="3">
         <v>67800</v>
       </c>
-      <c r="F48" s="3">
-        <v>69400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>71200</v>
-      </c>
       <c r="H48" s="3">
-        <v>26600</v>
+        <v>25300</v>
       </c>
       <c r="I48" s="3">
-        <v>23700</v>
+        <v>22600</v>
       </c>
       <c r="J48" s="3">
-        <v>26600</v>
+        <v>25300</v>
       </c>
       <c r="K48" s="3">
         <v>30000</v>
@@ -3543,25 +3543,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="E49" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="F49" s="3">
-        <v>12300</v>
+        <v>11700</v>
       </c>
       <c r="G49" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H49" s="3">
         <v>13200</v>
       </c>
-      <c r="H49" s="3">
-        <v>13900</v>
-      </c>
       <c r="I49" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="J49" s="3">
-        <v>9200</v>
+        <v>8700</v>
       </c>
       <c r="K49" s="3">
         <v>10700</v>
@@ -3774,25 +3774,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>27200</v>
+        <v>26000</v>
       </c>
       <c r="E52" s="3">
-        <v>31100</v>
+        <v>29600</v>
       </c>
       <c r="F52" s="3">
-        <v>25000</v>
+        <v>23800</v>
       </c>
       <c r="G52" s="3">
-        <v>25800</v>
+        <v>24600</v>
       </c>
       <c r="H52" s="3">
-        <v>65900</v>
+        <v>62800</v>
       </c>
       <c r="I52" s="3">
-        <v>65000</v>
+        <v>61900</v>
       </c>
       <c r="J52" s="3">
-        <v>62500</v>
+        <v>59500</v>
       </c>
       <c r="K52" s="3">
         <v>21700</v>
@@ -3928,25 +3928,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1957200</v>
+        <v>1865600</v>
       </c>
       <c r="E54" s="3">
-        <v>1933900</v>
+        <v>1843400</v>
       </c>
       <c r="F54" s="3">
-        <v>1935600</v>
+        <v>1845100</v>
       </c>
       <c r="G54" s="3">
-        <v>1997800</v>
+        <v>1904300</v>
       </c>
       <c r="H54" s="3">
-        <v>1899400</v>
+        <v>1810500</v>
       </c>
       <c r="I54" s="3">
-        <v>1856700</v>
+        <v>1769900</v>
       </c>
       <c r="J54" s="3">
-        <v>1812300</v>
+        <v>1727600</v>
       </c>
       <c r="K54" s="3">
         <v>1810900</v>
@@ -4063,25 +4063,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="E57" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F57" s="3">
         <v>1800</v>
       </c>
       <c r="G57" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="H57" s="3">
-        <v>8200</v>
+        <v>7800</v>
       </c>
       <c r="I57" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="J57" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K57" s="3">
         <v>2900</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>326500</v>
+        <v>311200</v>
       </c>
       <c r="E59" s="3">
-        <v>356100</v>
+        <v>339400</v>
       </c>
       <c r="F59" s="3">
-        <v>374300</v>
+        <v>356800</v>
       </c>
       <c r="G59" s="3">
-        <v>380300</v>
+        <v>362500</v>
       </c>
       <c r="H59" s="3">
-        <v>361100</v>
+        <v>344200</v>
       </c>
       <c r="I59" s="3">
-        <v>345600</v>
+        <v>329400</v>
       </c>
       <c r="J59" s="3">
-        <v>346800</v>
+        <v>330600</v>
       </c>
       <c r="K59" s="3">
         <v>340500</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>331900</v>
+        <v>316400</v>
       </c>
       <c r="E60" s="3">
-        <v>357800</v>
+        <v>341100</v>
       </c>
       <c r="F60" s="3">
-        <v>376200</v>
+        <v>358600</v>
       </c>
       <c r="G60" s="3">
-        <v>383100</v>
+        <v>365200</v>
       </c>
       <c r="H60" s="3">
-        <v>369300</v>
+        <v>352000</v>
       </c>
       <c r="I60" s="3">
-        <v>346700</v>
+        <v>330500</v>
       </c>
       <c r="J60" s="3">
-        <v>348300</v>
+        <v>332000</v>
       </c>
       <c r="K60" s="3">
         <v>343400</v>
@@ -4448,25 +4448,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>20900</v>
+        <v>19900</v>
       </c>
       <c r="E62" s="3">
-        <v>24900</v>
+        <v>23700</v>
       </c>
       <c r="F62" s="3">
-        <v>24600</v>
+        <v>23500</v>
       </c>
       <c r="G62" s="3">
-        <v>29400</v>
+        <v>28000</v>
       </c>
       <c r="H62" s="3">
-        <v>35400</v>
+        <v>33700</v>
       </c>
       <c r="I62" s="3">
-        <v>36300</v>
+        <v>34600</v>
       </c>
       <c r="J62" s="3">
-        <v>36400</v>
+        <v>34700</v>
       </c>
       <c r="K62" s="3">
         <v>35000</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>352800</v>
+        <v>336300</v>
       </c>
       <c r="E66" s="3">
-        <v>382700</v>
+        <v>364800</v>
       </c>
       <c r="F66" s="3">
-        <v>400800</v>
+        <v>382100</v>
       </c>
       <c r="G66" s="3">
-        <v>412400</v>
+        <v>393100</v>
       </c>
       <c r="H66" s="3">
-        <v>404600</v>
+        <v>385700</v>
       </c>
       <c r="I66" s="3">
-        <v>383000</v>
+        <v>365000</v>
       </c>
       <c r="J66" s="3">
-        <v>384600</v>
+        <v>366600</v>
       </c>
       <c r="K66" s="3">
         <v>378400</v>
@@ -5170,25 +5170,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-175300</v>
+        <v>-167100</v>
       </c>
       <c r="E72" s="3">
-        <v>-172500</v>
+        <v>-164400</v>
       </c>
       <c r="F72" s="3">
-        <v>-172000</v>
+        <v>-163900</v>
       </c>
       <c r="G72" s="3">
-        <v>-126300</v>
+        <v>-120400</v>
       </c>
       <c r="H72" s="3">
-        <v>-202900</v>
+        <v>-193400</v>
       </c>
       <c r="I72" s="3">
-        <v>-230100</v>
+        <v>-219300</v>
       </c>
       <c r="J72" s="3">
-        <v>-257200</v>
+        <v>-245200</v>
       </c>
       <c r="K72" s="3">
         <v>-296800</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1604300</v>
+        <v>1529300</v>
       </c>
       <c r="E76" s="3">
-        <v>1551200</v>
+        <v>1478600</v>
       </c>
       <c r="F76" s="3">
-        <v>1534800</v>
+        <v>1463000</v>
       </c>
       <c r="G76" s="3">
-        <v>1585400</v>
+        <v>1511200</v>
       </c>
       <c r="H76" s="3">
-        <v>1494700</v>
+        <v>1424800</v>
       </c>
       <c r="I76" s="3">
-        <v>1473700</v>
+        <v>1404800</v>
       </c>
       <c r="J76" s="3">
-        <v>1427700</v>
+        <v>1360900</v>
       </c>
       <c r="K76" s="3">
         <v>1432500</v>
@@ -5714,25 +5714,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="E81" s="3">
         <v>-500</v>
       </c>
       <c r="F81" s="3">
-        <v>-45700</v>
+        <v>-43500</v>
       </c>
       <c r="G81" s="3">
-        <v>76600</v>
+        <v>73000</v>
       </c>
       <c r="H81" s="3">
-        <v>27200</v>
+        <v>25900</v>
       </c>
       <c r="I81" s="3">
-        <v>27100</v>
+        <v>25800</v>
       </c>
       <c r="J81" s="3">
-        <v>37000</v>
+        <v>35200</v>
       </c>
       <c r="K81" s="3">
         <v>37300</v>

--- a/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>HUYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>316700</v>
+        <v>326800</v>
       </c>
       <c r="E8" s="3">
-        <v>343100</v>
+        <v>695600</v>
       </c>
       <c r="F8" s="3">
-        <v>391000</v>
+        <v>354000</v>
       </c>
       <c r="G8" s="3">
-        <v>414200</v>
+        <v>403400</v>
       </c>
       <c r="H8" s="3">
-        <v>412400</v>
+        <v>427300</v>
       </c>
       <c r="I8" s="3">
-        <v>362600</v>
+        <v>425500</v>
       </c>
       <c r="J8" s="3">
+        <v>374100</v>
+      </c>
+      <c r="K8" s="3">
         <v>416200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>414800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>397500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>380500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>379900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>353400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>307200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>249300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>218600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>178700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>149000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>121000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>110000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>86600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>68500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>58000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>49300</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>286200</v>
+        <v>295300</v>
       </c>
       <c r="E9" s="3">
-        <v>296600</v>
+        <v>598500</v>
       </c>
       <c r="F9" s="3">
-        <v>390800</v>
+        <v>306100</v>
       </c>
       <c r="G9" s="3">
-        <v>344000</v>
+        <v>403200</v>
       </c>
       <c r="H9" s="3">
-        <v>331400</v>
+        <v>355000</v>
       </c>
       <c r="I9" s="3">
-        <v>291100</v>
+        <v>342000</v>
       </c>
       <c r="J9" s="3">
+        <v>300300</v>
+      </c>
+      <c r="K9" s="3">
         <v>333100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>323300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>312700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>305600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>308100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>290000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>255900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>207500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>183900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>151600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>125100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>102200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>93900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>75700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>59900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>55700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>56300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>30500</v>
+        <v>31500</v>
       </c>
       <c r="E10" s="3">
-        <v>46400</v>
+        <v>97100</v>
       </c>
       <c r="F10" s="3">
+        <v>47900</v>
+      </c>
+      <c r="G10" s="3">
         <v>100</v>
       </c>
-      <c r="G10" s="3">
-        <v>70200</v>
-      </c>
       <c r="H10" s="3">
-        <v>80900</v>
+        <v>72400</v>
       </c>
       <c r="I10" s="3">
-        <v>71500</v>
+        <v>83500</v>
       </c>
       <c r="J10" s="3">
+        <v>73800</v>
+      </c>
+      <c r="K10" s="3">
         <v>83200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>91400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>84700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>74900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>71800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>63400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>51300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>41800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>34700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>27100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>23900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>18800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>16000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>10900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>8500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-7000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>23400</v>
+        <v>24200</v>
       </c>
       <c r="E12" s="3">
-        <v>27300</v>
+        <v>52900</v>
       </c>
       <c r="F12" s="3">
+        <v>28200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>29500</v>
+      </c>
+      <c r="H12" s="3">
+        <v>29600</v>
+      </c>
+      <c r="I12" s="3">
+        <v>29900</v>
+      </c>
+      <c r="J12" s="3">
         <v>28600</v>
       </c>
-      <c r="G12" s="3">
-        <v>28700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>28900</v>
-      </c>
-      <c r="I12" s="3">
-        <v>27700</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>30000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>26900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>26500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>24600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>27500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>21100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>16100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>13800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>11500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>10400</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>8600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>7400</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>6500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>7300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>5200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>7700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>328000</v>
+        <v>338400</v>
       </c>
       <c r="E17" s="3">
-        <v>351500</v>
+        <v>702600</v>
       </c>
       <c r="F17" s="3">
-        <v>454600</v>
+        <v>362600</v>
       </c>
       <c r="G17" s="3">
-        <v>402600</v>
+        <v>469100</v>
       </c>
       <c r="H17" s="3">
-        <v>387000</v>
+        <v>415400</v>
       </c>
       <c r="I17" s="3">
-        <v>340000</v>
+        <v>399300</v>
       </c>
       <c r="J17" s="3">
+        <v>350800</v>
+      </c>
+      <c r="K17" s="3">
         <v>390200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>381900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>370700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>359500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>364300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>343400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>296800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>244900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>215900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>179100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>151500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>117000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>110200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>91700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>71000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>64100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>69400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-11300</v>
+        <v>-11600</v>
       </c>
       <c r="E18" s="3">
-        <v>-8400</v>
+        <v>-7000</v>
       </c>
       <c r="F18" s="3">
-        <v>-63700</v>
+        <v>-8600</v>
       </c>
       <c r="G18" s="3">
-        <v>11600</v>
+        <v>-65700</v>
       </c>
       <c r="H18" s="3">
-        <v>25300</v>
+        <v>11900</v>
       </c>
       <c r="I18" s="3">
-        <v>22600</v>
+        <v>26100</v>
       </c>
       <c r="J18" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K18" s="3">
         <v>26100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>32800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>4300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-2500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-5100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-20100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,85 +1582,89 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>8700</v>
+        <v>9000</v>
       </c>
       <c r="E20" s="3">
-        <v>9300</v>
+        <v>19400</v>
       </c>
       <c r="F20" s="3">
-        <v>8600</v>
+        <v>9600</v>
       </c>
       <c r="G20" s="3">
-        <v>14400</v>
+        <v>8900</v>
       </c>
       <c r="H20" s="3">
-        <v>8600</v>
+        <v>14800</v>
       </c>
       <c r="I20" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="J20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K20" s="3">
         <v>10300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>11900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>11300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>12100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>13600</v>
       </c>
       <c r="O20" s="3">
         <v>13600</v>
       </c>
       <c r="P20" s="3">
+        <v>13600</v>
+      </c>
+      <c r="Q20" s="3">
         <v>11600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>8300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>7700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>7100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-320100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>300</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>100</v>
       </c>
       <c r="Z20" s="3">
         <v>100</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,8 +1820,11 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1789,76 +1832,79 @@
         <v>-2600</v>
       </c>
       <c r="E23" s="3">
+        <v>12400</v>
+      </c>
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
-        <v>-55100</v>
-      </c>
       <c r="G23" s="3">
-        <v>25900</v>
+        <v>-56800</v>
       </c>
       <c r="H23" s="3">
-        <v>34000</v>
+        <v>26700</v>
       </c>
       <c r="I23" s="3">
-        <v>31300</v>
+        <v>35000</v>
       </c>
       <c r="J23" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K23" s="3">
         <v>36300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>44700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>38000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>33100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>29300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>23600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>21900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>12600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>10300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-322600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>3900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-4300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1866,59 +1912,59 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
-        <v>1300</v>
+        <v>4200</v>
       </c>
       <c r="F24" s="3">
-        <v>-11600</v>
+        <v>1400</v>
       </c>
       <c r="G24" s="3">
-        <v>5600</v>
+        <v>-11900</v>
       </c>
       <c r="H24" s="3">
-        <v>8100</v>
+        <v>5800</v>
       </c>
       <c r="I24" s="3">
-        <v>5500</v>
+        <v>8400</v>
       </c>
       <c r="J24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K24" s="3">
         <v>5200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>3300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-4600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-600</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="E26" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
-        <v>-43500</v>
-      </c>
       <c r="G26" s="3">
-        <v>20300</v>
+        <v>-44900</v>
       </c>
       <c r="H26" s="3">
-        <v>25800</v>
+        <v>20900</v>
       </c>
       <c r="I26" s="3">
-        <v>25800</v>
+        <v>26700</v>
       </c>
       <c r="J26" s="3">
+        <v>26700</v>
+      </c>
+      <c r="K26" s="3">
         <v>31200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>37300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>27200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>19200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>18600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>9700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>15000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>7900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-321700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-4300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="E27" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
-        <v>-43500</v>
-      </c>
       <c r="G27" s="3">
-        <v>73000</v>
+        <v>-44900</v>
       </c>
       <c r="H27" s="3">
-        <v>25900</v>
+        <v>75300</v>
       </c>
       <c r="I27" s="3">
-        <v>25800</v>
+        <v>26700</v>
       </c>
       <c r="J27" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K27" s="3">
         <v>35200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>37300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>27000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>19200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>18600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>9700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>14500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>7900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-310800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-71200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-5800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-8700</v>
+        <v>-9000</v>
       </c>
       <c r="E32" s="3">
-        <v>-9300</v>
+        <v>-19400</v>
       </c>
       <c r="F32" s="3">
-        <v>-8600</v>
+        <v>-9600</v>
       </c>
       <c r="G32" s="3">
-        <v>-14400</v>
+        <v>-8900</v>
       </c>
       <c r="H32" s="3">
-        <v>-8600</v>
+        <v>-14800</v>
       </c>
       <c r="I32" s="3">
-        <v>-8700</v>
+        <v>-8900</v>
       </c>
       <c r="J32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-10300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-11900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-11300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-12100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-13600</v>
       </c>
       <c r="O32" s="3">
         <v>-13600</v>
       </c>
       <c r="P32" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-8300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-7700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-7100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>320100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>-100</v>
       </c>
       <c r="Z32" s="3">
         <v>-100</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="E33" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
-        <v>-43500</v>
-      </c>
       <c r="G33" s="3">
-        <v>73000</v>
+        <v>-44900</v>
       </c>
       <c r="H33" s="3">
-        <v>25900</v>
+        <v>75300</v>
       </c>
       <c r="I33" s="3">
-        <v>25800</v>
+        <v>26700</v>
       </c>
       <c r="J33" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K33" s="3">
         <v>35200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>37300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>30500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>27000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>24600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>19200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>18600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>9700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>14500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>7900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-310800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-71200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-5800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="E35" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
-        <v>-43500</v>
-      </c>
       <c r="G35" s="3">
-        <v>73000</v>
+        <v>-44900</v>
       </c>
       <c r="H35" s="3">
-        <v>25900</v>
+        <v>75300</v>
       </c>
       <c r="I35" s="3">
-        <v>25800</v>
+        <v>26700</v>
       </c>
       <c r="J35" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K35" s="3">
         <v>35200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>37300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>30500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>27000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>24600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>19200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>18600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>9700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>14500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>7900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-310800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-71200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-5800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,68 +3007,69 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1491400</v>
+        <v>1529700</v>
       </c>
       <c r="E41" s="3">
-        <v>1357100</v>
+        <v>1538800</v>
       </c>
       <c r="F41" s="3">
-        <v>1411900</v>
+        <v>1400200</v>
       </c>
       <c r="G41" s="3">
-        <v>1407300</v>
+        <v>1456700</v>
       </c>
       <c r="H41" s="3">
-        <v>1341000</v>
+        <v>1452000</v>
       </c>
       <c r="I41" s="3">
-        <v>1328000</v>
+        <v>1383600</v>
       </c>
       <c r="J41" s="3">
+        <v>1370200</v>
+      </c>
+      <c r="K41" s="3">
         <v>1290200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1341400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1230000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1243000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1209800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1322900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1254600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>869400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>826800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>805000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>770000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>584200</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>16</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3007,56 +3097,56 @@
         <v>300</v>
       </c>
       <c r="E42" s="3">
-        <v>100800</v>
+        <v>400</v>
       </c>
       <c r="F42" s="3">
-        <v>113600</v>
+        <v>104000</v>
       </c>
       <c r="G42" s="3">
-        <v>140600</v>
+        <v>117200</v>
       </c>
       <c r="H42" s="3">
-        <v>153800</v>
+        <v>145000</v>
       </c>
       <c r="I42" s="3">
-        <v>154600</v>
+        <v>158700</v>
       </c>
       <c r="J42" s="3">
+        <v>159500</v>
+      </c>
+      <c r="K42" s="3">
         <v>168000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>249800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>353400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>384600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>341800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>165000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>137700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>97600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>43600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>17000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>21300</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="V42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3075,68 +3165,71 @@
       <c r="AA42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>30500</v>
+        <v>22500</v>
       </c>
       <c r="E43" s="3">
-        <v>30600</v>
+        <v>31400</v>
       </c>
       <c r="F43" s="3">
-        <v>32900</v>
+        <v>31500</v>
       </c>
       <c r="G43" s="3">
-        <v>39800</v>
+        <v>34000</v>
       </c>
       <c r="H43" s="3">
-        <v>39800</v>
+        <v>41100</v>
       </c>
       <c r="I43" s="3">
-        <v>32700</v>
+        <v>41000</v>
       </c>
       <c r="J43" s="3">
+        <v>33800</v>
+      </c>
+      <c r="K43" s="3">
         <v>18900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>19000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>17100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>17600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>17500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>25700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>14600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>33500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>41100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>18500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>19900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>19800</v>
       </c>
-      <c r="V43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,68 +3325,71 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>111300</v>
+        <v>146000</v>
       </c>
       <c r="E45" s="3">
-        <v>129300</v>
+        <v>114900</v>
       </c>
       <c r="F45" s="3">
-        <v>100300</v>
+        <v>133400</v>
       </c>
       <c r="G45" s="3">
-        <v>130500</v>
+        <v>103500</v>
       </c>
       <c r="H45" s="3">
-        <v>104400</v>
+        <v>134700</v>
       </c>
       <c r="I45" s="3">
+        <v>107700</v>
+      </c>
+      <c r="J45" s="3">
+        <v>94800</v>
+      </c>
+      <c r="K45" s="3">
         <v>91900</v>
       </c>
-      <c r="J45" s="3">
-        <v>91900</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>71800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>61100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>63100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>61900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>68100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>46800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>35500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>46400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>32700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>24700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>12200</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3306,68 +3405,71 @@
       <c r="AA45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1633600</v>
+        <v>1698500</v>
       </c>
       <c r="E46" s="3">
-        <v>1617800</v>
+        <v>1685400</v>
       </c>
       <c r="F46" s="3">
-        <v>1658700</v>
+        <v>1669200</v>
       </c>
       <c r="G46" s="3">
-        <v>1718200</v>
+        <v>1711400</v>
       </c>
       <c r="H46" s="3">
-        <v>1638900</v>
+        <v>1772700</v>
       </c>
       <c r="I46" s="3">
-        <v>1607300</v>
+        <v>1690900</v>
       </c>
       <c r="J46" s="3">
+        <v>1658300</v>
+      </c>
+      <c r="K46" s="3">
         <v>1568900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1682100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1661600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1708300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1630900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1581700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1453600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1035900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>957800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>873300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>835800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>616200</v>
       </c>
-      <c r="V46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3383,68 +3485,71 @@
       <c r="AA46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>125200</v>
+        <v>132400</v>
       </c>
       <c r="E47" s="3">
-        <v>120400</v>
+        <v>129200</v>
       </c>
       <c r="F47" s="3">
-        <v>84700</v>
+        <v>124200</v>
       </c>
       <c r="G47" s="3">
-        <v>81000</v>
+        <v>87400</v>
       </c>
       <c r="H47" s="3">
-        <v>70300</v>
+        <v>83600</v>
       </c>
       <c r="I47" s="3">
-        <v>70900</v>
+        <v>72500</v>
       </c>
       <c r="J47" s="3">
+        <v>73200</v>
+      </c>
+      <c r="K47" s="3">
         <v>65000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>66400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>63400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>63500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>58400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>57400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>56200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>50200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>31900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>29800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>30400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>100</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3460,68 +3565,71 @@
       <c r="AA47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>70900</v>
+        <v>74500</v>
       </c>
       <c r="E48" s="3">
-        <v>64600</v>
+        <v>73100</v>
       </c>
       <c r="F48" s="3">
-        <v>66100</v>
+        <v>66700</v>
       </c>
       <c r="G48" s="3">
-        <v>67800</v>
+        <v>68200</v>
       </c>
       <c r="H48" s="3">
+        <v>70000</v>
+      </c>
+      <c r="I48" s="3">
+        <v>26100</v>
+      </c>
+      <c r="J48" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K48" s="3">
         <v>25300</v>
       </c>
-      <c r="I48" s="3">
-        <v>22600</v>
-      </c>
-      <c r="J48" s="3">
-        <v>25300</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>30900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>33500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>33600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>28900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>11700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>10000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5500</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3537,68 +3645,71 @@
       <c r="AA48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>10000</v>
+        <v>9100</v>
       </c>
       <c r="E49" s="3">
-        <v>11000</v>
+        <v>10400</v>
       </c>
       <c r="F49" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="G49" s="3">
-        <v>12600</v>
+        <v>12100</v>
       </c>
       <c r="H49" s="3">
-        <v>13200</v>
+        <v>13000</v>
       </c>
       <c r="I49" s="3">
-        <v>7100</v>
+        <v>13600</v>
       </c>
       <c r="J49" s="3">
+        <v>7300</v>
+      </c>
+      <c r="K49" s="3">
         <v>8700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>10700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>6900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>7400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>6900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>7500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>800</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,68 +3885,71 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>26000</v>
+        <v>70800</v>
       </c>
       <c r="E52" s="3">
-        <v>29600</v>
+        <v>26800</v>
       </c>
       <c r="F52" s="3">
-        <v>23800</v>
+        <v>30600</v>
       </c>
       <c r="G52" s="3">
         <v>24600</v>
       </c>
       <c r="H52" s="3">
-        <v>62800</v>
+        <v>25400</v>
       </c>
       <c r="I52" s="3">
-        <v>61900</v>
+        <v>64800</v>
       </c>
       <c r="J52" s="3">
+        <v>63900</v>
+      </c>
+      <c r="K52" s="3">
         <v>59500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>21700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>28900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>27700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>23200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>25400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>23300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>20600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>22000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>10500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5400</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,68 +4045,71 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1865600</v>
+        <v>1985200</v>
       </c>
       <c r="E54" s="3">
-        <v>1843400</v>
+        <v>1924900</v>
       </c>
       <c r="F54" s="3">
-        <v>1845100</v>
+        <v>1902000</v>
       </c>
       <c r="G54" s="3">
-        <v>1904300</v>
+        <v>1903700</v>
       </c>
       <c r="H54" s="3">
-        <v>1810500</v>
+        <v>1964800</v>
       </c>
       <c r="I54" s="3">
-        <v>1769900</v>
+        <v>1868000</v>
       </c>
       <c r="J54" s="3">
+        <v>1826100</v>
+      </c>
+      <c r="K54" s="3">
         <v>1727600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1810900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1794500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1835600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1750200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1705400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1573700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1143100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1032000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>932300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>883600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>627900</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>16</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,67 +4187,68 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5200</v>
+        <v>3000</v>
       </c>
       <c r="E57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>8100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="M57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
+        <v>600</v>
+      </c>
+      <c r="P57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="R57" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
-        <v>7800</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="U57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2900</v>
-      </c>
-      <c r="L57" s="3">
-        <v>5100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="P57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>2600</v>
-      </c>
-      <c r="T57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>16</v>
+      <c r="V57" s="3">
+        <v>0</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>16</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4211,68 +4345,71 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>311200</v>
+        <v>316800</v>
       </c>
       <c r="E59" s="3">
-        <v>339400</v>
+        <v>321100</v>
       </c>
       <c r="F59" s="3">
-        <v>356800</v>
+        <v>350200</v>
       </c>
       <c r="G59" s="3">
-        <v>362500</v>
+        <v>368200</v>
       </c>
       <c r="H59" s="3">
-        <v>344200</v>
+        <v>374000</v>
       </c>
       <c r="I59" s="3">
-        <v>329400</v>
+        <v>355100</v>
       </c>
       <c r="J59" s="3">
+        <v>339900</v>
+      </c>
+      <c r="K59" s="3">
         <v>330600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>340500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>362100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>368100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>376200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>337600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>298300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>242600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>199100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>151400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>128700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>244600</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4288,68 +4425,71 @@
       <c r="AA59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>316400</v>
+        <v>319800</v>
       </c>
       <c r="E60" s="3">
-        <v>341100</v>
+        <v>326400</v>
       </c>
       <c r="F60" s="3">
-        <v>358600</v>
+        <v>351900</v>
       </c>
       <c r="G60" s="3">
-        <v>365200</v>
+        <v>370000</v>
       </c>
       <c r="H60" s="3">
-        <v>352000</v>
+        <v>376800</v>
       </c>
       <c r="I60" s="3">
-        <v>330500</v>
+        <v>363200</v>
       </c>
       <c r="J60" s="3">
+        <v>341000</v>
+      </c>
+      <c r="K60" s="3">
         <v>332000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>343400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>367200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>368500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>376700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>339300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>301100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>245600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>154000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>129600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>244600</v>
       </c>
-      <c r="V60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,68 +4585,71 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19900</v>
+        <v>17600</v>
       </c>
       <c r="E62" s="3">
-        <v>23700</v>
+        <v>20600</v>
       </c>
       <c r="F62" s="3">
-        <v>23500</v>
+        <v>24500</v>
       </c>
       <c r="G62" s="3">
-        <v>28000</v>
+        <v>24200</v>
       </c>
       <c r="H62" s="3">
-        <v>33700</v>
+        <v>28900</v>
       </c>
       <c r="I62" s="3">
-        <v>34600</v>
+        <v>34800</v>
       </c>
       <c r="J62" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K62" s="3">
         <v>34700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>35000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>37800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>38500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>36200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>33300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>27800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>11700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7000</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,68 +4905,71 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>336300</v>
+        <v>337400</v>
       </c>
       <c r="E66" s="3">
-        <v>364800</v>
+        <v>347000</v>
       </c>
       <c r="F66" s="3">
-        <v>382100</v>
+        <v>376400</v>
       </c>
       <c r="G66" s="3">
-        <v>393100</v>
+        <v>394200</v>
       </c>
       <c r="H66" s="3">
-        <v>385700</v>
+        <v>405600</v>
       </c>
       <c r="I66" s="3">
-        <v>365000</v>
+        <v>398000</v>
       </c>
       <c r="J66" s="3">
+        <v>376600</v>
+      </c>
+      <c r="K66" s="3">
         <v>366600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>378400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>405000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>407000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>412900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>374500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>334300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>273300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>212200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>163700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>140300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>251600</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5067,11 +5235,11 @@
         <v>0</v>
       </c>
       <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
         <v>434700</v>
       </c>
-      <c r="V70" s="3">
-        <v>0</v>
-      </c>
       <c r="W70" s="3">
         <v>0</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,68 +5335,71 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-167100</v>
+        <v>-163700</v>
       </c>
       <c r="E72" s="3">
-        <v>-164400</v>
+        <v>-172400</v>
       </c>
       <c r="F72" s="3">
-        <v>-163900</v>
+        <v>-169600</v>
       </c>
       <c r="G72" s="3">
-        <v>-120400</v>
+        <v>-169100</v>
       </c>
       <c r="H72" s="3">
-        <v>-193400</v>
+        <v>-124200</v>
       </c>
       <c r="I72" s="3">
-        <v>-219300</v>
+        <v>-199500</v>
       </c>
       <c r="J72" s="3">
+        <v>-226300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-245200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-296800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-224900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-276600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-295900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-324700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-336800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-355400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-347000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-348400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-365300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-59100</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,68 +5655,71 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1529300</v>
+        <v>1647900</v>
       </c>
       <c r="E76" s="3">
-        <v>1478600</v>
+        <v>1577800</v>
       </c>
       <c r="F76" s="3">
-        <v>1463000</v>
+        <v>1525600</v>
       </c>
       <c r="G76" s="3">
-        <v>1511200</v>
+        <v>1509500</v>
       </c>
       <c r="H76" s="3">
-        <v>1424800</v>
+        <v>1559200</v>
       </c>
       <c r="I76" s="3">
-        <v>1404800</v>
+        <v>1470100</v>
       </c>
       <c r="J76" s="3">
+        <v>1449400</v>
+      </c>
+      <c r="K76" s="3">
         <v>1360900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1432500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1389500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1428600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1337300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1330900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1239400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>869700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>819800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>768600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>743300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-58300</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="E81" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
-        <v>-43500</v>
-      </c>
       <c r="G81" s="3">
-        <v>73000</v>
+        <v>-44900</v>
       </c>
       <c r="H81" s="3">
-        <v>25900</v>
+        <v>75300</v>
       </c>
       <c r="I81" s="3">
-        <v>25800</v>
+        <v>26700</v>
       </c>
       <c r="J81" s="3">
+        <v>26600</v>
+      </c>
+      <c r="K81" s="3">
         <v>35200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>37300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>30500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>27000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>24600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>19200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>18600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>9700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>7900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-310800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-71200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-5800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-6100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,8 +6490,11 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>HUYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,384 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>326800</v>
+        <v>277100</v>
       </c>
       <c r="E8" s="3">
-        <v>695600</v>
+        <v>298800</v>
       </c>
       <c r="F8" s="3">
-        <v>354000</v>
+        <v>338100</v>
       </c>
       <c r="G8" s="3">
-        <v>403400</v>
+        <v>323400</v>
       </c>
       <c r="H8" s="3">
-        <v>427300</v>
+        <v>350300</v>
       </c>
       <c r="I8" s="3">
+        <v>399300</v>
+      </c>
+      <c r="J8" s="3">
+        <v>423000</v>
+      </c>
+      <c r="K8" s="3">
         <v>425500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>374100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>416200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>414800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>397500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>380500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>379900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>353400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>307200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>249300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>218600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>178700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>149000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>121000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>110000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>86600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>68500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>58000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>49300</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>295300</v>
+        <v>240600</v>
       </c>
       <c r="E9" s="3">
-        <v>598500</v>
+        <v>339200</v>
       </c>
       <c r="F9" s="3">
-        <v>306100</v>
+        <v>289400</v>
       </c>
       <c r="G9" s="3">
-        <v>403200</v>
+        <v>292300</v>
       </c>
       <c r="H9" s="3">
-        <v>355000</v>
+        <v>302900</v>
       </c>
       <c r="I9" s="3">
+        <v>399100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>351300</v>
+      </c>
+      <c r="K9" s="3">
         <v>342000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>300300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>333100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>323300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>312700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>305600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>308100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>290000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>255900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>207500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>183900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>151600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>125100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>102200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>93900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>75700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>59900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>55700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>56300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>31500</v>
+        <v>36500</v>
       </c>
       <c r="E10" s="3">
-        <v>97100</v>
+        <v>-40400</v>
       </c>
       <c r="F10" s="3">
-        <v>47900</v>
+        <v>48700</v>
       </c>
       <c r="G10" s="3">
+        <v>31200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>47400</v>
+      </c>
+      <c r="I10" s="3">
         <v>100</v>
       </c>
-      <c r="H10" s="3">
-        <v>72400</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>71600</v>
+      </c>
+      <c r="K10" s="3">
         <v>83500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>73800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>83200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>91400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>84700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>74900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>71800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>63400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>51300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>41800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>34700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>27100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>23900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>18800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>16000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>10900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>8500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>2300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>-7000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1071,96 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>24200</v>
+        <v>21700</v>
       </c>
       <c r="E12" s="3">
-        <v>52900</v>
+        <v>20500</v>
       </c>
       <c r="F12" s="3">
-        <v>28200</v>
+        <v>24400</v>
       </c>
       <c r="G12" s="3">
-        <v>29500</v>
+        <v>23900</v>
       </c>
       <c r="H12" s="3">
-        <v>29600</v>
+        <v>27900</v>
       </c>
       <c r="I12" s="3">
+        <v>29200</v>
+      </c>
+      <c r="J12" s="3">
+        <v>29300</v>
+      </c>
+      <c r="K12" s="3">
         <v>29900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>28600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>30000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>26900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>26500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>24600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>27500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>21100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>16100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>13800</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>11500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>10400</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>8600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>7400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>6500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>7300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>5200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>6200</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>7700</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,8 +1239,14 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1215,22 +1254,22 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>7800</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>338400</v>
+        <v>284300</v>
       </c>
       <c r="E17" s="3">
-        <v>702600</v>
+        <v>388700</v>
       </c>
       <c r="F17" s="3">
-        <v>362600</v>
+        <v>336500</v>
       </c>
       <c r="G17" s="3">
-        <v>469100</v>
+        <v>334900</v>
       </c>
       <c r="H17" s="3">
-        <v>415400</v>
+        <v>358900</v>
       </c>
       <c r="I17" s="3">
+        <v>464300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>411200</v>
+      </c>
+      <c r="K17" s="3">
         <v>399300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>350800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>390200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>381900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>370700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>359500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>364300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>343400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>296800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>244900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>215900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>179100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>151500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>117000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>110200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>91700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>71000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>64100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>69400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-11600</v>
+        <v>-7200</v>
       </c>
       <c r="E18" s="3">
-        <v>-7000</v>
+        <v>-89800</v>
       </c>
       <c r="F18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-8600</v>
       </c>
-      <c r="G18" s="3">
-        <v>-65700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>11900</v>
-      </c>
       <c r="I18" s="3">
-        <v>26100</v>
+        <v>-65000</v>
       </c>
       <c r="J18" s="3">
-        <v>23300</v>
+        <v>11800</v>
       </c>
       <c r="K18" s="3">
         <v>26100</v>
       </c>
       <c r="L18" s="3">
+        <v>23300</v>
+      </c>
+      <c r="M18" s="3">
+        <v>26100</v>
+      </c>
+      <c r="N18" s="3">
         <v>32800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>26700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>21000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>15700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>10000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>10300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>4300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>2700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-2500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>4000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-5100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-20100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,88 +1648,96 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>9000</v>
+        <v>13800</v>
       </c>
       <c r="E20" s="3">
-        <v>19400</v>
+        <v>15000</v>
       </c>
       <c r="F20" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="G20" s="3">
         <v>8900</v>
       </c>
       <c r="H20" s="3">
-        <v>14800</v>
+        <v>9500</v>
       </c>
       <c r="I20" s="3">
+        <v>8800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>14700</v>
+      </c>
+      <c r="K20" s="3">
         <v>8900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>10300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>11900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>11300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>12100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>13600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>13600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>11600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>8300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>7700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>7100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-320100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1743,8 +1816,14 @@
       <c r="AB21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,88 +1902,100 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-74800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
-        <v>12400</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-56800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>26700</v>
-      </c>
       <c r="I23" s="3">
+        <v>-56200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>26500</v>
+      </c>
+      <c r="K23" s="3">
         <v>35000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>32300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>36300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>44700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>38000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>33100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>29300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>23600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>21900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>12600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>10300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>6700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-322600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>3900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-20000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1912,65 +2003,65 @@
         <v>200</v>
       </c>
       <c r="E24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K24" s="3">
+        <v>8400</v>
+      </c>
+      <c r="L24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="M24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N24" s="3">
+        <v>7500</v>
+      </c>
+      <c r="O24" s="3">
+        <v>7600</v>
+      </c>
+      <c r="P24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Q24" s="3">
         <v>4200</v>
       </c>
-      <c r="F24" s="3">
-        <v>1400</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-11900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I24" s="3">
-        <v>8400</v>
-      </c>
-      <c r="J24" s="3">
-        <v>5700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>5200</v>
-      </c>
-      <c r="L24" s="3">
-        <v>7500</v>
-      </c>
-      <c r="M24" s="3">
-        <v>7600</v>
-      </c>
-      <c r="N24" s="3">
-        <v>5900</v>
-      </c>
-      <c r="O24" s="3">
-        <v>4200</v>
-      </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>3300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-4600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>-1200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>-900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>-600</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
-        <v>8300</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3">
-        <v>-44900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>20900</v>
-      </c>
       <c r="I26" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K26" s="3">
         <v>26700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>26700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>31200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>37300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>30500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>27200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>25000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>19200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>18600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>9700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>15000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>7900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-321700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>4500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-20000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-44900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>75300</v>
-      </c>
       <c r="I27" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>74500</v>
+      </c>
+      <c r="K27" s="3">
         <v>26700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>26600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>35200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>37300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>30500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>27000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>24600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>19200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>18600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>9700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>14500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>7900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-310800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-71200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-5800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-20000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-9000</v>
+        <v>-13800</v>
       </c>
       <c r="E32" s="3">
-        <v>-19400</v>
+        <v>-15000</v>
       </c>
       <c r="F32" s="3">
-        <v>-9600</v>
+        <v>-9700</v>
       </c>
       <c r="G32" s="3">
         <v>-8900</v>
       </c>
       <c r="H32" s="3">
-        <v>-14800</v>
+        <v>-9500</v>
       </c>
       <c r="I32" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-10300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-11900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-11300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-12100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-13600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-11600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-8300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-7700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-7100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>320100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
-        <v>-44900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>75300</v>
-      </c>
       <c r="I33" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>74500</v>
+      </c>
+      <c r="K33" s="3">
         <v>26700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>26600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>35200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>37300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>30500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>27000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>24600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>19200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>18600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>9700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>14500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>7900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-310800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-71200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-5800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-20000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
-        <v>-44900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>75300</v>
-      </c>
       <c r="I35" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>74500</v>
+      </c>
+      <c r="K35" s="3">
         <v>26700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>26600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>35200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>37300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>30500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>27000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>24600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>19200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>18600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>9700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>14500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>7900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-310800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-71200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-5800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-20000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,74 +3179,76 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1529700</v>
+        <v>1388900</v>
       </c>
       <c r="E41" s="3">
-        <v>1538800</v>
+        <v>1375100</v>
       </c>
       <c r="F41" s="3">
-        <v>1400200</v>
+        <v>1514000</v>
       </c>
       <c r="G41" s="3">
-        <v>1456700</v>
+        <v>1523000</v>
       </c>
       <c r="H41" s="3">
-        <v>1452000</v>
+        <v>1385900</v>
       </c>
       <c r="I41" s="3">
+        <v>1441800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1437100</v>
+      </c>
+      <c r="K41" s="3">
         <v>1383600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>1370200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1290200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>1341400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1230000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1243000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1209800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1322900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1254600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>869400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>826800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>805000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>770000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>584200</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y41" s="3" t="s">
         <v>16</v>
       </c>
@@ -3088,71 +3261,77 @@
       <c r="AB41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
         <v>400</v>
       </c>
       <c r="F42" s="3">
-        <v>104000</v>
+        <v>300</v>
       </c>
       <c r="G42" s="3">
-        <v>117200</v>
+        <v>300</v>
       </c>
       <c r="H42" s="3">
-        <v>145000</v>
+        <v>102900</v>
       </c>
       <c r="I42" s="3">
+        <v>116000</v>
+      </c>
+      <c r="J42" s="3">
+        <v>143500</v>
+      </c>
+      <c r="K42" s="3">
         <v>158700</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>159500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>168000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>249800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>353400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>384600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>341800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>165000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>137700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>97600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>43600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>17000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>21300</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3168,74 +3347,80 @@
       <c r="AB42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22500</v>
+        <v>21100</v>
       </c>
       <c r="E43" s="3">
-        <v>31400</v>
+        <v>19300</v>
       </c>
       <c r="F43" s="3">
-        <v>31500</v>
+        <v>22200</v>
       </c>
       <c r="G43" s="3">
-        <v>34000</v>
+        <v>31100</v>
       </c>
       <c r="H43" s="3">
+        <v>31200</v>
+      </c>
+      <c r="I43" s="3">
+        <v>33600</v>
+      </c>
+      <c r="J43" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K43" s="3">
+        <v>41000</v>
+      </c>
+      <c r="L43" s="3">
+        <v>33800</v>
+      </c>
+      <c r="M43" s="3">
+        <v>18900</v>
+      </c>
+      <c r="N43" s="3">
+        <v>19000</v>
+      </c>
+      <c r="O43" s="3">
+        <v>17100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>17600</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>17500</v>
+      </c>
+      <c r="R43" s="3">
+        <v>25700</v>
+      </c>
+      <c r="S43" s="3">
+        <v>14600</v>
+      </c>
+      <c r="T43" s="3">
+        <v>33500</v>
+      </c>
+      <c r="U43" s="3">
         <v>41100</v>
       </c>
-      <c r="I43" s="3">
-        <v>41000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>33800</v>
-      </c>
-      <c r="K43" s="3">
-        <v>18900</v>
-      </c>
-      <c r="L43" s="3">
-        <v>19000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>17100</v>
-      </c>
-      <c r="N43" s="3">
-        <v>17600</v>
-      </c>
-      <c r="O43" s="3">
-        <v>17500</v>
-      </c>
-      <c r="P43" s="3">
-        <v>25700</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>14600</v>
-      </c>
-      <c r="R43" s="3">
-        <v>33500</v>
-      </c>
-      <c r="S43" s="3">
-        <v>41100</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>18500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>19900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>19800</v>
       </c>
-      <c r="W43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3248,8 +3433,14 @@
       <c r="AB43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,74 +3519,80 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>146000</v>
+        <v>83400</v>
       </c>
       <c r="E45" s="3">
-        <v>114900</v>
+        <v>91200</v>
       </c>
       <c r="F45" s="3">
-        <v>133400</v>
+        <v>144500</v>
       </c>
       <c r="G45" s="3">
-        <v>103500</v>
+        <v>113700</v>
       </c>
       <c r="H45" s="3">
-        <v>134700</v>
+        <v>132100</v>
       </c>
       <c r="I45" s="3">
+        <v>102400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>133300</v>
+      </c>
+      <c r="K45" s="3">
         <v>107700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>94800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>91900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>71800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>61100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>63100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>61900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>68100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>46800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>35500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>46400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>32700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>24700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>12200</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3408,74 +3605,80 @@
       <c r="AB45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1698500</v>
+        <v>1493300</v>
       </c>
       <c r="E46" s="3">
-        <v>1685400</v>
+        <v>1486000</v>
       </c>
       <c r="F46" s="3">
-        <v>1669200</v>
+        <v>1681100</v>
       </c>
       <c r="G46" s="3">
-        <v>1711400</v>
+        <v>1668200</v>
       </c>
       <c r="H46" s="3">
-        <v>1772700</v>
+        <v>1652100</v>
       </c>
       <c r="I46" s="3">
+        <v>1693900</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1754600</v>
+      </c>
+      <c r="K46" s="3">
         <v>1690900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1658300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1568900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1682100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1661600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1708300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1630900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1581700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1453600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1035900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>957800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>873300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>835800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>616200</v>
       </c>
-      <c r="W46" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3488,74 +3691,80 @@
       <c r="AB46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>132400</v>
+        <v>140300</v>
       </c>
       <c r="E47" s="3">
-        <v>129200</v>
+        <v>128800</v>
       </c>
       <c r="F47" s="3">
-        <v>124200</v>
+        <v>131000</v>
       </c>
       <c r="G47" s="3">
-        <v>87400</v>
+        <v>127800</v>
       </c>
       <c r="H47" s="3">
-        <v>83600</v>
+        <v>123000</v>
       </c>
       <c r="I47" s="3">
+        <v>86500</v>
+      </c>
+      <c r="J47" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K47" s="3">
         <v>72500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>73200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>65000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>66400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>63400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>63500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>58400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>57400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>56200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>50200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>31900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>29800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>30400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>100</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3568,74 +3777,80 @@
       <c r="AB47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>74500</v>
+        <v>79200</v>
       </c>
       <c r="E48" s="3">
-        <v>73100</v>
+        <v>77600</v>
       </c>
       <c r="F48" s="3">
-        <v>66700</v>
+        <v>73700</v>
       </c>
       <c r="G48" s="3">
-        <v>68200</v>
+        <v>72400</v>
       </c>
       <c r="H48" s="3">
-        <v>70000</v>
+        <v>66000</v>
       </c>
       <c r="I48" s="3">
+        <v>67500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>69300</v>
+      </c>
+      <c r="K48" s="3">
         <v>26100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>23300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>25300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>30000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>30900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>29100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>30700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>33500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>33600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>28900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>12700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>11700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>10000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>5500</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3648,49 +3863,55 @@
       <c r="AB48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9100</v>
+        <v>7400</v>
       </c>
       <c r="E49" s="3">
-        <v>10400</v>
+        <v>8200</v>
       </c>
       <c r="F49" s="3">
-        <v>11300</v>
+        <v>9000</v>
       </c>
       <c r="G49" s="3">
-        <v>12100</v>
+        <v>10200</v>
       </c>
       <c r="H49" s="3">
-        <v>13000</v>
+        <v>11200</v>
       </c>
       <c r="I49" s="3">
+        <v>11900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>12900</v>
+      </c>
+      <c r="K49" s="3">
         <v>13600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>7300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>8700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>10700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>9700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>7000</v>
-      </c>
-      <c r="O49" s="3">
-        <v>6900</v>
-      </c>
-      <c r="P49" s="3">
-        <v>7400</v>
       </c>
       <c r="Q49" s="3">
         <v>6900</v>
@@ -3699,23 +3920,23 @@
         <v>7400</v>
       </c>
       <c r="S49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="T49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="U49" s="3">
         <v>7500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>7000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>5200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>800</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,74 +4121,80 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>70800</v>
+        <v>95500</v>
       </c>
       <c r="E52" s="3">
-        <v>26800</v>
+        <v>168200</v>
       </c>
       <c r="F52" s="3">
-        <v>30600</v>
+        <v>70100</v>
       </c>
       <c r="G52" s="3">
-        <v>24600</v>
+        <v>26500</v>
       </c>
       <c r="H52" s="3">
+        <v>30200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>24300</v>
+      </c>
+      <c r="J52" s="3">
+        <v>25200</v>
+      </c>
+      <c r="K52" s="3">
+        <v>64800</v>
+      </c>
+      <c r="L52" s="3">
+        <v>63900</v>
+      </c>
+      <c r="M52" s="3">
+        <v>59500</v>
+      </c>
+      <c r="N52" s="3">
+        <v>21700</v>
+      </c>
+      <c r="O52" s="3">
+        <v>28900</v>
+      </c>
+      <c r="P52" s="3">
+        <v>27700</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>23200</v>
+      </c>
+      <c r="R52" s="3">
         <v>25400</v>
       </c>
-      <c r="I52" s="3">
-        <v>64800</v>
-      </c>
-      <c r="J52" s="3">
-        <v>63900</v>
-      </c>
-      <c r="K52" s="3">
-        <v>59500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>21700</v>
-      </c>
-      <c r="M52" s="3">
-        <v>28900</v>
-      </c>
-      <c r="N52" s="3">
-        <v>27700</v>
-      </c>
-      <c r="O52" s="3">
-        <v>23200</v>
-      </c>
-      <c r="P52" s="3">
-        <v>25400</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>23300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>20600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>22000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>10500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>2200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>5400</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>16</v>
       </c>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,74 +4293,80 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1985200</v>
+        <v>1815700</v>
       </c>
       <c r="E54" s="3">
-        <v>1924900</v>
+        <v>1868800</v>
       </c>
       <c r="F54" s="3">
-        <v>1902000</v>
+        <v>1964900</v>
       </c>
       <c r="G54" s="3">
-        <v>1903700</v>
+        <v>1905200</v>
       </c>
       <c r="H54" s="3">
-        <v>1964800</v>
+        <v>1882500</v>
       </c>
       <c r="I54" s="3">
+        <v>1884200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>1944700</v>
+      </c>
+      <c r="K54" s="3">
         <v>1868000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1826100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1727600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1810900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1794500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1835600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1750200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1705400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1573700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1143100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1032000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>932300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>883600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>627900</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y54" s="3" t="s">
         <v>16</v>
       </c>
@@ -4128,8 +4379,14 @@
       <c r="AB54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,73 +4447,75 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K57" s="3">
+        <v>8100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>600</v>
+      </c>
+      <c r="R57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
-        <v>5300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H57" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I57" s="3">
-        <v>8100</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>5100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>2800</v>
-      </c>
-      <c r="R57" s="3">
-        <v>3000</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1000</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
-      <c r="W57" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X57" s="3" t="s">
-        <v>16</v>
+      <c r="X57" s="3">
+        <v>0</v>
       </c>
       <c r="Y57" s="3" t="s">
         <v>16</v>
@@ -4268,8 +4529,14 @@
       <c r="AB57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,74 +4615,80 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>316800</v>
+        <v>257300</v>
       </c>
       <c r="E59" s="3">
-        <v>321100</v>
+        <v>309700</v>
       </c>
       <c r="F59" s="3">
-        <v>350200</v>
+        <v>313500</v>
       </c>
       <c r="G59" s="3">
-        <v>368200</v>
+        <v>317800</v>
       </c>
       <c r="H59" s="3">
-        <v>374000</v>
+        <v>346600</v>
       </c>
       <c r="I59" s="3">
+        <v>364400</v>
+      </c>
+      <c r="J59" s="3">
+        <v>370200</v>
+      </c>
+      <c r="K59" s="3">
         <v>355100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>339900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>330600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>340500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>362100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>368100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>376200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>337600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>298300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>242600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>199100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>151400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>128700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>244600</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4428,74 +4701,80 @@
       <c r="AB59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>319800</v>
+        <v>261500</v>
       </c>
       <c r="E60" s="3">
-        <v>326400</v>
+        <v>312900</v>
       </c>
       <c r="F60" s="3">
-        <v>351900</v>
+        <v>316500</v>
       </c>
       <c r="G60" s="3">
-        <v>370000</v>
+        <v>323100</v>
       </c>
       <c r="H60" s="3">
-        <v>376800</v>
+        <v>348300</v>
       </c>
       <c r="I60" s="3">
+        <v>366200</v>
+      </c>
+      <c r="J60" s="3">
+        <v>372900</v>
+      </c>
+      <c r="K60" s="3">
         <v>363200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>341000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>332000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>343400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>367200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>368500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>376700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>339300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>301100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>245600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>200500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>154000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>129600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>244600</v>
       </c>
-      <c r="W60" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4508,8 +4787,14 @@
       <c r="AB60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,74 +4873,80 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>17600</v>
+        <v>13800</v>
       </c>
       <c r="E62" s="3">
-        <v>20600</v>
+        <v>14600</v>
       </c>
       <c r="F62" s="3">
-        <v>24500</v>
+        <v>17400</v>
       </c>
       <c r="G62" s="3">
+        <v>20400</v>
+      </c>
+      <c r="H62" s="3">
         <v>24200</v>
       </c>
-      <c r="H62" s="3">
-        <v>28900</v>
-      </c>
       <c r="I62" s="3">
+        <v>24000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>28600</v>
+      </c>
+      <c r="K62" s="3">
         <v>34800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>35700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>34700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>35000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>37800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>38500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>36200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>35300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>33300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>27800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>11700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>9600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>10700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>7000</v>
       </c>
-      <c r="W62" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,74 +5217,80 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>337400</v>
+        <v>275200</v>
       </c>
       <c r="E66" s="3">
-        <v>347000</v>
+        <v>327500</v>
       </c>
       <c r="F66" s="3">
-        <v>376400</v>
+        <v>333900</v>
       </c>
       <c r="G66" s="3">
-        <v>394200</v>
+        <v>343500</v>
       </c>
       <c r="H66" s="3">
-        <v>405600</v>
+        <v>372500</v>
       </c>
       <c r="I66" s="3">
+        <v>390200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>401500</v>
+      </c>
+      <c r="K66" s="3">
         <v>398000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>376600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>366600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>378400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>405000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>407000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>412900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>374500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>334300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>273300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>212200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>163700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>140300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>251600</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y66" s="3" t="s">
         <v>16</v>
       </c>
@@ -4988,8 +5303,14 @@
       <c r="AB66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5238,14 +5573,14 @@
         <v>0</v>
       </c>
       <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
         <v>434700</v>
       </c>
-      <c r="W70" s="3">
-        <v>0</v>
-      </c>
-      <c r="X70" s="3">
-        <v>0</v>
-      </c>
       <c r="Y70" s="3">
         <v>0</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,74 +5679,80 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-163700</v>
+        <v>-230200</v>
       </c>
       <c r="E72" s="3">
-        <v>-172400</v>
+        <v>-236600</v>
       </c>
       <c r="F72" s="3">
-        <v>-169600</v>
+        <v>-162000</v>
       </c>
       <c r="G72" s="3">
-        <v>-169100</v>
+        <v>-170600</v>
       </c>
       <c r="H72" s="3">
-        <v>-124200</v>
+        <v>-167900</v>
       </c>
       <c r="I72" s="3">
+        <v>-167400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-123000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-199500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-226300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-245200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-296800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-224900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-276600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-295900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-324700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-336800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-355400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-347000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-348400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-365300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-59100</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5418,8 +5765,14 @@
       <c r="AB72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,74 +6023,80 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1647900</v>
+        <v>1540400</v>
       </c>
       <c r="E76" s="3">
-        <v>1577800</v>
+        <v>1541400</v>
       </c>
       <c r="F76" s="3">
-        <v>1525600</v>
+        <v>1631000</v>
       </c>
       <c r="G76" s="3">
-        <v>1509500</v>
+        <v>1561700</v>
       </c>
       <c r="H76" s="3">
-        <v>1559200</v>
+        <v>1510000</v>
       </c>
       <c r="I76" s="3">
+        <v>1494000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>1543200</v>
+      </c>
+      <c r="K76" s="3">
         <v>1470100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1449400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1360900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1432500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1389500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1428600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1337300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1330900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1239400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>869700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>819800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>768600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>743300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-58300</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="X76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y76" s="3" t="s">
         <v>16</v>
       </c>
@@ -5738,8 +6109,14 @@
       <c r="AB76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-74500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
-        <v>-44900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>75300</v>
-      </c>
       <c r="I81" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>74500</v>
+      </c>
+      <c r="K81" s="3">
         <v>26700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>26600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>35200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>37300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>30500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>27000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>24600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>19200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>18600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>9700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>14500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>7900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-310800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-71200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-5800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-6100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-20000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6920,14 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6573,8 +7006,14 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +7042,10 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7296,14 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,8 +7758,14 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7353,8 +7844,14 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7930,14 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>HUYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>277100</v>
+        <v>251000</v>
       </c>
       <c r="E8" s="3">
-        <v>298800</v>
+        <v>268600</v>
       </c>
       <c r="F8" s="3">
-        <v>338100</v>
+        <v>289600</v>
       </c>
       <c r="G8" s="3">
-        <v>323400</v>
+        <v>327700</v>
       </c>
       <c r="H8" s="3">
-        <v>350300</v>
+        <v>313500</v>
       </c>
       <c r="I8" s="3">
-        <v>399300</v>
+        <v>339600</v>
       </c>
       <c r="J8" s="3">
+        <v>387000</v>
+      </c>
+      <c r="K8" s="3">
         <v>423000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>425500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>374100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>416200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>414800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>397500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>380500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>379900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>353400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>307200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>249300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>218600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>178700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>149000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>121000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>110000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>86600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>68500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>58000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>49300</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>240600</v>
+        <v>213300</v>
       </c>
       <c r="E9" s="3">
-        <v>339200</v>
+        <v>233200</v>
       </c>
       <c r="F9" s="3">
-        <v>289400</v>
+        <v>328800</v>
       </c>
       <c r="G9" s="3">
-        <v>292300</v>
+        <v>280500</v>
       </c>
       <c r="H9" s="3">
-        <v>302900</v>
+        <v>283300</v>
       </c>
       <c r="I9" s="3">
-        <v>399100</v>
+        <v>293600</v>
       </c>
       <c r="J9" s="3">
+        <v>386800</v>
+      </c>
+      <c r="K9" s="3">
         <v>351300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>342000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>333100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>323300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>312700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>305600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>308100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>290000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>255900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>207500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>183900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>151600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>125100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>102200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>93900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>75700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>59900</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>55700</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>56300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>36500</v>
+        <v>37600</v>
       </c>
       <c r="E10" s="3">
-        <v>-40400</v>
+        <v>35300</v>
       </c>
       <c r="F10" s="3">
-        <v>48700</v>
+        <v>-39200</v>
       </c>
       <c r="G10" s="3">
-        <v>31200</v>
+        <v>47200</v>
       </c>
       <c r="H10" s="3">
-        <v>47400</v>
+        <v>30200</v>
       </c>
       <c r="I10" s="3">
+        <v>46000</v>
+      </c>
+      <c r="J10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>71600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>83500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>73800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>83200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>91400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>84700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>74900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>71800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>63400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>51300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>41800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>34700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>27100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>23900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>18800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>16000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>10900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>8500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>-7000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,94 +1086,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>21700</v>
+        <v>19900</v>
       </c>
       <c r="E12" s="3">
-        <v>20500</v>
+        <v>21000</v>
       </c>
       <c r="F12" s="3">
-        <v>24400</v>
+        <v>19800</v>
       </c>
       <c r="G12" s="3">
-        <v>23900</v>
+        <v>23700</v>
       </c>
       <c r="H12" s="3">
-        <v>27900</v>
+        <v>23200</v>
       </c>
       <c r="I12" s="3">
-        <v>29200</v>
+        <v>27000</v>
       </c>
       <c r="J12" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K12" s="3">
         <v>29300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>28600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>30000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>26900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>26500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>24600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>27500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>21100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>16100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>13800</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>11500</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>10400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>8600</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>7400</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>6500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>7300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>5200</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>6200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>7700</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,19 +1262,22 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="E14" s="3">
-        <v>7800</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7600</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>16</v>
@@ -1271,8 +1291,8 @@
       <c r="J14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>284300</v>
+        <v>263900</v>
       </c>
       <c r="E17" s="3">
-        <v>388700</v>
+        <v>275600</v>
       </c>
       <c r="F17" s="3">
-        <v>336500</v>
+        <v>376700</v>
       </c>
       <c r="G17" s="3">
-        <v>334900</v>
+        <v>326100</v>
       </c>
       <c r="H17" s="3">
-        <v>358900</v>
+        <v>324600</v>
       </c>
       <c r="I17" s="3">
-        <v>464300</v>
+        <v>347900</v>
       </c>
       <c r="J17" s="3">
+        <v>450000</v>
+      </c>
+      <c r="K17" s="3">
         <v>411200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>399300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>350800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>390200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>381900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>370700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>359500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>364300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>343400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>296800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>244900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>215900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>179100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>151500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>117000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>110200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>91700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>71000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>64100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>69400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-7200</v>
+        <v>-12900</v>
       </c>
       <c r="E18" s="3">
-        <v>-89800</v>
+        <v>-7000</v>
       </c>
       <c r="F18" s="3">
+        <v>-87100</v>
+      </c>
+      <c r="G18" s="3">
         <v>1600</v>
       </c>
-      <c r="G18" s="3">
-        <v>-11500</v>
-      </c>
       <c r="H18" s="3">
-        <v>-8600</v>
+        <v>-11200</v>
       </c>
       <c r="I18" s="3">
-        <v>-65000</v>
+        <v>-8300</v>
       </c>
       <c r="J18" s="3">
+        <v>-63000</v>
+      </c>
+      <c r="K18" s="3">
         <v>11800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>23300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>32800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>26700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>21000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>4300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>4000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-5100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-2500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-6100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-20100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1650,94 +1683,98 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>13800</v>
+        <v>16900</v>
       </c>
       <c r="E20" s="3">
-        <v>15000</v>
+        <v>13300</v>
       </c>
       <c r="F20" s="3">
-        <v>9700</v>
+        <v>14500</v>
       </c>
       <c r="G20" s="3">
+        <v>9400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I20" s="3">
+        <v>9200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>8500</v>
+      </c>
+      <c r="K20" s="3">
+        <v>14700</v>
+      </c>
+      <c r="L20" s="3">
         <v>8900</v>
       </c>
-      <c r="H20" s="3">
-        <v>9500</v>
-      </c>
-      <c r="I20" s="3">
-        <v>8800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>14700</v>
-      </c>
-      <c r="K20" s="3">
-        <v>8900</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>10300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>11900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>12100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>13600</v>
       </c>
       <c r="R20" s="3">
         <v>13600</v>
       </c>
       <c r="S20" s="3">
+        <v>13600</v>
+      </c>
+      <c r="T20" s="3">
         <v>11600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>7700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-320100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>300</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>100</v>
       </c>
       <c r="AC20" s="3">
         <v>100</v>
       </c>
       <c r="AD20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1822,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,163 +1948,169 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6600</v>
+        <v>4000</v>
       </c>
       <c r="E23" s="3">
-        <v>-74800</v>
+        <v>6400</v>
       </c>
       <c r="F23" s="3">
-        <v>11400</v>
+        <v>-72500</v>
       </c>
       <c r="G23" s="3">
-        <v>-2600</v>
+        <v>11000</v>
       </c>
       <c r="H23" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
-        <v>-56200</v>
-      </c>
       <c r="J23" s="3">
+        <v>-54500</v>
+      </c>
+      <c r="K23" s="3">
         <v>26500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>35000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>32300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>36300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>44700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>38000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>33100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>29300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>23600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>21900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>12600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>10300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-322600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>3900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-6100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-20000</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>800</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
-        <v>2800</v>
-      </c>
       <c r="G24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1300</v>
       </c>
-      <c r="I24" s="3">
-        <v>-11800</v>
-      </c>
       <c r="J24" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K24" s="3">
         <v>5800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-4600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-600</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6400</v>
+        <v>3200</v>
       </c>
       <c r="E26" s="3">
-        <v>-74500</v>
+        <v>6200</v>
       </c>
       <c r="F26" s="3">
-        <v>8600</v>
+        <v>-72200</v>
       </c>
       <c r="G26" s="3">
-        <v>-2800</v>
+        <v>8300</v>
       </c>
       <c r="H26" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>-44400</v>
-      </c>
       <c r="J26" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="K26" s="3">
         <v>20700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>26700</v>
       </c>
       <c r="L26" s="3">
         <v>26700</v>
       </c>
       <c r="M26" s="3">
+        <v>26700</v>
+      </c>
+      <c r="N26" s="3">
         <v>31200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>37300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>30500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>27200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>25000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>19200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>18600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>9700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>15000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>7900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-321700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-4300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-6100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-20000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6400</v>
+        <v>3200</v>
       </c>
       <c r="E27" s="3">
-        <v>-74500</v>
+        <v>6200</v>
       </c>
       <c r="F27" s="3">
-        <v>8600</v>
+        <v>-72300</v>
       </c>
       <c r="G27" s="3">
-        <v>-2800</v>
+        <v>8300</v>
       </c>
       <c r="H27" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
-        <v>-44400</v>
-      </c>
       <c r="J27" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="K27" s="3">
         <v>74500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>35200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>37300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>27000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>24600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>19200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>18600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>9700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>14500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>7900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-310800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-71200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-6100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-20000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-13800</v>
+        <v>-16900</v>
       </c>
       <c r="E32" s="3">
-        <v>-15000</v>
+        <v>-13300</v>
       </c>
       <c r="F32" s="3">
-        <v>-9700</v>
+        <v>-14500</v>
       </c>
       <c r="G32" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="L32" s="3">
         <v>-8900</v>
       </c>
-      <c r="H32" s="3">
-        <v>-9500</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-14700</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-8900</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-10300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-11900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-12100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-13600</v>
       </c>
       <c r="R32" s="3">
         <v>-13600</v>
       </c>
       <c r="S32" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="T32" s="3">
         <v>-11600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-7700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>320100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-300</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>-100</v>
       </c>
       <c r="AC32" s="3">
         <v>-100</v>
       </c>
       <c r="AD32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6400</v>
+        <v>3200</v>
       </c>
       <c r="E33" s="3">
-        <v>-74500</v>
+        <v>6200</v>
       </c>
       <c r="F33" s="3">
-        <v>8600</v>
+        <v>-72300</v>
       </c>
       <c r="G33" s="3">
-        <v>-2800</v>
+        <v>8300</v>
       </c>
       <c r="H33" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
-        <v>-44400</v>
-      </c>
       <c r="J33" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="K33" s="3">
         <v>74500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>26600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>35200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>37300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>30500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>27000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>24600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>19200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>18600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>9700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>14500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>7900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-310800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-71200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-6100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-20000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6400</v>
+        <v>3200</v>
       </c>
       <c r="E35" s="3">
-        <v>-74500</v>
+        <v>6200</v>
       </c>
       <c r="F35" s="3">
-        <v>8600</v>
+        <v>-72300</v>
       </c>
       <c r="G35" s="3">
-        <v>-2800</v>
+        <v>8300</v>
       </c>
       <c r="H35" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
-        <v>-44400</v>
-      </c>
       <c r="J35" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="K35" s="3">
         <v>74500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>26600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>35200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>37300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>30500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>27000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>24600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>19200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>18600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>9700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>14500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>7900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-310800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-71200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-6100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-20000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,77 +3267,78 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1388900</v>
+        <v>1243100</v>
       </c>
       <c r="E41" s="3">
-        <v>1375100</v>
+        <v>1346200</v>
       </c>
       <c r="F41" s="3">
-        <v>1514000</v>
+        <v>1332800</v>
       </c>
       <c r="G41" s="3">
-        <v>1523000</v>
+        <v>1467500</v>
       </c>
       <c r="H41" s="3">
-        <v>1385900</v>
+        <v>1476200</v>
       </c>
       <c r="I41" s="3">
-        <v>1441800</v>
+        <v>1343200</v>
       </c>
       <c r="J41" s="3">
+        <v>1397500</v>
+      </c>
+      <c r="K41" s="3">
         <v>1437100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1383600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1370200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1290200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1341400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1230000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1243000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1209800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1322900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1254600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>869400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>826800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>805000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>770000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>584200</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z41" s="3" t="s">
         <v>16</v>
       </c>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3276,65 +3366,65 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>400</v>
-      </c>
-      <c r="F42" s="3">
-        <v>300</v>
       </c>
       <c r="G42" s="3">
         <v>300</v>
       </c>
       <c r="H42" s="3">
-        <v>102900</v>
+        <v>300</v>
       </c>
       <c r="I42" s="3">
-        <v>116000</v>
+        <v>99800</v>
       </c>
       <c r="J42" s="3">
+        <v>112500</v>
+      </c>
+      <c r="K42" s="3">
         <v>143500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>158700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>159500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>168000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>249800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>353400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>384600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>341800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>165000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>137700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>97600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>43600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>17000</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>21300</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Y42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3353,77 +3443,80 @@
       <c r="AD42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>21100</v>
+        <v>17000</v>
       </c>
       <c r="E43" s="3">
-        <v>19300</v>
+        <v>20400</v>
       </c>
       <c r="F43" s="3">
-        <v>22200</v>
+        <v>18700</v>
       </c>
       <c r="G43" s="3">
-        <v>31100</v>
+        <v>21500</v>
       </c>
       <c r="H43" s="3">
-        <v>31200</v>
+        <v>30200</v>
       </c>
       <c r="I43" s="3">
-        <v>33600</v>
+        <v>30200</v>
       </c>
       <c r="J43" s="3">
+        <v>32600</v>
+      </c>
+      <c r="K43" s="3">
         <v>40700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>41000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>33800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>18900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>19000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>17100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>17600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>17500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>25700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>14600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>33500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>41100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>18500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>19900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>19800</v>
       </c>
-      <c r="Y43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3439,8 +3532,11 @@
       <c r="AD43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3525,77 +3621,80 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>83400</v>
+        <v>84700</v>
       </c>
       <c r="E45" s="3">
-        <v>91200</v>
+        <v>80800</v>
       </c>
       <c r="F45" s="3">
-        <v>144500</v>
+        <v>88400</v>
       </c>
       <c r="G45" s="3">
-        <v>113700</v>
+        <v>140100</v>
       </c>
       <c r="H45" s="3">
-        <v>132100</v>
+        <v>110200</v>
       </c>
       <c r="I45" s="3">
-        <v>102400</v>
+        <v>128000</v>
       </c>
       <c r="J45" s="3">
+        <v>99300</v>
+      </c>
+      <c r="K45" s="3">
         <v>133300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>107700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>94800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>91900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>71800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>61100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>63100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>61900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>68100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>46800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>35500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>46400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>32700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>24700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>12200</v>
       </c>
-      <c r="Y45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3611,77 +3710,80 @@
       <c r="AD45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1493300</v>
+        <v>1344800</v>
       </c>
       <c r="E46" s="3">
-        <v>1486000</v>
+        <v>1447400</v>
       </c>
       <c r="F46" s="3">
-        <v>1681100</v>
+        <v>1440300</v>
       </c>
       <c r="G46" s="3">
-        <v>1668200</v>
+        <v>1629400</v>
       </c>
       <c r="H46" s="3">
-        <v>1652100</v>
+        <v>1616900</v>
       </c>
       <c r="I46" s="3">
-        <v>1693900</v>
+        <v>1601300</v>
       </c>
       <c r="J46" s="3">
+        <v>1641800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1754600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1690900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1658300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1568900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1682100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1661600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1708300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1630900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1581700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1453600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1035900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>957800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>873300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>835800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>616200</v>
       </c>
-      <c r="Y46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3697,77 +3799,80 @@
       <c r="AD46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>140300</v>
+        <v>129100</v>
       </c>
       <c r="E47" s="3">
-        <v>128800</v>
+        <v>136000</v>
       </c>
       <c r="F47" s="3">
-        <v>131000</v>
+        <v>124900</v>
       </c>
       <c r="G47" s="3">
-        <v>127800</v>
+        <v>127000</v>
       </c>
       <c r="H47" s="3">
-        <v>123000</v>
+        <v>123900</v>
       </c>
       <c r="I47" s="3">
-        <v>86500</v>
+        <v>119200</v>
       </c>
       <c r="J47" s="3">
+        <v>83900</v>
+      </c>
+      <c r="K47" s="3">
         <v>82800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>72500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>73200</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>65000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>66400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>63400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>63500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>58400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>57400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>56200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>50200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>31900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>29800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>30400</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>100</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3783,77 +3888,80 @@
       <c r="AD47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>79200</v>
+        <v>79100</v>
       </c>
       <c r="E48" s="3">
-        <v>77600</v>
+        <v>76700</v>
       </c>
       <c r="F48" s="3">
-        <v>73700</v>
+        <v>75200</v>
       </c>
       <c r="G48" s="3">
-        <v>72400</v>
+        <v>71500</v>
       </c>
       <c r="H48" s="3">
-        <v>66000</v>
+        <v>70100</v>
       </c>
       <c r="I48" s="3">
-        <v>67500</v>
+        <v>64000</v>
       </c>
       <c r="J48" s="3">
+        <v>65400</v>
+      </c>
+      <c r="K48" s="3">
         <v>69300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>25300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>30000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>30900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>30700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>33500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>33600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>28900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>11700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>10000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>5500</v>
       </c>
-      <c r="Y48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3869,77 +3977,80 @@
       <c r="AD48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>8000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K49" s="3">
+        <v>12900</v>
+      </c>
+      <c r="L49" s="3">
+        <v>13600</v>
+      </c>
+      <c r="M49" s="3">
+        <v>7300</v>
+      </c>
+      <c r="N49" s="3">
+        <v>8700</v>
+      </c>
+      <c r="O49" s="3">
+        <v>10700</v>
+      </c>
+      <c r="P49" s="3">
+        <v>9700</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>7000</v>
+      </c>
+      <c r="R49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="S49" s="3">
         <v>7400</v>
       </c>
-      <c r="E49" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>9000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>10200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>11200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>11900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>12900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>13600</v>
-      </c>
-      <c r="L49" s="3">
-        <v>7300</v>
-      </c>
-      <c r="M49" s="3">
-        <v>8700</v>
-      </c>
-      <c r="N49" s="3">
-        <v>10700</v>
-      </c>
-      <c r="O49" s="3">
-        <v>9700</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="T49" s="3">
+        <v>6900</v>
+      </c>
+      <c r="U49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="V49" s="3">
+        <v>7500</v>
+      </c>
+      <c r="W49" s="3">
         <v>7000</v>
       </c>
-      <c r="Q49" s="3">
-        <v>6900</v>
-      </c>
-      <c r="R49" s="3">
-        <v>7400</v>
-      </c>
-      <c r="S49" s="3">
-        <v>6900</v>
-      </c>
-      <c r="T49" s="3">
-        <v>7400</v>
-      </c>
-      <c r="U49" s="3">
-        <v>7500</v>
-      </c>
-      <c r="V49" s="3">
-        <v>7000</v>
-      </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>5200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>800</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z49" s="3" t="s">
         <v>16</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,77 +4244,80 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>95500</v>
+        <v>265800</v>
       </c>
       <c r="E52" s="3">
-        <v>168200</v>
+        <v>92500</v>
       </c>
       <c r="F52" s="3">
-        <v>70100</v>
+        <v>163100</v>
       </c>
       <c r="G52" s="3">
-        <v>26500</v>
+        <v>67900</v>
       </c>
       <c r="H52" s="3">
-        <v>30200</v>
+        <v>25700</v>
       </c>
       <c r="I52" s="3">
-        <v>24300</v>
+        <v>29300</v>
       </c>
       <c r="J52" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K52" s="3">
         <v>25200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>64800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>63900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>59500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>21700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>28900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>27700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>23200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>25400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>23300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>20600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>22000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>10500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>5400</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>16</v>
       </c>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,77 +4422,80 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1815700</v>
+        <v>1825400</v>
       </c>
       <c r="E54" s="3">
-        <v>1868800</v>
+        <v>1759800</v>
       </c>
       <c r="F54" s="3">
-        <v>1964900</v>
+        <v>1811400</v>
       </c>
       <c r="G54" s="3">
-        <v>1905200</v>
+        <v>1904500</v>
       </c>
       <c r="H54" s="3">
-        <v>1882500</v>
+        <v>1846600</v>
       </c>
       <c r="I54" s="3">
-        <v>1884200</v>
+        <v>1824600</v>
       </c>
       <c r="J54" s="3">
+        <v>1826300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1944700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1868000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1826100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1727600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1810900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1794500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1835600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1750200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1705400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1573700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1143100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1032000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>932300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>883600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>627900</v>
       </c>
-      <c r="Y54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z54" s="3" t="s">
         <v>16</v>
       </c>
@@ -4385,8 +4511,11 @@
       <c r="AD54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,76 +4579,77 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4200</v>
+        <v>7600</v>
       </c>
       <c r="E57" s="3">
-        <v>3200</v>
+        <v>4000</v>
       </c>
       <c r="F57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L57" s="3">
+        <v>8100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="P57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
+        <v>600</v>
+      </c>
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>8100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2900</v>
-      </c>
-      <c r="O57" s="3">
-        <v>5100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>600</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1000</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>16</v>
+      <c r="Y57" s="3">
+        <v>0</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>16</v>
@@ -4535,8 +4666,11 @@
       <c r="AD57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4621,77 +4755,80 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>257300</v>
+        <v>254600</v>
       </c>
       <c r="E59" s="3">
-        <v>309700</v>
+        <v>249400</v>
       </c>
       <c r="F59" s="3">
-        <v>313500</v>
+        <v>300200</v>
       </c>
       <c r="G59" s="3">
-        <v>317800</v>
+        <v>303900</v>
       </c>
       <c r="H59" s="3">
-        <v>346600</v>
+        <v>308000</v>
       </c>
       <c r="I59" s="3">
-        <v>364400</v>
+        <v>336000</v>
       </c>
       <c r="J59" s="3">
+        <v>353200</v>
+      </c>
+      <c r="K59" s="3">
         <v>370200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>355100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>339900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>330600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>340500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>362100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>368100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>376200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>337600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>298300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>242600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>199100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>151400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>128700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>244600</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4707,77 +4844,80 @@
       <c r="AD59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>261500</v>
+        <v>262200</v>
       </c>
       <c r="E60" s="3">
-        <v>312900</v>
+        <v>253400</v>
       </c>
       <c r="F60" s="3">
-        <v>316500</v>
+        <v>303300</v>
       </c>
       <c r="G60" s="3">
-        <v>323100</v>
+        <v>306700</v>
       </c>
       <c r="H60" s="3">
-        <v>348300</v>
+        <v>313200</v>
       </c>
       <c r="I60" s="3">
-        <v>366200</v>
+        <v>337600</v>
       </c>
       <c r="J60" s="3">
+        <v>354900</v>
+      </c>
+      <c r="K60" s="3">
         <v>372900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>363200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>341000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>332000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>343400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>367200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>368500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>376700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>339300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>301100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>245600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>200500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>154000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>129600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>244600</v>
       </c>
-      <c r="Y60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4793,8 +4933,11 @@
       <c r="AD60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4879,77 +5022,80 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>13800</v>
+        <v>11900</v>
       </c>
       <c r="E62" s="3">
-        <v>14600</v>
+        <v>13300</v>
       </c>
       <c r="F62" s="3">
-        <v>17400</v>
+        <v>14100</v>
       </c>
       <c r="G62" s="3">
-        <v>20400</v>
+        <v>16900</v>
       </c>
       <c r="H62" s="3">
-        <v>24200</v>
+        <v>19700</v>
       </c>
       <c r="I62" s="3">
-        <v>24000</v>
+        <v>23500</v>
       </c>
       <c r="J62" s="3">
+        <v>23200</v>
+      </c>
+      <c r="K62" s="3">
         <v>28600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>35700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>34700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>35000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>37800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>38500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>36200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>35300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>33300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>27800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>11700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>9600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>10700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7000</v>
       </c>
-      <c r="Y62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>16</v>
       </c>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,77 +5378,80 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>275200</v>
+        <v>274200</v>
       </c>
       <c r="E66" s="3">
-        <v>327500</v>
+        <v>266800</v>
       </c>
       <c r="F66" s="3">
-        <v>333900</v>
+        <v>317400</v>
       </c>
       <c r="G66" s="3">
-        <v>343500</v>
+        <v>323600</v>
       </c>
       <c r="H66" s="3">
-        <v>372500</v>
+        <v>332900</v>
       </c>
       <c r="I66" s="3">
-        <v>390200</v>
+        <v>361100</v>
       </c>
       <c r="J66" s="3">
+        <v>378200</v>
+      </c>
+      <c r="K66" s="3">
         <v>401500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>398000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>376600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>366600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>378400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>405000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>407000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>412900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>374500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>334300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>273300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>212200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>163700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>140300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>251600</v>
       </c>
-      <c r="Y66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z66" s="3" t="s">
         <v>16</v>
       </c>
@@ -5309,8 +5467,11 @@
       <c r="AD66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5579,11 +5747,11 @@
         <v>0</v>
       </c>
       <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
         <v>434700</v>
       </c>
-      <c r="Y70" s="3">
-        <v>0</v>
-      </c>
       <c r="Z70" s="3">
         <v>0</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,77 +5856,80 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-230200</v>
+        <v>-219900</v>
       </c>
       <c r="E72" s="3">
-        <v>-236600</v>
+        <v>-223100</v>
       </c>
       <c r="F72" s="3">
-        <v>-162000</v>
+        <v>-229300</v>
       </c>
       <c r="G72" s="3">
-        <v>-170600</v>
+        <v>-157100</v>
       </c>
       <c r="H72" s="3">
-        <v>-167900</v>
+        <v>-165400</v>
       </c>
       <c r="I72" s="3">
-        <v>-167400</v>
+        <v>-162700</v>
       </c>
       <c r="J72" s="3">
+        <v>-162300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-123000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-199500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-226300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-245200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-296800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-224900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-276600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-295900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-324700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-336800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-355400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-347000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-348400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-365300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-59100</v>
       </c>
-      <c r="Y72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,77 +6212,80 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1540400</v>
+        <v>1551200</v>
       </c>
       <c r="E76" s="3">
-        <v>1541400</v>
+        <v>1493100</v>
       </c>
       <c r="F76" s="3">
-        <v>1631000</v>
+        <v>1494000</v>
       </c>
       <c r="G76" s="3">
-        <v>1561700</v>
+        <v>1580900</v>
       </c>
       <c r="H76" s="3">
-        <v>1510000</v>
+        <v>1513700</v>
       </c>
       <c r="I76" s="3">
-        <v>1494000</v>
+        <v>1463500</v>
       </c>
       <c r="J76" s="3">
+        <v>1448100</v>
+      </c>
+      <c r="K76" s="3">
         <v>1543200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1470100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1449400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1360900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1432500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1389500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1428600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1337300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1330900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1239400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>869700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>819800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>768600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>743300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-58300</v>
       </c>
-      <c r="Y76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z76" s="3" t="s">
         <v>16</v>
       </c>
@@ -6115,8 +6301,11 @@
       <c r="AD76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6400</v>
+        <v>3200</v>
       </c>
       <c r="E81" s="3">
-        <v>-74500</v>
+        <v>6200</v>
       </c>
       <c r="F81" s="3">
-        <v>8600</v>
+        <v>-72300</v>
       </c>
       <c r="G81" s="3">
-        <v>-2800</v>
+        <v>8300</v>
       </c>
       <c r="H81" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
-        <v>-44400</v>
-      </c>
       <c r="J81" s="3">
+        <v>-43100</v>
+      </c>
+      <c r="K81" s="3">
         <v>74500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>26600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>35200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>37300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>30500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>27000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>24600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>19200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>18600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>9700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>14500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>7900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-310800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-71200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-5800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-6100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-20000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7012,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7850,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,8 +8185,11 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HUYA_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>HUYA</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>251000</v>
+        <v>227500</v>
       </c>
       <c r="E8" s="3">
-        <v>268600</v>
+        <v>251500</v>
       </c>
       <c r="F8" s="3">
-        <v>289600</v>
+        <v>269100</v>
       </c>
       <c r="G8" s="3">
-        <v>327700</v>
+        <v>290300</v>
       </c>
       <c r="H8" s="3">
-        <v>313500</v>
+        <v>328400</v>
       </c>
       <c r="I8" s="3">
-        <v>339600</v>
+        <v>314200</v>
       </c>
       <c r="J8" s="3">
+        <v>340300</v>
+      </c>
+      <c r="K8" s="3">
         <v>387000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>423000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>425500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>374100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>416200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>414800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>397500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>380500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>379900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>353400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>307200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>249300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>218600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>178700</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>149000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>121000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>110000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>86600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>68500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>58000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>49300</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>28600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>213300</v>
+        <v>196000</v>
       </c>
       <c r="E9" s="3">
-        <v>233200</v>
+        <v>213800</v>
       </c>
       <c r="F9" s="3">
-        <v>328800</v>
+        <v>233700</v>
       </c>
       <c r="G9" s="3">
-        <v>280500</v>
+        <v>329500</v>
       </c>
       <c r="H9" s="3">
-        <v>283300</v>
+        <v>281200</v>
       </c>
       <c r="I9" s="3">
-        <v>293600</v>
+        <v>283900</v>
       </c>
       <c r="J9" s="3">
+        <v>294200</v>
+      </c>
+      <c r="K9" s="3">
         <v>386800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>351300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>342000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>333100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>323300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>312700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>305600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>308100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>290000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>255900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>207500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>183900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>151600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>125100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>102200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>93900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>75700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>59900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>55700</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>56300</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>40700</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>37600</v>
+        <v>31500</v>
       </c>
       <c r="E10" s="3">
-        <v>35300</v>
+        <v>37700</v>
       </c>
       <c r="F10" s="3">
+        <v>35400</v>
+      </c>
+      <c r="G10" s="3">
         <v>-39200</v>
       </c>
-      <c r="G10" s="3">
-        <v>47200</v>
-      </c>
       <c r="H10" s="3">
-        <v>30200</v>
+        <v>47300</v>
       </c>
       <c r="I10" s="3">
-        <v>46000</v>
+        <v>30300</v>
       </c>
       <c r="J10" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>71600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>83500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>73800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>83200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>91400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>84700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>74900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>71800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>63400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>51300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>41800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>34700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>27100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>23900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>18800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>16000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>10900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>8500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>-7000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>-12000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,97 +1100,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>19600</v>
+      </c>
+      <c r="E12" s="3">
         <v>19900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>21000</v>
       </c>
-      <c r="F12" s="3">
-        <v>19800</v>
-      </c>
       <c r="G12" s="3">
+        <v>19900</v>
+      </c>
+      <c r="H12" s="3">
         <v>23700</v>
       </c>
-      <c r="H12" s="3">
-        <v>23200</v>
-      </c>
       <c r="I12" s="3">
-        <v>27000</v>
+        <v>23300</v>
       </c>
       <c r="J12" s="3">
+        <v>27100</v>
+      </c>
+      <c r="K12" s="3">
         <v>28300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>29300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>29900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>28600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>30000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>26900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>26500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>24600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>27500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>21100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>16100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>13800</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>11500</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>10400</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>8600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>7400</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>6500</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>7300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>5200</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>6200</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>7700</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,23 +1282,26 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E14" s="3">
         <v>9000</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>7600</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1294,8 +1314,8 @@
       <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>263900</v>
+        <v>242600</v>
       </c>
       <c r="E17" s="3">
-        <v>275600</v>
+        <v>264500</v>
       </c>
       <c r="F17" s="3">
-        <v>376700</v>
+        <v>276200</v>
       </c>
       <c r="G17" s="3">
-        <v>326100</v>
+        <v>377500</v>
       </c>
       <c r="H17" s="3">
-        <v>324600</v>
+        <v>326800</v>
       </c>
       <c r="I17" s="3">
-        <v>347900</v>
+        <v>325400</v>
       </c>
       <c r="J17" s="3">
+        <v>348600</v>
+      </c>
+      <c r="K17" s="3">
         <v>450000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>411200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>399300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>350800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>390200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>381900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>370700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>359500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>364300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>343400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>296800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>244900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>215900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>179100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>151500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>117000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>110200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>91700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>71000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>64100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>69400</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>53400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-12900</v>
+        <v>-15100</v>
       </c>
       <c r="E18" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7000</v>
       </c>
-      <c r="F18" s="3">
-        <v>-87100</v>
-      </c>
       <c r="G18" s="3">
+        <v>-87300</v>
+      </c>
+      <c r="H18" s="3">
         <v>1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-63000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>11800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>23300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>32800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>21000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>15700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>10300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>4300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>4000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-5100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-2500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-6100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-20100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1684,97 +1717,101 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E20" s="3">
         <v>16900</v>
       </c>
-      <c r="E20" s="3">
-        <v>13300</v>
-      </c>
       <c r="F20" s="3">
-        <v>14500</v>
+        <v>13400</v>
       </c>
       <c r="G20" s="3">
+        <v>14600</v>
+      </c>
+      <c r="H20" s="3">
         <v>9400</v>
       </c>
-      <c r="H20" s="3">
-        <v>8600</v>
-      </c>
       <c r="I20" s="3">
+        <v>8700</v>
+      </c>
+      <c r="J20" s="3">
         <v>9200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>14700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>10300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>11900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>11300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>12100</v>
-      </c>
-      <c r="R20" s="3">
-        <v>13600</v>
       </c>
       <c r="S20" s="3">
         <v>13600</v>
       </c>
       <c r="T20" s="3">
+        <v>13600</v>
+      </c>
+      <c r="U20" s="3">
         <v>11600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>8300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>7700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>7100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-320100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>300</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>100</v>
       </c>
       <c r="AD20" s="3">
         <v>100</v>
       </c>
       <c r="AE20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1862,8 +1899,11 @@
       <c r="AE21" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,169 +1991,175 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>6400</v>
       </c>
-      <c r="F23" s="3">
-        <v>-72500</v>
-      </c>
       <c r="G23" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="H23" s="3">
         <v>11000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-54500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>26500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>35000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>32300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>36300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>44700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>38000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>33100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>29300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>23600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>21900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>12600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>10300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-322600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>3900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-4300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-6100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-20000</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-11400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>8400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-4600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-1200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>-600</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
       <c r="AA24" s="3">
         <v>0</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>3200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-72200</v>
-      </c>
       <c r="G26" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="H26" s="3">
         <v>8300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-43100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>26700</v>
       </c>
       <c r="M26" s="3">
         <v>26700</v>
       </c>
       <c r="N26" s="3">
+        <v>26700</v>
+      </c>
+      <c r="O26" s="3">
         <v>31200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>37300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>30500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>27200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>25000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>19200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>18600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>9700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>15000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>7900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-321700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-4300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-6100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-20000</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>3200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>6200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-72300</v>
-      </c>
       <c r="G27" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="H27" s="3">
         <v>8300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-43100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>74500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>26600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>35200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>37300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>30500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>27000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>24600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>19200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>18600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>9700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>14500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>7900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-310800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-71200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-5800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-6100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-20000</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-16900</v>
       </c>
-      <c r="E32" s="3">
-        <v>-13300</v>
-      </c>
       <c r="F32" s="3">
-        <v>-14500</v>
+        <v>-13400</v>
       </c>
       <c r="G32" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-9400</v>
       </c>
-      <c r="H32" s="3">
-        <v>-8600</v>
-      </c>
       <c r="I32" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-9200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-14700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-10300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-11900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-12100</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-13600</v>
       </c>
       <c r="S32" s="3">
         <v>-13600</v>
       </c>
       <c r="T32" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="U32" s="3">
         <v>-11600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-8300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-7700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-7100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>320100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-300</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>-100</v>
       </c>
       <c r="AD32" s="3">
         <v>-100</v>
       </c>
       <c r="AE32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>3200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>6200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-72300</v>
-      </c>
       <c r="G33" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="H33" s="3">
         <v>8300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-43100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>74500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>26700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>26600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>35200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>37300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>30500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>27000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>24600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>19200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>18600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>9700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>14500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>7900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-310800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-71200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-5800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-6100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-20000</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>3200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>6200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-72300</v>
-      </c>
       <c r="G35" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="H35" s="3">
         <v>8300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-43100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>74500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>26700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>26600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>35200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>37300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>30500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>27000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>24600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>19200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>18600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>9700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>14500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>7900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-310800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-71200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-5800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-6100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-20000</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,80 +3354,81 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1243100</v>
+        <v>114000</v>
       </c>
       <c r="E41" s="3">
-        <v>1346200</v>
+        <v>95600</v>
       </c>
       <c r="F41" s="3">
-        <v>1332800</v>
+        <v>268000</v>
       </c>
       <c r="G41" s="3">
-        <v>1467500</v>
+        <v>90500</v>
       </c>
       <c r="H41" s="3">
-        <v>1476200</v>
+        <v>149500</v>
       </c>
       <c r="I41" s="3">
-        <v>1343200</v>
+        <v>285600</v>
       </c>
       <c r="J41" s="3">
+        <v>204400</v>
+      </c>
+      <c r="K41" s="3">
         <v>1397500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1437100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1383600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1370200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1290200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1341400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1230000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1243000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1209800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1322900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1254600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>869400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>826800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>805000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>770000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>584200</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>16</v>
       </c>
@@ -3357,77 +3444,80 @@
       <c r="AE41" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>1057300</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>1150300</v>
       </c>
       <c r="F42" s="3">
-        <v>400</v>
+        <v>1081100</v>
       </c>
       <c r="G42" s="3">
-        <v>300</v>
+        <v>1245700</v>
       </c>
       <c r="H42" s="3">
-        <v>300</v>
+        <v>1321500</v>
       </c>
       <c r="I42" s="3">
-        <v>99800</v>
+        <v>1194200</v>
       </c>
       <c r="J42" s="3">
+        <v>1241800</v>
+      </c>
+      <c r="K42" s="3">
         <v>112500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>143500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>158700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>159500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>168000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>249800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>353400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>384600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>341800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>165000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>137700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>97600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>43600</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>17000</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>21300</v>
       </c>
-      <c r="Y42" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="Z42" s="3" t="s">
         <v>16</v>
       </c>
@@ -3446,80 +3536,83 @@
       <c r="AE42" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>17000</v>
+        <v>24000</v>
       </c>
       <c r="E43" s="3">
-        <v>20400</v>
+        <v>17100</v>
       </c>
       <c r="F43" s="3">
+        <v>20500</v>
+      </c>
+      <c r="G43" s="3">
         <v>18700</v>
       </c>
-      <c r="G43" s="3">
-        <v>21500</v>
-      </c>
       <c r="H43" s="3">
-        <v>30200</v>
+        <v>21600</v>
       </c>
       <c r="I43" s="3">
         <v>30200</v>
       </c>
       <c r="J43" s="3">
+        <v>30300</v>
+      </c>
+      <c r="K43" s="3">
         <v>32600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>40700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>41000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>33800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>18900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>19000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>17100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>17600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>17500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>25700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>14600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>33500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>41100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>18500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>19900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>19800</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA43" s="3" t="s">
         <v>16</v>
       </c>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,80 +3720,83 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>84700</v>
+        <v>94300</v>
       </c>
       <c r="E45" s="3">
-        <v>80800</v>
+        <v>84800</v>
       </c>
       <c r="F45" s="3">
-        <v>88400</v>
+        <v>81000</v>
       </c>
       <c r="G45" s="3">
-        <v>140100</v>
+        <v>88500</v>
       </c>
       <c r="H45" s="3">
-        <v>110200</v>
+        <v>140400</v>
       </c>
       <c r="I45" s="3">
-        <v>128000</v>
+        <v>110400</v>
       </c>
       <c r="J45" s="3">
+        <v>128300</v>
+      </c>
+      <c r="K45" s="3">
         <v>99300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>133300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>107700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>94800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>91900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>71800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>61100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>63100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>61900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>68100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>46800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>35500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>46400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>32700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>24700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>12200</v>
       </c>
-      <c r="Z45" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA45" s="3" t="s">
         <v>16</v>
       </c>
@@ -3713,80 +3812,83 @@
       <c r="AE45" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1344800</v>
+        <v>1289600</v>
       </c>
       <c r="E46" s="3">
-        <v>1447400</v>
+        <v>1347800</v>
       </c>
       <c r="F46" s="3">
-        <v>1440300</v>
+        <v>1450500</v>
       </c>
       <c r="G46" s="3">
-        <v>1629400</v>
+        <v>1443400</v>
       </c>
       <c r="H46" s="3">
-        <v>1616900</v>
+        <v>1633000</v>
       </c>
       <c r="I46" s="3">
-        <v>1601300</v>
+        <v>1620400</v>
       </c>
       <c r="J46" s="3">
+        <v>1604800</v>
+      </c>
+      <c r="K46" s="3">
         <v>1641800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1754600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1690900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1658300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1568900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1682100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1661600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1708300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1630900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1581700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1453600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1035900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>957800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>873300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>835800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>616200</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA46" s="3" t="s">
         <v>16</v>
       </c>
@@ -3802,80 +3904,83 @@
       <c r="AE46" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>129100</v>
+        <v>410600</v>
       </c>
       <c r="E47" s="3">
-        <v>136000</v>
+        <v>381200</v>
       </c>
       <c r="F47" s="3">
-        <v>124900</v>
+        <v>216000</v>
       </c>
       <c r="G47" s="3">
-        <v>127000</v>
+        <v>273200</v>
       </c>
       <c r="H47" s="3">
-        <v>123900</v>
+        <v>176300</v>
       </c>
       <c r="I47" s="3">
-        <v>119200</v>
+        <v>124200</v>
       </c>
       <c r="J47" s="3">
+        <v>119400</v>
+      </c>
+      <c r="K47" s="3">
         <v>83900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>82800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>72500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>73200</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>65000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>66400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>63400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>63500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>58400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>57400</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>56200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>50200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>31900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>29800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>30400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>100</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA47" s="3" t="s">
         <v>16</v>
       </c>
@@ -3891,80 +3996,83 @@
       <c r="AE47" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>79100</v>
+        <v>80600</v>
       </c>
       <c r="E48" s="3">
-        <v>76700</v>
+        <v>79300</v>
       </c>
       <c r="F48" s="3">
-        <v>75200</v>
+        <v>76900</v>
       </c>
       <c r="G48" s="3">
-        <v>71500</v>
+        <v>75400</v>
       </c>
       <c r="H48" s="3">
-        <v>70100</v>
+        <v>71600</v>
       </c>
       <c r="I48" s="3">
-        <v>64000</v>
+        <v>70300</v>
       </c>
       <c r="J48" s="3">
+        <v>64100</v>
+      </c>
+      <c r="K48" s="3">
         <v>65400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>69300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>26100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>25300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>30000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>30900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>30700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>33500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>33600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>28900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>12700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>11700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>10000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>5500</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>16</v>
       </c>
@@ -3980,80 +4088,83 @@
       <c r="AE48" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E49" s="3">
         <v>6500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>7200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8700</v>
       </c>
-      <c r="H49" s="3">
-        <v>9900</v>
-      </c>
       <c r="I49" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J49" s="3">
         <v>10900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>11600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>13600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>10700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>7000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>6900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>7400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>6900</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>7400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>7500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>7000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>5200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>800</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>16</v>
       </c>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,80 +4364,83 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>265800</v>
+        <v>17000</v>
       </c>
       <c r="E52" s="3">
-        <v>92500</v>
+        <v>14600</v>
       </c>
       <c r="F52" s="3">
-        <v>163100</v>
+        <v>13000</v>
       </c>
       <c r="G52" s="3">
-        <v>67900</v>
+        <v>15300</v>
       </c>
       <c r="H52" s="3">
-        <v>25700</v>
+        <v>19000</v>
       </c>
       <c r="I52" s="3">
-        <v>29300</v>
+        <v>25800</v>
       </c>
       <c r="J52" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K52" s="3">
         <v>23600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>25200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>64800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>63900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>59500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>21700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>28900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>27700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>23200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>25400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>23300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>20600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>22000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>10500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>2200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5400</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>16</v>
       </c>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,80 +4548,83 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1825400</v>
+        <v>1803300</v>
       </c>
       <c r="E54" s="3">
-        <v>1759800</v>
+        <v>1829300</v>
       </c>
       <c r="F54" s="3">
-        <v>1811400</v>
+        <v>1763700</v>
       </c>
       <c r="G54" s="3">
-        <v>1904500</v>
+        <v>1815300</v>
       </c>
       <c r="H54" s="3">
-        <v>1846600</v>
+        <v>1908700</v>
       </c>
       <c r="I54" s="3">
-        <v>1824600</v>
+        <v>1850600</v>
       </c>
       <c r="J54" s="3">
+        <v>1828600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1826300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1944700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1868000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1826100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1727600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1810900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1794500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1835600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1750200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1705400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1573700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1143100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1032000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>932300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>883600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>627900</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>16</v>
       </c>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,79 +4710,80 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7600</v>
+        <v>2700</v>
       </c>
       <c r="E57" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
-        <v>2800</v>
-      </c>
       <c r="H57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I57" s="3">
         <v>5100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1700</v>
       </c>
       <c r="J57" s="3">
         <v>1700</v>
       </c>
       <c r="K57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L57" s="3">
         <v>2700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>8100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1000</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="3" t="s">
-        <v>16</v>
+      <c r="Z57" s="3">
+        <v>0</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>16</v>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4758,80 +4892,83 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>254600</v>
+        <v>247400</v>
       </c>
       <c r="E59" s="3">
-        <v>249400</v>
+        <v>255200</v>
       </c>
       <c r="F59" s="3">
-        <v>300200</v>
+        <v>249900</v>
       </c>
       <c r="G59" s="3">
-        <v>303900</v>
+        <v>300800</v>
       </c>
       <c r="H59" s="3">
-        <v>308000</v>
+        <v>304600</v>
       </c>
       <c r="I59" s="3">
-        <v>336000</v>
+        <v>308700</v>
       </c>
       <c r="J59" s="3">
+        <v>336700</v>
+      </c>
+      <c r="K59" s="3">
         <v>353200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>370200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>355100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>339900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>330600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>340500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>362100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>368100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>376200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>337600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>298300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>242600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>199100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>151400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>128700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>244600</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>16</v>
       </c>
@@ -4847,80 +4984,83 @@
       <c r="AE59" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>262200</v>
+        <v>250100</v>
       </c>
       <c r="E60" s="3">
-        <v>253400</v>
+        <v>262800</v>
       </c>
       <c r="F60" s="3">
-        <v>303300</v>
+        <v>254000</v>
       </c>
       <c r="G60" s="3">
-        <v>306700</v>
+        <v>303900</v>
       </c>
       <c r="H60" s="3">
-        <v>313200</v>
+        <v>307400</v>
       </c>
       <c r="I60" s="3">
-        <v>337600</v>
+        <v>313800</v>
       </c>
       <c r="J60" s="3">
+        <v>338400</v>
+      </c>
+      <c r="K60" s="3">
         <v>354900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>372900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>363200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>341000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>332000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>343400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>367200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>368500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>376700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>339300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>301100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>245600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>200500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>154000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>129600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>244600</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA60" s="3" t="s">
         <v>16</v>
       </c>
@@ -4936,8 +5076,11 @@
       <c r="AE60" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -5025,80 +5168,83 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>11900</v>
+        <v>11100</v>
       </c>
       <c r="E62" s="3">
-        <v>13300</v>
+        <v>12000</v>
       </c>
       <c r="F62" s="3">
-        <v>14100</v>
+        <v>13400</v>
       </c>
       <c r="G62" s="3">
+        <v>14200</v>
+      </c>
+      <c r="H62" s="3">
         <v>16900</v>
       </c>
-      <c r="H62" s="3">
-        <v>19700</v>
-      </c>
       <c r="I62" s="3">
+        <v>19800</v>
+      </c>
+      <c r="J62" s="3">
         <v>23500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>23200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>28600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>35700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>34700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>35000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>37800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>38500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>36200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>35300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>33300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>27800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>11700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>9600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>10700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7000</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>16</v>
       </c>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,80 +5536,83 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>274200</v>
+        <v>261100</v>
       </c>
       <c r="E66" s="3">
-        <v>266800</v>
+        <v>274800</v>
       </c>
       <c r="F66" s="3">
-        <v>317400</v>
+        <v>267400</v>
       </c>
       <c r="G66" s="3">
-        <v>323600</v>
+        <v>318100</v>
       </c>
       <c r="H66" s="3">
-        <v>332900</v>
+        <v>324300</v>
       </c>
       <c r="I66" s="3">
-        <v>361100</v>
+        <v>333600</v>
       </c>
       <c r="J66" s="3">
+        <v>361900</v>
+      </c>
+      <c r="K66" s="3">
         <v>378200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>401500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>398000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>376600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>366600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>378400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>405000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>407000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>412900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>374500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>334300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>273300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>212200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>163700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>140300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>251600</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>16</v>
       </c>
@@ -5470,8 +5628,11 @@
       <c r="AE66" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5750,11 +5918,11 @@
         <v>0</v>
       </c>
       <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
         <v>434700</v>
       </c>
-      <c r="Z70" s="3">
-        <v>0</v>
-      </c>
       <c r="AA70" s="3">
         <v>0</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,80 +6030,83 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-219900</v>
+        <v>-218800</v>
       </c>
       <c r="E72" s="3">
-        <v>-223100</v>
+        <v>-220400</v>
       </c>
       <c r="F72" s="3">
-        <v>-229300</v>
+        <v>-223600</v>
       </c>
       <c r="G72" s="3">
-        <v>-157100</v>
+        <v>-229800</v>
       </c>
       <c r="H72" s="3">
-        <v>-165400</v>
+        <v>-157400</v>
       </c>
       <c r="I72" s="3">
-        <v>-162700</v>
+        <v>-165800</v>
       </c>
       <c r="J72" s="3">
+        <v>-163100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-162300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-123000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-199500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-226300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-245200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-296800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-224900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-276600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-295900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-324700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-336800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-355400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-347000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-348400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-365300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-59100</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>16</v>
       </c>
@@ -5948,8 +6122,11 @@
       <c r="AE72" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,80 +6398,83 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1551200</v>
+        <v>1542200</v>
       </c>
       <c r="E76" s="3">
-        <v>1493100</v>
+        <v>1554600</v>
       </c>
       <c r="F76" s="3">
-        <v>1494000</v>
+        <v>1496300</v>
       </c>
       <c r="G76" s="3">
-        <v>1580900</v>
+        <v>1497300</v>
       </c>
       <c r="H76" s="3">
-        <v>1513700</v>
+        <v>1584300</v>
       </c>
       <c r="I76" s="3">
-        <v>1463500</v>
+        <v>1517000</v>
       </c>
       <c r="J76" s="3">
+        <v>1466700</v>
+      </c>
+      <c r="K76" s="3">
         <v>1448100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1543200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1470100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1449400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1360900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1432500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1389500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1428600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1337300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1330900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1239400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>869700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>819800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>768600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>743300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-58300</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>16</v>
       </c>
@@ -6304,8 +6490,11 @@
       <c r="AE76" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>3200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>6200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-72300</v>
-      </c>
       <c r="G81" s="3">
+        <v>-72400</v>
+      </c>
+      <c r="H81" s="3">
         <v>8300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-43100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>74500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>26700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>26600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>35200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>37300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>30500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>27000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>24600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>19200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>18600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>9700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>14500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>7900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-310800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-71200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-5800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-2200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-6100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-20000</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-24800</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
